--- a/plan.xlsx
+++ b/plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{86A97B68-B6E7-46FD-9BB3-CA857F28D75F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{61CA1064-5AEB-4E9B-8C6E-CEEF98F80767}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1730,36 +1730,306 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1768,15 +2038,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1786,267 +2047,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2389,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="19.8" thickBottom="1"/>
@@ -2424,187 +2424,187 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="49"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="75"/>
-      <c r="M1" s="162" t="s">
+      <c r="I1" s="163"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="165"/>
+      <c r="M1" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="168" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="83"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
       <c r="K2" s="62"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="64"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="162"/>
       <c r="D3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="64"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="162"/>
       <c r="D4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="64" t="s">
+      <c r="A5" s="91"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="162" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="54" t="s">
         <v>227</v>
       </c>
       <c r="E5" s="62"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="64"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="162"/>
       <c r="D6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="162"/>
       <c r="D7" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="70" t="s">
+      <c r="A8" s="91"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="130" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="71"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="71"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="131"/>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="72"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="82"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
     </row>
     <row r="12" spans="1:15" ht="18" thickBot="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="96" t="s">
+      <c r="A12" s="91"/>
+      <c r="B12" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="95" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -2618,85 +2618,85 @@
       <c r="K12" s="62"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="86"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A14" s="77"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="86"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="86" t="s">
+      <c r="A15" s="91"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="95" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="86"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A17" s="77"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="86"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
     </row>
     <row r="18" spans="1:11" ht="18" thickBot="1">
-      <c r="A18" s="77"/>
-      <c r="B18" s="96"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="10" t="s">
         <v>26</v>
       </c>
@@ -2706,77 +2706,77 @@
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A19" s="77"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="86" t="s">
+      <c r="A19" s="91"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="95" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="77"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="86"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="77"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="86"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
     </row>
     <row r="22" spans="1:11" ht="18" thickBot="1">
-      <c r="A22" s="77"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="86"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
     </row>
     <row r="23" spans="1:11" ht="18" thickBot="1">
-      <c r="A23" s="77"/>
-      <c r="B23" s="96" t="s">
+      <c r="A23" s="91"/>
+      <c r="B23" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="86"/>
+      <c r="C23" s="95"/>
       <c r="D23" s="55" t="s">
         <v>32</v>
       </c>
@@ -2787,727 +2787,727 @@
       <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="86"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="82"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="86"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="95"/>
       <c r="D25" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
     </row>
     <row r="26" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A26" s="78"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="98"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="160"/>
       <c r="D26" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="82"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="90"/>
+      <c r="C27" s="149"/>
       <c r="D27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="82"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="83"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="64"/>
       <c r="I27" s="62"/>
       <c r="J27" s="62"/>
       <c r="K27" s="62"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A28" s="87"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="A28" s="136"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="150"/>
       <c r="D28" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="82"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A29" s="87"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="94"/>
+      <c r="A29" s="136"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="159"/>
       <c r="D29" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="104"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A30" s="87"/>
-      <c r="B30" s="95" t="s">
+      <c r="A30" s="136"/>
+      <c r="B30" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="86"/>
+      <c r="C30" s="95"/>
       <c r="D30" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="E30" s="105"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A31" s="87"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="86"/>
+      <c r="A31" s="136"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="95"/>
       <c r="D31" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="105"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A32" s="87"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="86"/>
+      <c r="A32" s="136"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="95"/>
       <c r="D32" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="106"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A33" s="87"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="86"/>
+      <c r="A33" s="136"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="95"/>
       <c r="D33" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="82"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="86"/>
+      <c r="A34" s="136"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="95"/>
       <c r="D34" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="82"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A35" s="87"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="86"/>
+      <c r="A35" s="136"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="95"/>
       <c r="D35" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="82"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A36" s="87"/>
-      <c r="B36" s="91" t="s">
+      <c r="A36" s="136"/>
+      <c r="B36" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="92"/>
+      <c r="C36" s="150"/>
       <c r="D36" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="82"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="69"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="65"/>
       <c r="I36" s="62"/>
       <c r="J36" s="62"/>
       <c r="K36" s="62"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A37" s="87"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="92"/>
+      <c r="A37" s="136"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="150"/>
       <c r="D37" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="82"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A38" s="87"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="92"/>
+      <c r="A38" s="136"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="150"/>
       <c r="D38" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="82"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A39" s="87"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="92"/>
+      <c r="A39" s="136"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="150"/>
       <c r="D39" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="82"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
     </row>
     <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="87"/>
-      <c r="B40" s="89" t="s">
+      <c r="A40" s="136"/>
+      <c r="B40" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="99"/>
+      <c r="C40" s="114"/>
       <c r="D40" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="82"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
     </row>
     <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="87"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="100"/>
+      <c r="A41" s="136"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="116"/>
       <c r="D41" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="82"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
     </row>
     <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A42" s="87"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="101"/>
+      <c r="A42" s="136"/>
+      <c r="B42" s="158"/>
+      <c r="C42" s="161"/>
       <c r="D42" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="82"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A43" s="87"/>
-      <c r="B43" s="95" t="s">
+      <c r="A43" s="136"/>
+      <c r="B43" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="86"/>
+      <c r="C43" s="95"/>
       <c r="D43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="82"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A44" s="87"/>
-      <c r="B44" s="95"/>
-      <c r="C44" s="86"/>
+      <c r="A44" s="136"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="95"/>
       <c r="D44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="82"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="155"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A45" s="87"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="103"/>
+      <c r="A45" s="136"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="157"/>
       <c r="D45" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="82"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="155"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
     </row>
     <row r="46" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A46" s="88"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="103"/>
+      <c r="A46" s="137"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="157"/>
       <c r="D46" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="82"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="155"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A47" s="116" t="s">
+      <c r="A47" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="120" t="s">
+      <c r="B47" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="121"/>
+      <c r="C47" s="142"/>
       <c r="D47" s="57" t="s">
         <v>63</v>
       </c>
       <c r="E47" s="62"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
       <c r="I47" s="62"/>
       <c r="J47" s="62"/>
       <c r="K47" s="62"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A48" s="87"/>
-      <c r="B48" s="112"/>
-      <c r="C48" s="109"/>
+      <c r="A48" s="136"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="144"/>
       <c r="D48" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A49" s="87"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="109"/>
+      <c r="A49" s="136"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="144"/>
       <c r="D49" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="63"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
     </row>
     <row r="50" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A50" s="87"/>
-      <c r="B50" s="112"/>
-      <c r="C50" s="109"/>
+      <c r="A50" s="136"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="144"/>
       <c r="D50" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A51" s="87"/>
-      <c r="B51" s="112"/>
-      <c r="C51" s="109"/>
+      <c r="A51" s="136"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="144"/>
       <c r="D51" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="82"/>
-      <c r="F51" s="163"/>
-      <c r="G51" s="166"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="63"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A52" s="87"/>
-      <c r="B52" s="112"/>
-      <c r="C52" s="109"/>
+      <c r="A52" s="136"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="144"/>
       <c r="D52" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="82"/>
-      <c r="F52" s="164"/>
-      <c r="G52" s="167"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="63"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A53" s="87"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="109"/>
+      <c r="A53" s="136"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="144"/>
       <c r="D53" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="82"/>
-      <c r="F53" s="165"/>
-      <c r="G53" s="168"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="63"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A54" s="87"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="110"/>
+      <c r="A54" s="136"/>
+      <c r="B54" s="145"/>
+      <c r="C54" s="146"/>
       <c r="D54" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A55" s="87"/>
-      <c r="B55" s="111" t="s">
+      <c r="A55" s="136"/>
+      <c r="B55" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="108"/>
+      <c r="C55" s="148"/>
       <c r="D55" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A56" s="87"/>
-      <c r="B56" s="112"/>
-      <c r="C56" s="109"/>
+      <c r="A56" s="136"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="144"/>
       <c r="D56" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A57" s="87"/>
-      <c r="B57" s="112"/>
-      <c r="C57" s="109"/>
+      <c r="A57" s="136"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="144"/>
       <c r="D57" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="82"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A58" s="87"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="110"/>
+      <c r="A58" s="136"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="146"/>
       <c r="D58" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="82"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="63"/>
-      <c r="K58" s="63"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A59" s="87"/>
-      <c r="B59" s="111" t="s">
+      <c r="A59" s="136"/>
+      <c r="B59" s="147" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="108"/>
+      <c r="C59" s="148"/>
       <c r="D59" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="82"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
       <c r="I59" s="62"/>
       <c r="J59" s="62"/>
       <c r="K59" s="62"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A60" s="87"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="109"/>
+      <c r="A60" s="136"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="144"/>
       <c r="D60" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E60" s="82"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="63"/>
-      <c r="K60" s="63"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A61" s="87"/>
-      <c r="B61" s="112"/>
-      <c r="C61" s="109"/>
+      <c r="A61" s="136"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="144"/>
       <c r="D61" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="82"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="63"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A62" s="87"/>
-      <c r="B62" s="113"/>
-      <c r="C62" s="110"/>
+      <c r="A62" s="136"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="146"/>
       <c r="D62" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="82"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="63"/>
-      <c r="K62" s="63"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="74"/>
+      <c r="K62" s="74"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A63" s="87"/>
-      <c r="B63" s="107" t="s">
+      <c r="A63" s="136"/>
+      <c r="B63" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="108" t="s">
+      <c r="C63" s="148" t="s">
         <v>82</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="82"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="63"/>
-      <c r="J63" s="63"/>
-      <c r="K63" s="63"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="74"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A64" s="87"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="109"/>
+      <c r="A64" s="136"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="144"/>
       <c r="D64" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E64" s="82"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="74"/>
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A65" s="87"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="108" t="s">
+      <c r="A65" s="136"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="148" t="s">
         <v>85</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E65" s="82"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="63"/>
-      <c r="K65" s="63"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="74"/>
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A66" s="87"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="109"/>
+      <c r="A66" s="136"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="144"/>
       <c r="D66" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E66" s="82"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="85"/>
-      <c r="H66" s="69"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="63"/>
-      <c r="K66" s="63"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="74"/>
+      <c r="K66" s="74"/>
     </row>
     <row r="67" spans="1:11" ht="18" thickBot="1">
-      <c r="A67" s="87"/>
-      <c r="B67" s="107"/>
-      <c r="C67" s="110"/>
+      <c r="A67" s="136"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="146"/>
       <c r="D67" s="14" t="s">
         <v>88</v>
       </c>
       <c r="F67" s="47"/>
       <c r="G67" s="47"/>
       <c r="H67" s="8"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="74"/>
+      <c r="K67" s="74"/>
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A68" s="87"/>
-      <c r="B68" s="89" t="s">
+      <c r="A68" s="136"/>
+      <c r="B68" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="90"/>
+      <c r="C68" s="149"/>
       <c r="D68" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E68" s="82"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="85"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="63"/>
-      <c r="K68" s="63"/>
+      <c r="E68" s="104"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="74"/>
     </row>
     <row r="69" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A69" s="88"/>
-      <c r="B69" s="114"/>
-      <c r="C69" s="115"/>
+      <c r="A69" s="137"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="151"/>
       <c r="D69" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="82"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="65"/>
-      <c r="J69" s="65"/>
-      <c r="K69" s="65"/>
+      <c r="E69" s="104"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="63"/>
     </row>
     <row r="70" spans="1:11" ht="18" thickBot="1">
-      <c r="A70" s="116" t="s">
+      <c r="A70" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="117" t="s">
+      <c r="B70" s="138" t="s">
         <v>93</v>
       </c>
       <c r="C70" s="18" t="s">
@@ -3517,33 +3517,33 @@
         <v>95</v>
       </c>
       <c r="E70" s="62"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="83"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="64"/>
       <c r="I70" s="62"/>
       <c r="J70" s="62"/>
       <c r="K70" s="62"/>
     </row>
     <row r="71" spans="1:11" ht="18" thickBot="1">
-      <c r="A71" s="87"/>
-      <c r="B71" s="118"/>
+      <c r="A71" s="136"/>
+      <c r="B71" s="139"/>
       <c r="C71" s="19" t="s">
         <v>96</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E71" s="65"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="83"/>
-      <c r="I71" s="63"/>
-      <c r="J71" s="63"/>
-      <c r="K71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="74"/>
+      <c r="J71" s="74"/>
+      <c r="K71" s="74"/>
     </row>
     <row r="72" spans="1:11" ht="18" thickBot="1">
-      <c r="A72" s="87"/>
-      <c r="B72" s="118"/>
+      <c r="A72" s="136"/>
+      <c r="B72" s="139"/>
       <c r="C72" s="19" t="s">
         <v>98</v>
       </c>
@@ -3552,13 +3552,13 @@
       </c>
       <c r="F72" s="48"/>
       <c r="G72" s="48"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="63"/>
-      <c r="K72" s="63"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="74"/>
     </row>
     <row r="73" spans="1:11" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A73" s="87"/>
-      <c r="B73" s="118"/>
+      <c r="A73" s="136"/>
+      <c r="B73" s="139"/>
       <c r="C73" s="21" t="s">
         <v>100</v>
       </c>
@@ -3568,13 +3568,13 @@
       <c r="F73" s="46"/>
       <c r="G73" s="46"/>
       <c r="H73" s="8"/>
-      <c r="I73" s="63"/>
-      <c r="J73" s="63"/>
-      <c r="K73" s="63"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="74"/>
+      <c r="K73" s="74"/>
     </row>
     <row r="74" spans="1:11" ht="34.5" customHeight="1">
-      <c r="A74" s="87"/>
-      <c r="B74" s="118"/>
+      <c r="A74" s="136"/>
+      <c r="B74" s="139"/>
       <c r="C74" s="21" t="s">
         <v>102</v>
       </c>
@@ -3582,147 +3582,147 @@
         <v>103</v>
       </c>
       <c r="E74" s="62"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="125"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="63"/>
-      <c r="K74" s="63"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="78"/>
+      <c r="H74" s="75"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="74"/>
+      <c r="K74" s="74"/>
     </row>
     <row r="75" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A75" s="87"/>
-      <c r="B75" s="118"/>
-      <c r="C75" s="122" t="s">
+      <c r="A75" s="136"/>
+      <c r="B75" s="139"/>
+      <c r="C75" s="102" t="s">
         <v>104</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E75" s="65"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="126"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="80"/>
+      <c r="G75" s="80"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="74"/>
+      <c r="K75" s="74"/>
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A76" s="87"/>
-      <c r="B76" s="118"/>
-      <c r="C76" s="123"/>
+      <c r="A76" s="136"/>
+      <c r="B76" s="139"/>
+      <c r="C76" s="133"/>
       <c r="D76" s="20" t="s">
         <v>106</v>
       </c>
       <c r="E76" s="62"/>
       <c r="F76" s="62"/>
       <c r="G76" s="62"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="63"/>
-      <c r="K76" s="63"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="74"/>
+      <c r="J76" s="74"/>
+      <c r="K76" s="74"/>
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A77" s="87"/>
-      <c r="B77" s="119"/>
-      <c r="C77" s="124"/>
+      <c r="A77" s="136"/>
+      <c r="B77" s="140"/>
+      <c r="C77" s="134"/>
       <c r="D77" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="83"/>
-      <c r="I77" s="63"/>
-      <c r="J77" s="63"/>
-      <c r="K77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="74"/>
+      <c r="K77" s="74"/>
     </row>
     <row r="78" spans="1:11" ht="16.95" customHeight="1">
-      <c r="A78" s="87"/>
-      <c r="B78" s="89" t="s">
+      <c r="A78" s="136"/>
+      <c r="B78" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="C78" s="90"/>
+      <c r="C78" s="149"/>
       <c r="D78" s="55" t="s">
         <v>109</v>
       </c>
       <c r="E78" s="62"/>
       <c r="F78" s="62"/>
       <c r="G78" s="62"/>
-      <c r="H78" s="125"/>
+      <c r="H78" s="75"/>
       <c r="I78" s="62"/>
       <c r="J78" s="62"/>
       <c r="K78" s="62"/>
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A79" s="87"/>
-      <c r="B79" s="91"/>
-      <c r="C79" s="92"/>
+      <c r="A79" s="136"/>
+      <c r="B79" s="115"/>
+      <c r="C79" s="150"/>
       <c r="D79" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="127"/>
-      <c r="I79" s="63"/>
-      <c r="J79" s="63"/>
-      <c r="K79" s="63"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="74"/>
+      <c r="H79" s="76"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="74"/>
+      <c r="K79" s="74"/>
     </row>
     <row r="80" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A80" s="88"/>
-      <c r="B80" s="114"/>
-      <c r="C80" s="115"/>
+      <c r="A80" s="137"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="151"/>
       <c r="D80" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="126"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="63"/>
-      <c r="K80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="74"/>
+      <c r="J80" s="74"/>
+      <c r="K80" s="74"/>
     </row>
     <row r="81" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A81" s="131" t="s">
+      <c r="A81" s="124" t="s">
         <v>112</v>
       </c>
-      <c r="B81" s="134" t="s">
+      <c r="B81" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="135"/>
+      <c r="C81" s="94"/>
       <c r="D81" s="15" t="s">
         <v>114</v>
       </c>
       <c r="E81" s="62"/>
       <c r="F81" s="62"/>
       <c r="G81" s="62"/>
-      <c r="H81" s="83"/>
-      <c r="I81" s="63"/>
-      <c r="J81" s="63"/>
-      <c r="K81" s="63"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="74"/>
+      <c r="J81" s="74"/>
+      <c r="K81" s="74"/>
     </row>
     <row r="82" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A82" s="132"/>
-      <c r="B82" s="95"/>
-      <c r="C82" s="86"/>
+      <c r="A82" s="125"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="95"/>
       <c r="D82" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="83"/>
-      <c r="I82" s="65"/>
-      <c r="J82" s="65"/>
-      <c r="K82" s="65"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="63"/>
+      <c r="K82" s="63"/>
     </row>
     <row r="83" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A83" s="132"/>
-      <c r="B83" s="96" t="s">
+      <c r="A83" s="125"/>
+      <c r="B83" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="C83" s="136" t="s">
+      <c r="C83" s="127" t="s">
         <v>117</v>
       </c>
       <c r="D83" s="12" t="s">
@@ -3731,75 +3731,75 @@
       <c r="E83" s="62"/>
       <c r="F83" s="62"/>
       <c r="G83" s="62"/>
-      <c r="H83" s="83"/>
-      <c r="I83" s="128"/>
-      <c r="J83" s="128"/>
-      <c r="K83" s="128"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="121"/>
+      <c r="J83" s="121"/>
+      <c r="K83" s="121"/>
     </row>
     <row r="84" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A84" s="132"/>
-      <c r="B84" s="95"/>
-      <c r="C84" s="137"/>
+      <c r="A84" s="125"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="128"/>
       <c r="D84" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E84" s="63"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="83"/>
-      <c r="I84" s="129"/>
-      <c r="J84" s="129"/>
-      <c r="K84" s="129"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="122"/>
+      <c r="J84" s="122"/>
+      <c r="K84" s="122"/>
     </row>
     <row r="85" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A85" s="132"/>
-      <c r="B85" s="95"/>
-      <c r="C85" s="137"/>
+      <c r="A85" s="125"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="128"/>
       <c r="D85" s="12" t="s">
         <v>120</v>
       </c>
       <c r="E85" s="62"/>
       <c r="F85" s="62"/>
       <c r="G85" s="62"/>
-      <c r="H85" s="83"/>
-      <c r="I85" s="129"/>
-      <c r="J85" s="129"/>
-      <c r="K85" s="129"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="122"/>
+      <c r="J85" s="122"/>
+      <c r="K85" s="122"/>
     </row>
     <row r="86" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A86" s="132"/>
-      <c r="B86" s="95"/>
-      <c r="C86" s="137"/>
+      <c r="A86" s="125"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="128"/>
       <c r="D86" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="83"/>
-      <c r="I86" s="129"/>
-      <c r="J86" s="129"/>
-      <c r="K86" s="129"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="74"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="122"/>
+      <c r="J86" s="122"/>
+      <c r="K86" s="122"/>
     </row>
     <row r="87" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A87" s="132"/>
-      <c r="B87" s="95"/>
-      <c r="C87" s="137"/>
+      <c r="A87" s="125"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="128"/>
       <c r="D87" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="83"/>
-      <c r="I87" s="129"/>
-      <c r="J87" s="129"/>
-      <c r="K87" s="129"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="122"/>
+      <c r="J87" s="122"/>
+      <c r="K87" s="122"/>
     </row>
     <row r="88" spans="1:11" ht="18" thickBot="1">
-      <c r="A88" s="132"/>
-      <c r="B88" s="95"/>
-      <c r="C88" s="138"/>
+      <c r="A88" s="125"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="129"/>
       <c r="D88" s="12" t="s">
         <v>123</v>
       </c>
@@ -3807,14 +3807,14 @@
       <c r="F88" s="45"/>
       <c r="G88" s="45"/>
       <c r="H88" s="8"/>
-      <c r="I88" s="129"/>
-      <c r="J88" s="129"/>
-      <c r="K88" s="129"/>
+      <c r="I88" s="122"/>
+      <c r="J88" s="122"/>
+      <c r="K88" s="122"/>
     </row>
     <row r="89" spans="1:11" ht="18" thickBot="1">
-      <c r="A89" s="132"/>
-      <c r="B89" s="95"/>
-      <c r="C89" s="70" t="s">
+      <c r="A89" s="125"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="130" t="s">
         <v>124</v>
       </c>
       <c r="D89" s="47" t="s">
@@ -3823,148 +3823,148 @@
       <c r="F89" s="45"/>
       <c r="G89" s="45"/>
       <c r="H89" s="8"/>
-      <c r="I89" s="129"/>
-      <c r="J89" s="129"/>
-      <c r="K89" s="129"/>
+      <c r="I89" s="122"/>
+      <c r="J89" s="122"/>
+      <c r="K89" s="122"/>
     </row>
     <row r="90" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A90" s="132"/>
-      <c r="B90" s="95"/>
-      <c r="C90" s="71"/>
+      <c r="A90" s="125"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="131"/>
       <c r="D90" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E90" s="63"/>
-      <c r="F90" s="85"/>
-      <c r="G90" s="85"/>
-      <c r="H90" s="83"/>
-      <c r="I90" s="129"/>
-      <c r="J90" s="129"/>
-      <c r="K90" s="129"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="122"/>
+      <c r="J90" s="122"/>
+      <c r="K90" s="122"/>
     </row>
     <row r="91" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A91" s="132"/>
-      <c r="B91" s="95"/>
-      <c r="C91" s="71"/>
+      <c r="A91" s="125"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="131"/>
       <c r="D91" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E91" s="63"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="85"/>
-      <c r="H91" s="83"/>
-      <c r="I91" s="129"/>
-      <c r="J91" s="129"/>
-      <c r="K91" s="129"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="64"/>
+      <c r="I91" s="122"/>
+      <c r="J91" s="122"/>
+      <c r="K91" s="122"/>
     </row>
     <row r="92" spans="1:11" ht="18" thickBot="1">
-      <c r="A92" s="132"/>
-      <c r="B92" s="95"/>
-      <c r="C92" s="71"/>
+      <c r="A92" s="125"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="131"/>
       <c r="D92" s="47" t="s">
         <v>128</v>
       </c>
       <c r="F92" s="47"/>
       <c r="G92" s="47"/>
       <c r="H92" s="8"/>
-      <c r="I92" s="129"/>
-      <c r="J92" s="129"/>
-      <c r="K92" s="129"/>
+      <c r="I92" s="122"/>
+      <c r="J92" s="122"/>
+      <c r="K92" s="122"/>
     </row>
     <row r="93" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A93" s="132"/>
-      <c r="B93" s="95"/>
-      <c r="C93" s="71"/>
+      <c r="A93" s="125"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="131"/>
       <c r="D93" s="12" t="s">
         <v>129</v>
       </c>
       <c r="E93" s="62"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="83"/>
-      <c r="I93" s="129"/>
-      <c r="J93" s="129"/>
-      <c r="K93" s="129"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="64"/>
+      <c r="I93" s="122"/>
+      <c r="J93" s="122"/>
+      <c r="K93" s="122"/>
     </row>
     <row r="94" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A94" s="132"/>
-      <c r="B94" s="95"/>
-      <c r="C94" s="71"/>
+      <c r="A94" s="125"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="131"/>
       <c r="D94" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E94" s="63"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="85"/>
-      <c r="H94" s="83"/>
-      <c r="I94" s="129"/>
-      <c r="J94" s="129"/>
-      <c r="K94" s="129"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="64"/>
+      <c r="I94" s="122"/>
+      <c r="J94" s="122"/>
+      <c r="K94" s="122"/>
     </row>
     <row r="95" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A95" s="132"/>
-      <c r="B95" s="95"/>
-      <c r="C95" s="71"/>
+      <c r="A95" s="125"/>
+      <c r="B95" s="85"/>
+      <c r="C95" s="131"/>
       <c r="D95" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E95" s="65"/>
-      <c r="F95" s="85"/>
-      <c r="G95" s="85"/>
-      <c r="H95" s="83"/>
-      <c r="I95" s="129"/>
-      <c r="J95" s="129"/>
-      <c r="K95" s="129"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="67"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="122"/>
+      <c r="J95" s="122"/>
+      <c r="K95" s="122"/>
     </row>
     <row r="96" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A96" s="132"/>
-      <c r="B96" s="95"/>
-      <c r="C96" s="71"/>
+      <c r="A96" s="125"/>
+      <c r="B96" s="85"/>
+      <c r="C96" s="131"/>
       <c r="D96" s="12" t="s">
         <v>132</v>
       </c>
       <c r="E96" s="62"/>
-      <c r="F96" s="85"/>
-      <c r="G96" s="85"/>
-      <c r="H96" s="83"/>
-      <c r="I96" s="129"/>
-      <c r="J96" s="129"/>
-      <c r="K96" s="129"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="122"/>
+      <c r="J96" s="122"/>
+      <c r="K96" s="122"/>
     </row>
     <row r="97" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A97" s="132"/>
-      <c r="B97" s="95"/>
-      <c r="C97" s="71"/>
+      <c r="A97" s="125"/>
+      <c r="B97" s="85"/>
+      <c r="C97" s="131"/>
       <c r="D97" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E97" s="63"/>
-      <c r="F97" s="85"/>
-      <c r="G97" s="85"/>
-      <c r="H97" s="83"/>
-      <c r="I97" s="129"/>
-      <c r="J97" s="129"/>
-      <c r="K97" s="129"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="122"/>
+      <c r="J97" s="122"/>
+      <c r="K97" s="122"/>
     </row>
     <row r="98" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A98" s="132"/>
-      <c r="B98" s="95"/>
-      <c r="C98" s="71"/>
+      <c r="A98" s="125"/>
+      <c r="B98" s="85"/>
+      <c r="C98" s="131"/>
       <c r="D98" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E98" s="65"/>
-      <c r="F98" s="85"/>
-      <c r="G98" s="85"/>
-      <c r="H98" s="83"/>
-      <c r="I98" s="129"/>
-      <c r="J98" s="129"/>
-      <c r="K98" s="129"/>
+      <c r="E98" s="63"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="64"/>
+      <c r="I98" s="122"/>
+      <c r="J98" s="122"/>
+      <c r="K98" s="122"/>
     </row>
     <row r="99" spans="1:11" ht="18" thickBot="1">
-      <c r="A99" s="132"/>
-      <c r="B99" s="95"/>
-      <c r="C99" s="72"/>
+      <c r="A99" s="125"/>
+      <c r="B99" s="85"/>
+      <c r="C99" s="132"/>
       <c r="D99" s="12" t="s">
         <v>135</v>
       </c>
@@ -3972,14 +3972,14 @@
       <c r="F99" s="45"/>
       <c r="G99" s="45"/>
       <c r="H99" s="8"/>
-      <c r="I99" s="129"/>
-      <c r="J99" s="129"/>
-      <c r="K99" s="129"/>
+      <c r="I99" s="122"/>
+      <c r="J99" s="122"/>
+      <c r="K99" s="122"/>
     </row>
     <row r="100" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A100" s="132"/>
-      <c r="B100" s="95"/>
-      <c r="C100" s="149" t="s">
+      <c r="A100" s="125"/>
+      <c r="B100" s="85"/>
+      <c r="C100" s="119" t="s">
         <v>136</v>
       </c>
       <c r="D100" s="11" t="s">
@@ -3988,164 +3988,164 @@
       <c r="E100" s="62"/>
       <c r="F100" s="62"/>
       <c r="G100" s="62"/>
-      <c r="H100" s="83"/>
-      <c r="I100" s="129"/>
-      <c r="J100" s="129"/>
-      <c r="K100" s="129"/>
+      <c r="H100" s="64"/>
+      <c r="I100" s="122"/>
+      <c r="J100" s="122"/>
+      <c r="K100" s="122"/>
     </row>
     <row r="101" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A101" s="132"/>
-      <c r="B101" s="95"/>
-      <c r="C101" s="150"/>
+      <c r="A101" s="125"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="120"/>
       <c r="D101" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E101" s="63"/>
-      <c r="F101" s="63"/>
-      <c r="G101" s="63"/>
-      <c r="H101" s="83"/>
-      <c r="I101" s="129"/>
-      <c r="J101" s="129"/>
-      <c r="K101" s="129"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="74"/>
+      <c r="G101" s="74"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="122"/>
+      <c r="J101" s="122"/>
+      <c r="K101" s="122"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A102" s="132"/>
-      <c r="B102" s="95"/>
-      <c r="C102" s="150"/>
+      <c r="A102" s="125"/>
+      <c r="B102" s="85"/>
+      <c r="C102" s="120"/>
       <c r="D102" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E102" s="65"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="65"/>
-      <c r="H102" s="83"/>
-      <c r="I102" s="130"/>
-      <c r="J102" s="130"/>
-      <c r="K102" s="130"/>
+      <c r="E102" s="63"/>
+      <c r="F102" s="63"/>
+      <c r="G102" s="63"/>
+      <c r="H102" s="64"/>
+      <c r="I102" s="123"/>
+      <c r="J102" s="123"/>
+      <c r="K102" s="123"/>
     </row>
     <row r="103" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A103" s="132"/>
-      <c r="B103" s="142" t="s">
+      <c r="A103" s="125"/>
+      <c r="B103" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="C103" s="143"/>
+      <c r="C103" s="108"/>
       <c r="D103" s="58" t="s">
         <v>141</v>
       </c>
       <c r="E103" s="62"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="H103" s="83"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="64"/>
       <c r="I103" s="62"/>
       <c r="J103" s="62"/>
       <c r="K103" s="62"/>
     </row>
     <row r="104" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A104" s="132"/>
-      <c r="B104" s="144"/>
-      <c r="C104" s="145"/>
+      <c r="A104" s="125"/>
+      <c r="B104" s="109"/>
+      <c r="C104" s="110"/>
       <c r="D104" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E104" s="65"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="85"/>
-      <c r="H104" s="83"/>
-      <c r="I104" s="63"/>
-      <c r="J104" s="63"/>
-      <c r="K104" s="63"/>
+      <c r="E104" s="63"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="64"/>
+      <c r="I104" s="74"/>
+      <c r="J104" s="74"/>
+      <c r="K104" s="74"/>
     </row>
     <row r="105" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A105" s="132"/>
-      <c r="B105" s="144"/>
-      <c r="C105" s="145"/>
+      <c r="A105" s="125"/>
+      <c r="B105" s="109"/>
+      <c r="C105" s="110"/>
       <c r="D105" s="12" t="s">
         <v>143</v>
       </c>
       <c r="E105" s="62"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="85"/>
-      <c r="H105" s="83"/>
-      <c r="I105" s="63"/>
-      <c r="J105" s="63"/>
-      <c r="K105" s="63"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="74"/>
+      <c r="J105" s="74"/>
+      <c r="K105" s="74"/>
     </row>
     <row r="106" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A106" s="132"/>
-      <c r="B106" s="146"/>
-      <c r="C106" s="147"/>
+      <c r="A106" s="125"/>
+      <c r="B106" s="111"/>
+      <c r="C106" s="112"/>
       <c r="D106" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E106" s="65"/>
-      <c r="F106" s="85"/>
-      <c r="G106" s="85"/>
-      <c r="H106" s="83"/>
-      <c r="I106" s="63"/>
-      <c r="J106" s="63"/>
-      <c r="K106" s="63"/>
+      <c r="E106" s="63"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="67"/>
+      <c r="H106" s="64"/>
+      <c r="I106" s="74"/>
+      <c r="J106" s="74"/>
+      <c r="K106" s="74"/>
     </row>
     <row r="107" spans="1:11" ht="16.95" customHeight="1">
-      <c r="A107" s="132"/>
-      <c r="B107" s="89" t="s">
+      <c r="A107" s="125"/>
+      <c r="B107" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="C107" s="99"/>
+      <c r="C107" s="114"/>
       <c r="D107" s="47" t="s">
         <v>146</v>
       </c>
       <c r="E107" s="62"/>
-      <c r="F107" s="85"/>
-      <c r="G107" s="85"/>
-      <c r="H107" s="125"/>
-      <c r="I107" s="63"/>
-      <c r="J107" s="63"/>
-      <c r="K107" s="63"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="67"/>
+      <c r="H107" s="75"/>
+      <c r="I107" s="74"/>
+      <c r="J107" s="74"/>
+      <c r="K107" s="74"/>
     </row>
     <row r="108" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A108" s="132"/>
-      <c r="B108" s="91"/>
-      <c r="C108" s="100"/>
+      <c r="A108" s="125"/>
+      <c r="B108" s="115"/>
+      <c r="C108" s="116"/>
       <c r="D108" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E108" s="65"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="85"/>
-      <c r="H108" s="126"/>
-      <c r="I108" s="63"/>
-      <c r="J108" s="63"/>
-      <c r="K108" s="63"/>
+      <c r="E108" s="63"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="67"/>
+      <c r="H108" s="77"/>
+      <c r="I108" s="74"/>
+      <c r="J108" s="74"/>
+      <c r="K108" s="74"/>
     </row>
     <row r="109" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A109" s="132"/>
-      <c r="B109" s="91"/>
-      <c r="C109" s="100"/>
+      <c r="A109" s="125"/>
+      <c r="B109" s="115"/>
+      <c r="C109" s="116"/>
       <c r="D109" s="12" t="s">
         <v>148</v>
       </c>
       <c r="E109" s="62"/>
-      <c r="F109" s="85"/>
-      <c r="G109" s="85"/>
-      <c r="H109" s="83"/>
-      <c r="I109" s="63"/>
-      <c r="J109" s="63"/>
-      <c r="K109" s="63"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="67"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="74"/>
+      <c r="J109" s="74"/>
+      <c r="K109" s="74"/>
     </row>
     <row r="110" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A110" s="133"/>
-      <c r="B110" s="114"/>
-      <c r="C110" s="148"/>
+      <c r="A110" s="126"/>
+      <c r="B110" s="117"/>
+      <c r="C110" s="118"/>
       <c r="D110" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E110" s="65"/>
-      <c r="F110" s="85"/>
-      <c r="G110" s="85"/>
-      <c r="H110" s="83"/>
-      <c r="I110" s="65"/>
-      <c r="J110" s="65"/>
-      <c r="K110" s="65"/>
+      <c r="E110" s="63"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="67"/>
+      <c r="H110" s="64"/>
+      <c r="I110" s="63"/>
+      <c r="J110" s="63"/>
+      <c r="K110" s="63"/>
     </row>
     <row r="111" spans="1:11" ht="22.8" thickBot="1">
       <c r="A111" s="27"/>
@@ -4158,10 +4158,10 @@
       <c r="H111" s="51"/>
     </row>
     <row r="112" spans="1:11" ht="52.8" thickBot="1">
-      <c r="A112" s="139" t="s">
+      <c r="A112" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="B112" s="140" t="s">
+      <c r="B112" s="106" t="s">
         <v>151</v>
       </c>
       <c r="C112" s="30" t="s">
@@ -4170,447 +4170,447 @@
       <c r="D112" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="E112" s="63"/>
-      <c r="F112" s="63"/>
-      <c r="G112" s="63"/>
-      <c r="H112" s="127"/>
-      <c r="I112" s="151"/>
-      <c r="J112" s="151"/>
-      <c r="K112" s="151"/>
+      <c r="E112" s="74"/>
+      <c r="F112" s="74"/>
+      <c r="G112" s="74"/>
+      <c r="H112" s="76"/>
+      <c r="I112" s="81"/>
+      <c r="J112" s="81"/>
+      <c r="K112" s="81"/>
     </row>
     <row r="113" spans="1:11" ht="52.8" thickBot="1">
-      <c r="A113" s="139"/>
-      <c r="B113" s="141"/>
+      <c r="A113" s="105"/>
+      <c r="B113" s="103"/>
       <c r="C113" s="30" t="s">
         <v>154</v>
       </c>
       <c r="D113" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="E113" s="63"/>
-      <c r="F113" s="63"/>
-      <c r="G113" s="63"/>
-      <c r="H113" s="127"/>
-      <c r="I113" s="152"/>
-      <c r="J113" s="152"/>
-      <c r="K113" s="152"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="74"/>
+      <c r="G113" s="74"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="82"/>
+      <c r="J113" s="82"/>
+      <c r="K113" s="82"/>
     </row>
     <row r="114" spans="1:11" ht="52.8" thickBot="1">
-      <c r="A114" s="139"/>
-      <c r="B114" s="141"/>
+      <c r="A114" s="105"/>
+      <c r="B114" s="103"/>
       <c r="C114" s="30" t="s">
         <v>156</v>
       </c>
       <c r="D114" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="E114" s="63"/>
-      <c r="F114" s="63"/>
-      <c r="G114" s="63"/>
-      <c r="H114" s="127"/>
-      <c r="I114" s="152"/>
-      <c r="J114" s="152"/>
-      <c r="K114" s="152"/>
+      <c r="E114" s="74"/>
+      <c r="F114" s="74"/>
+      <c r="G114" s="74"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="82"/>
+      <c r="J114" s="82"/>
+      <c r="K114" s="82"/>
     </row>
     <row r="115" spans="1:11" ht="52.8" thickBot="1">
-      <c r="A115" s="139"/>
-      <c r="B115" s="141"/>
+      <c r="A115" s="105"/>
+      <c r="B115" s="103"/>
       <c r="C115" s="30" t="s">
         <v>158</v>
       </c>
       <c r="D115" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="E115" s="65"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="126"/>
-      <c r="I115" s="152"/>
-      <c r="J115" s="152"/>
-      <c r="K115" s="152"/>
+      <c r="E115" s="63"/>
+      <c r="F115" s="63"/>
+      <c r="G115" s="63"/>
+      <c r="H115" s="77"/>
+      <c r="I115" s="82"/>
+      <c r="J115" s="82"/>
+      <c r="K115" s="82"/>
     </row>
     <row r="116" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A116" s="139"/>
-      <c r="B116" s="141" t="s">
+      <c r="A116" s="105"/>
+      <c r="B116" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="C116" s="82"/>
+      <c r="C116" s="104"/>
       <c r="D116" s="53" t="s">
         <v>161</v>
       </c>
       <c r="E116" s="62"/>
       <c r="F116" s="62"/>
       <c r="G116" s="62"/>
-      <c r="H116" s="125"/>
-      <c r="I116" s="151"/>
-      <c r="J116" s="151"/>
-      <c r="K116" s="151"/>
+      <c r="H116" s="75"/>
+      <c r="I116" s="81"/>
+      <c r="J116" s="81"/>
+      <c r="K116" s="81"/>
     </row>
     <row r="117" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A117" s="139"/>
-      <c r="B117" s="141"/>
-      <c r="C117" s="82"/>
+      <c r="A117" s="105"/>
+      <c r="B117" s="103"/>
+      <c r="C117" s="104"/>
       <c r="D117" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="E117" s="63"/>
-      <c r="F117" s="63"/>
-      <c r="G117" s="63"/>
-      <c r="H117" s="127"/>
-      <c r="I117" s="152"/>
-      <c r="J117" s="152"/>
-      <c r="K117" s="152"/>
+      <c r="E117" s="74"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="74"/>
+      <c r="H117" s="76"/>
+      <c r="I117" s="82"/>
+      <c r="J117" s="82"/>
+      <c r="K117" s="82"/>
     </row>
     <row r="118" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A118" s="139"/>
-      <c r="B118" s="141"/>
-      <c r="C118" s="82"/>
+      <c r="A118" s="105"/>
+      <c r="B118" s="103"/>
+      <c r="C118" s="104"/>
       <c r="D118" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="E118" s="65"/>
-      <c r="F118" s="65"/>
-      <c r="G118" s="65"/>
-      <c r="H118" s="126"/>
-      <c r="I118" s="152"/>
-      <c r="J118" s="152"/>
-      <c r="K118" s="152"/>
+      <c r="E118" s="63"/>
+      <c r="F118" s="63"/>
+      <c r="G118" s="63"/>
+      <c r="H118" s="77"/>
+      <c r="I118" s="82"/>
+      <c r="J118" s="82"/>
+      <c r="K118" s="82"/>
     </row>
     <row r="119" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A119" s="139"/>
-      <c r="B119" s="141"/>
-      <c r="C119" s="82"/>
+      <c r="A119" s="105"/>
+      <c r="B119" s="103"/>
+      <c r="C119" s="104"/>
       <c r="D119" s="59" t="s">
         <v>164</v>
       </c>
       <c r="E119" s="62"/>
       <c r="F119" s="62"/>
       <c r="G119" s="62"/>
-      <c r="H119" s="125"/>
-      <c r="I119" s="152"/>
-      <c r="J119" s="152"/>
-      <c r="K119" s="152"/>
+      <c r="H119" s="75"/>
+      <c r="I119" s="82"/>
+      <c r="J119" s="82"/>
+      <c r="K119" s="82"/>
     </row>
     <row r="120" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A120" s="139"/>
-      <c r="B120" s="141"/>
-      <c r="C120" s="82"/>
+      <c r="A120" s="105"/>
+      <c r="B120" s="103"/>
+      <c r="C120" s="104"/>
       <c r="D120" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="E120" s="65"/>
-      <c r="F120" s="65"/>
-      <c r="G120" s="65"/>
-      <c r="H120" s="126"/>
-      <c r="I120" s="152"/>
-      <c r="J120" s="152"/>
-      <c r="K120" s="152"/>
+      <c r="E120" s="63"/>
+      <c r="F120" s="63"/>
+      <c r="G120" s="63"/>
+      <c r="H120" s="77"/>
+      <c r="I120" s="82"/>
+      <c r="J120" s="82"/>
+      <c r="K120" s="82"/>
     </row>
     <row r="121" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A121" s="139"/>
-      <c r="B121" s="141" t="s">
+      <c r="A121" s="105"/>
+      <c r="B121" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="C121" s="82"/>
+      <c r="C121" s="104"/>
       <c r="D121" s="47" t="s">
         <v>167</v>
       </c>
       <c r="E121" s="62"/>
       <c r="F121" s="62"/>
       <c r="G121" s="62"/>
-      <c r="H121" s="125"/>
-      <c r="I121" s="152"/>
-      <c r="J121" s="152"/>
-      <c r="K121" s="152"/>
+      <c r="H121" s="75"/>
+      <c r="I121" s="82"/>
+      <c r="J121" s="82"/>
+      <c r="K121" s="82"/>
     </row>
     <row r="122" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A122" s="139"/>
-      <c r="B122" s="141"/>
-      <c r="C122" s="82"/>
+      <c r="A122" s="105"/>
+      <c r="B122" s="103"/>
+      <c r="C122" s="104"/>
       <c r="D122" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E122" s="63"/>
-      <c r="F122" s="63"/>
-      <c r="G122" s="63"/>
-      <c r="H122" s="127"/>
-      <c r="I122" s="152"/>
-      <c r="J122" s="152"/>
-      <c r="K122" s="152"/>
+      <c r="E122" s="74"/>
+      <c r="F122" s="74"/>
+      <c r="G122" s="74"/>
+      <c r="H122" s="76"/>
+      <c r="I122" s="82"/>
+      <c r="J122" s="82"/>
+      <c r="K122" s="82"/>
     </row>
     <row r="123" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A123" s="139"/>
-      <c r="B123" s="141"/>
-      <c r="C123" s="82"/>
+      <c r="A123" s="105"/>
+      <c r="B123" s="103"/>
+      <c r="C123" s="104"/>
       <c r="D123" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="E123" s="63"/>
-      <c r="F123" s="63"/>
-      <c r="G123" s="63"/>
-      <c r="H123" s="127"/>
-      <c r="I123" s="152"/>
-      <c r="J123" s="152"/>
-      <c r="K123" s="152"/>
+      <c r="E123" s="74"/>
+      <c r="F123" s="74"/>
+      <c r="G123" s="74"/>
+      <c r="H123" s="76"/>
+      <c r="I123" s="82"/>
+      <c r="J123" s="82"/>
+      <c r="K123" s="82"/>
     </row>
     <row r="124" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A124" s="139"/>
-      <c r="B124" s="141"/>
-      <c r="C124" s="82"/>
+      <c r="A124" s="105"/>
+      <c r="B124" s="103"/>
+      <c r="C124" s="104"/>
       <c r="D124" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="E124" s="65"/>
-      <c r="F124" s="65"/>
-      <c r="G124" s="65"/>
-      <c r="H124" s="126"/>
-      <c r="I124" s="152"/>
-      <c r="J124" s="152"/>
-      <c r="K124" s="152"/>
+      <c r="E124" s="63"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="77"/>
+      <c r="I124" s="82"/>
+      <c r="J124" s="82"/>
+      <c r="K124" s="82"/>
     </row>
     <row r="125" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A125" s="139"/>
-      <c r="B125" s="141"/>
-      <c r="C125" s="82"/>
+      <c r="A125" s="105"/>
+      <c r="B125" s="103"/>
+      <c r="C125" s="104"/>
       <c r="D125" s="47" t="s">
         <v>171</v>
       </c>
       <c r="E125" s="62"/>
-      <c r="F125" s="69"/>
+      <c r="F125" s="65"/>
       <c r="G125" s="62"/>
-      <c r="H125" s="125"/>
-      <c r="I125" s="152"/>
-      <c r="J125" s="152"/>
-      <c r="K125" s="152"/>
+      <c r="H125" s="75"/>
+      <c r="I125" s="82"/>
+      <c r="J125" s="82"/>
+      <c r="K125" s="82"/>
     </row>
     <row r="126" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A126" s="139"/>
-      <c r="B126" s="141"/>
-      <c r="C126" s="82"/>
+      <c r="A126" s="105"/>
+      <c r="B126" s="103"/>
+      <c r="C126" s="104"/>
       <c r="D126" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="E126" s="63"/>
-      <c r="F126" s="69"/>
-      <c r="G126" s="63"/>
-      <c r="H126" s="127"/>
-      <c r="I126" s="152"/>
-      <c r="J126" s="152"/>
-      <c r="K126" s="152"/>
+      <c r="E126" s="74"/>
+      <c r="F126" s="65"/>
+      <c r="G126" s="74"/>
+      <c r="H126" s="76"/>
+      <c r="I126" s="82"/>
+      <c r="J126" s="82"/>
+      <c r="K126" s="82"/>
     </row>
     <row r="127" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A127" s="139"/>
-      <c r="B127" s="141"/>
-      <c r="C127" s="82"/>
+      <c r="A127" s="105"/>
+      <c r="B127" s="103"/>
+      <c r="C127" s="104"/>
       <c r="D127" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="E127" s="65"/>
-      <c r="F127" s="69"/>
-      <c r="G127" s="65"/>
-      <c r="H127" s="126"/>
-      <c r="I127" s="152"/>
-      <c r="J127" s="152"/>
-      <c r="K127" s="152"/>
+      <c r="E127" s="63"/>
+      <c r="F127" s="65"/>
+      <c r="G127" s="63"/>
+      <c r="H127" s="77"/>
+      <c r="I127" s="82"/>
+      <c r="J127" s="82"/>
+      <c r="K127" s="82"/>
     </row>
     <row r="128" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A128" s="139"/>
-      <c r="B128" s="141" t="s">
+      <c r="A128" s="105"/>
+      <c r="B128" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="C128" s="82"/>
+      <c r="C128" s="104"/>
       <c r="D128" s="34" t="s">
         <v>175</v>
       </c>
       <c r="E128" s="62"/>
       <c r="F128" s="62"/>
       <c r="G128" s="62"/>
-      <c r="H128" s="125"/>
-      <c r="I128" s="151"/>
-      <c r="J128" s="151"/>
-      <c r="K128" s="151"/>
+      <c r="H128" s="75"/>
+      <c r="I128" s="81"/>
+      <c r="J128" s="81"/>
+      <c r="K128" s="81"/>
     </row>
     <row r="129" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A129" s="139"/>
-      <c r="B129" s="141"/>
-      <c r="C129" s="82"/>
+      <c r="A129" s="105"/>
+      <c r="B129" s="103"/>
+      <c r="C129" s="104"/>
       <c r="D129" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="E129" s="63"/>
-      <c r="F129" s="63"/>
-      <c r="G129" s="63"/>
-      <c r="H129" s="127"/>
-      <c r="I129" s="152"/>
-      <c r="J129" s="152"/>
-      <c r="K129" s="152"/>
+      <c r="E129" s="74"/>
+      <c r="F129" s="74"/>
+      <c r="G129" s="74"/>
+      <c r="H129" s="76"/>
+      <c r="I129" s="82"/>
+      <c r="J129" s="82"/>
+      <c r="K129" s="82"/>
     </row>
     <row r="130" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A130" s="139"/>
-      <c r="B130" s="141"/>
-      <c r="C130" s="82"/>
+      <c r="A130" s="105"/>
+      <c r="B130" s="103"/>
+      <c r="C130" s="104"/>
       <c r="D130" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="E130" s="63"/>
-      <c r="F130" s="63"/>
-      <c r="G130" s="63"/>
-      <c r="H130" s="127"/>
-      <c r="I130" s="152"/>
-      <c r="J130" s="152"/>
-      <c r="K130" s="152"/>
+      <c r="E130" s="74"/>
+      <c r="F130" s="74"/>
+      <c r="G130" s="74"/>
+      <c r="H130" s="76"/>
+      <c r="I130" s="82"/>
+      <c r="J130" s="82"/>
+      <c r="K130" s="82"/>
     </row>
     <row r="131" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A131" s="139"/>
-      <c r="B131" s="141"/>
-      <c r="C131" s="82"/>
+      <c r="A131" s="105"/>
+      <c r="B131" s="103"/>
+      <c r="C131" s="104"/>
       <c r="D131" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="E131" s="65"/>
-      <c r="F131" s="65"/>
-      <c r="G131" s="65"/>
-      <c r="H131" s="126"/>
-      <c r="I131" s="152"/>
-      <c r="J131" s="152"/>
-      <c r="K131" s="152"/>
+      <c r="E131" s="63"/>
+      <c r="F131" s="63"/>
+      <c r="G131" s="63"/>
+      <c r="H131" s="77"/>
+      <c r="I131" s="82"/>
+      <c r="J131" s="82"/>
+      <c r="K131" s="82"/>
     </row>
     <row r="132" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A132" s="139"/>
-      <c r="B132" s="141"/>
-      <c r="C132" s="82"/>
+      <c r="A132" s="105"/>
+      <c r="B132" s="103"/>
+      <c r="C132" s="104"/>
       <c r="D132" s="32" t="s">
         <v>179</v>
       </c>
       <c r="E132" s="62"/>
       <c r="F132" s="62"/>
       <c r="G132" s="62"/>
-      <c r="H132" s="125"/>
-      <c r="I132" s="152"/>
-      <c r="J132" s="152"/>
-      <c r="K132" s="152"/>
+      <c r="H132" s="75"/>
+      <c r="I132" s="82"/>
+      <c r="J132" s="82"/>
+      <c r="K132" s="82"/>
     </row>
     <row r="133" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A133" s="139"/>
-      <c r="B133" s="141"/>
-      <c r="C133" s="82"/>
+      <c r="A133" s="105"/>
+      <c r="B133" s="103"/>
+      <c r="C133" s="104"/>
       <c r="D133" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="E133" s="65"/>
-      <c r="F133" s="65"/>
-      <c r="G133" s="65"/>
-      <c r="H133" s="126"/>
-      <c r="I133" s="152"/>
-      <c r="J133" s="152"/>
-      <c r="K133" s="152"/>
+      <c r="E133" s="63"/>
+      <c r="F133" s="63"/>
+      <c r="G133" s="63"/>
+      <c r="H133" s="77"/>
+      <c r="I133" s="82"/>
+      <c r="J133" s="82"/>
+      <c r="K133" s="82"/>
     </row>
     <row r="134" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A134" s="139"/>
-      <c r="B134" s="141" t="s">
+      <c r="A134" s="105"/>
+      <c r="B134" s="103" t="s">
         <v>181</v>
       </c>
-      <c r="C134" s="141"/>
+      <c r="C134" s="103"/>
       <c r="D134" s="37" t="s">
         <v>182</v>
       </c>
       <c r="E134" s="62"/>
       <c r="F134" s="62"/>
       <c r="G134" s="62"/>
-      <c r="H134" s="125"/>
-      <c r="I134" s="152"/>
-      <c r="J134" s="152"/>
-      <c r="K134" s="152"/>
+      <c r="H134" s="75"/>
+      <c r="I134" s="82"/>
+      <c r="J134" s="82"/>
+      <c r="K134" s="82"/>
     </row>
     <row r="135" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A135" s="139"/>
-      <c r="B135" s="141"/>
-      <c r="C135" s="141"/>
+      <c r="A135" s="105"/>
+      <c r="B135" s="103"/>
+      <c r="C135" s="103"/>
       <c r="D135" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="E135" s="63"/>
-      <c r="F135" s="63"/>
-      <c r="G135" s="63"/>
-      <c r="H135" s="127"/>
-      <c r="I135" s="152"/>
-      <c r="J135" s="152"/>
-      <c r="K135" s="152"/>
+      <c r="E135" s="74"/>
+      <c r="F135" s="74"/>
+      <c r="G135" s="74"/>
+      <c r="H135" s="76"/>
+      <c r="I135" s="82"/>
+      <c r="J135" s="82"/>
+      <c r="K135" s="82"/>
     </row>
     <row r="136" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A136" s="139"/>
-      <c r="B136" s="141"/>
-      <c r="C136" s="141"/>
+      <c r="A136" s="105"/>
+      <c r="B136" s="103"/>
+      <c r="C136" s="103"/>
       <c r="D136" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="E136" s="65"/>
-      <c r="F136" s="65"/>
-      <c r="G136" s="65"/>
-      <c r="H136" s="126"/>
-      <c r="I136" s="152"/>
-      <c r="J136" s="152"/>
-      <c r="K136" s="152"/>
+      <c r="E136" s="63"/>
+      <c r="F136" s="63"/>
+      <c r="G136" s="63"/>
+      <c r="H136" s="77"/>
+      <c r="I136" s="82"/>
+      <c r="J136" s="82"/>
+      <c r="K136" s="82"/>
     </row>
     <row r="137" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A137" s="139"/>
-      <c r="B137" s="141"/>
-      <c r="C137" s="141"/>
+      <c r="A137" s="105"/>
+      <c r="B137" s="103"/>
+      <c r="C137" s="103"/>
       <c r="D137" s="53" t="s">
         <v>185</v>
       </c>
       <c r="E137" s="62"/>
       <c r="F137" s="62"/>
       <c r="G137" s="62"/>
-      <c r="H137" s="125"/>
-      <c r="I137" s="152"/>
-      <c r="J137" s="152"/>
-      <c r="K137" s="152"/>
+      <c r="H137" s="75"/>
+      <c r="I137" s="82"/>
+      <c r="J137" s="82"/>
+      <c r="K137" s="82"/>
     </row>
     <row r="138" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A138" s="139"/>
-      <c r="B138" s="141"/>
-      <c r="C138" s="141"/>
+      <c r="A138" s="105"/>
+      <c r="B138" s="103"/>
+      <c r="C138" s="103"/>
       <c r="D138" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="E138" s="63"/>
-      <c r="F138" s="63"/>
-      <c r="G138" s="63"/>
-      <c r="H138" s="127"/>
-      <c r="I138" s="152"/>
-      <c r="J138" s="152"/>
-      <c r="K138" s="152"/>
+      <c r="E138" s="74"/>
+      <c r="F138" s="74"/>
+      <c r="G138" s="74"/>
+      <c r="H138" s="76"/>
+      <c r="I138" s="82"/>
+      <c r="J138" s="82"/>
+      <c r="K138" s="82"/>
     </row>
     <row r="139" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A139" s="139"/>
-      <c r="B139" s="141"/>
-      <c r="C139" s="141"/>
+      <c r="A139" s="105"/>
+      <c r="B139" s="103"/>
+      <c r="C139" s="103"/>
       <c r="D139" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="E139" s="63"/>
-      <c r="F139" s="63"/>
-      <c r="G139" s="63"/>
-      <c r="H139" s="127"/>
-      <c r="I139" s="152"/>
-      <c r="J139" s="152"/>
-      <c r="K139" s="152"/>
+      <c r="E139" s="74"/>
+      <c r="F139" s="74"/>
+      <c r="G139" s="74"/>
+      <c r="H139" s="76"/>
+      <c r="I139" s="82"/>
+      <c r="J139" s="82"/>
+      <c r="K139" s="82"/>
     </row>
     <row r="140" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A140" s="139"/>
-      <c r="B140" s="141"/>
-      <c r="C140" s="141"/>
+      <c r="A140" s="105"/>
+      <c r="B140" s="103"/>
+      <c r="C140" s="103"/>
       <c r="D140" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="E140" s="65"/>
-      <c r="F140" s="65"/>
-      <c r="G140" s="65"/>
-      <c r="H140" s="126"/>
-      <c r="I140" s="153"/>
-      <c r="J140" s="153"/>
-      <c r="K140" s="153"/>
+      <c r="E140" s="63"/>
+      <c r="F140" s="63"/>
+      <c r="G140" s="63"/>
+      <c r="H140" s="77"/>
+      <c r="I140" s="83"/>
+      <c r="J140" s="83"/>
+      <c r="K140" s="83"/>
     </row>
     <row r="141" spans="1:11" thickBot="1">
       <c r="D141" s="5"/>
@@ -4620,107 +4620,107 @@
       <c r="H141" s="52"/>
     </row>
     <row r="142" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A142" s="76" t="s">
+      <c r="A142" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="B142" s="155" t="s">
+      <c r="B142" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="C142" s="156"/>
+      <c r="C142" s="98"/>
       <c r="D142" s="61" t="s">
         <v>191</v>
       </c>
       <c r="E142" s="62"/>
-      <c r="F142" s="85"/>
-      <c r="G142" s="85"/>
-      <c r="H142" s="125"/>
-      <c r="I142" s="151"/>
-      <c r="J142" s="151"/>
-      <c r="K142" s="151"/>
+      <c r="F142" s="67"/>
+      <c r="G142" s="67"/>
+      <c r="H142" s="75"/>
+      <c r="I142" s="81"/>
+      <c r="J142" s="81"/>
+      <c r="K142" s="81"/>
     </row>
     <row r="143" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A143" s="77"/>
-      <c r="B143" s="157"/>
-      <c r="C143" s="158"/>
+      <c r="A143" s="91"/>
+      <c r="B143" s="99"/>
+      <c r="C143" s="88"/>
       <c r="D143" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="E143" s="63"/>
-      <c r="F143" s="85"/>
-      <c r="G143" s="85"/>
-      <c r="H143" s="127"/>
-      <c r="I143" s="152"/>
-      <c r="J143" s="152"/>
-      <c r="K143" s="152"/>
+      <c r="E143" s="74"/>
+      <c r="F143" s="67"/>
+      <c r="G143" s="67"/>
+      <c r="H143" s="76"/>
+      <c r="I143" s="82"/>
+      <c r="J143" s="82"/>
+      <c r="K143" s="82"/>
     </row>
     <row r="144" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A144" s="77"/>
-      <c r="B144" s="157"/>
-      <c r="C144" s="158"/>
+      <c r="A144" s="91"/>
+      <c r="B144" s="99"/>
+      <c r="C144" s="88"/>
       <c r="D144" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="E144" s="65"/>
-      <c r="F144" s="85"/>
-      <c r="G144" s="85"/>
-      <c r="H144" s="126"/>
-      <c r="I144" s="152"/>
-      <c r="J144" s="152"/>
-      <c r="K144" s="152"/>
+      <c r="E144" s="63"/>
+      <c r="F144" s="67"/>
+      <c r="G144" s="67"/>
+      <c r="H144" s="77"/>
+      <c r="I144" s="82"/>
+      <c r="J144" s="82"/>
+      <c r="K144" s="82"/>
     </row>
     <row r="145" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A145" s="77"/>
-      <c r="B145" s="157"/>
-      <c r="C145" s="158"/>
+      <c r="A145" s="91"/>
+      <c r="B145" s="99"/>
+      <c r="C145" s="88"/>
       <c r="D145" s="11" t="s">
         <v>194</v>
       </c>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="62"/>
-      <c r="H145" s="125"/>
-      <c r="I145" s="152"/>
-      <c r="J145" s="152"/>
-      <c r="K145" s="152"/>
+      <c r="H145" s="75"/>
+      <c r="I145" s="82"/>
+      <c r="J145" s="82"/>
+      <c r="K145" s="82"/>
     </row>
     <row r="146" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A146" s="77"/>
-      <c r="B146" s="107" t="s">
+      <c r="A146" s="91"/>
+      <c r="B146" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="C146" s="160" t="s">
+      <c r="C146" s="87" t="s">
         <v>196</v>
       </c>
       <c r="D146" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="E146" s="63"/>
-      <c r="F146" s="63"/>
-      <c r="G146" s="63"/>
-      <c r="H146" s="127"/>
-      <c r="I146" s="152"/>
-      <c r="J146" s="152"/>
-      <c r="K146" s="152"/>
+      <c r="E146" s="74"/>
+      <c r="F146" s="74"/>
+      <c r="G146" s="74"/>
+      <c r="H146" s="76"/>
+      <c r="I146" s="82"/>
+      <c r="J146" s="82"/>
+      <c r="K146" s="82"/>
     </row>
     <row r="147" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A147" s="77"/>
-      <c r="B147" s="107"/>
-      <c r="C147" s="160"/>
+      <c r="A147" s="91"/>
+      <c r="B147" s="100"/>
+      <c r="C147" s="87"/>
       <c r="D147" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E147" s="65"/>
-      <c r="F147" s="65"/>
-      <c r="G147" s="65"/>
-      <c r="H147" s="126"/>
-      <c r="I147" s="152"/>
-      <c r="J147" s="152"/>
-      <c r="K147" s="152"/>
+      <c r="E147" s="63"/>
+      <c r="F147" s="63"/>
+      <c r="G147" s="63"/>
+      <c r="H147" s="77"/>
+      <c r="I147" s="82"/>
+      <c r="J147" s="82"/>
+      <c r="K147" s="82"/>
     </row>
     <row r="148" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A148" s="77"/>
-      <c r="B148" s="107"/>
-      <c r="C148" s="160" t="s">
+      <c r="A148" s="91"/>
+      <c r="B148" s="100"/>
+      <c r="C148" s="87" t="s">
         <v>199</v>
       </c>
       <c r="D148" s="12" t="s">
@@ -4729,246 +4729,246 @@
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="62"/>
-      <c r="H148" s="125"/>
-      <c r="I148" s="152"/>
-      <c r="J148" s="152"/>
-      <c r="K148" s="152"/>
+      <c r="H148" s="75"/>
+      <c r="I148" s="82"/>
+      <c r="J148" s="82"/>
+      <c r="K148" s="82"/>
     </row>
     <row r="149" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A149" s="77"/>
-      <c r="B149" s="107"/>
-      <c r="C149" s="158"/>
+      <c r="A149" s="91"/>
+      <c r="B149" s="100"/>
+      <c r="C149" s="88"/>
       <c r="D149" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E149" s="63"/>
-      <c r="F149" s="63"/>
-      <c r="G149" s="63"/>
-      <c r="H149" s="127"/>
-      <c r="I149" s="152"/>
-      <c r="J149" s="152"/>
-      <c r="K149" s="152"/>
+      <c r="E149" s="74"/>
+      <c r="F149" s="74"/>
+      <c r="G149" s="74"/>
+      <c r="H149" s="76"/>
+      <c r="I149" s="82"/>
+      <c r="J149" s="82"/>
+      <c r="K149" s="82"/>
     </row>
     <row r="150" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A150" s="77"/>
-      <c r="B150" s="107"/>
-      <c r="C150" s="158"/>
+      <c r="A150" s="91"/>
+      <c r="B150" s="100"/>
+      <c r="C150" s="88"/>
       <c r="D150" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="E150" s="65"/>
-      <c r="F150" s="65"/>
-      <c r="G150" s="65"/>
-      <c r="H150" s="126"/>
-      <c r="I150" s="152"/>
-      <c r="J150" s="152"/>
-      <c r="K150" s="152"/>
+      <c r="E150" s="63"/>
+      <c r="F150" s="63"/>
+      <c r="G150" s="63"/>
+      <c r="H150" s="77"/>
+      <c r="I150" s="82"/>
+      <c r="J150" s="82"/>
+      <c r="K150" s="82"/>
     </row>
     <row r="151" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A151" s="77"/>
-      <c r="B151" s="107"/>
-      <c r="C151" s="158"/>
+      <c r="A151" s="91"/>
+      <c r="B151" s="100"/>
+      <c r="C151" s="88"/>
       <c r="D151" s="47" t="s">
         <v>203</v>
       </c>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="62"/>
-      <c r="H151" s="125"/>
-      <c r="I151" s="152"/>
-      <c r="J151" s="152"/>
-      <c r="K151" s="152"/>
+      <c r="H151" s="75"/>
+      <c r="I151" s="82"/>
+      <c r="J151" s="82"/>
+      <c r="K151" s="82"/>
     </row>
     <row r="152" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A152" s="77"/>
-      <c r="B152" s="107"/>
-      <c r="C152" s="158"/>
+      <c r="A152" s="91"/>
+      <c r="B152" s="100"/>
+      <c r="C152" s="88"/>
       <c r="D152" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="E152" s="63"/>
-      <c r="F152" s="63"/>
-      <c r="G152" s="63"/>
-      <c r="H152" s="127"/>
-      <c r="I152" s="152"/>
-      <c r="J152" s="152"/>
-      <c r="K152" s="152"/>
+      <c r="E152" s="74"/>
+      <c r="F152" s="74"/>
+      <c r="G152" s="74"/>
+      <c r="H152" s="76"/>
+      <c r="I152" s="82"/>
+      <c r="J152" s="82"/>
+      <c r="K152" s="82"/>
     </row>
     <row r="153" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A153" s="154"/>
-      <c r="B153" s="159"/>
-      <c r="C153" s="122"/>
+      <c r="A153" s="96"/>
+      <c r="B153" s="101"/>
+      <c r="C153" s="102"/>
       <c r="D153" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="E153" s="65"/>
-      <c r="F153" s="65"/>
-      <c r="G153" s="65"/>
-      <c r="H153" s="126"/>
-      <c r="I153" s="153"/>
-      <c r="J153" s="153"/>
-      <c r="K153" s="153"/>
+      <c r="E153" s="63"/>
+      <c r="F153" s="63"/>
+      <c r="G153" s="63"/>
+      <c r="H153" s="77"/>
+      <c r="I153" s="83"/>
+      <c r="J153" s="83"/>
+      <c r="K153" s="83"/>
     </row>
     <row r="154" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A154" s="76" t="s">
+      <c r="A154" s="90" t="s">
         <v>206</v>
       </c>
-      <c r="B154" s="134" t="s">
+      <c r="B154" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="C154" s="135"/>
+      <c r="C154" s="94"/>
       <c r="D154" s="41" t="s">
         <v>208</v>
       </c>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="62"/>
-      <c r="H154" s="125"/>
-      <c r="I154" s="151"/>
-      <c r="J154" s="151"/>
-      <c r="K154" s="151"/>
+      <c r="H154" s="75"/>
+      <c r="I154" s="81"/>
+      <c r="J154" s="81"/>
+      <c r="K154" s="81"/>
     </row>
     <row r="155" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A155" s="77"/>
-      <c r="B155" s="95"/>
-      <c r="C155" s="86"/>
+      <c r="A155" s="91"/>
+      <c r="B155" s="85"/>
+      <c r="C155" s="95"/>
       <c r="D155" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="E155" s="63"/>
-      <c r="F155" s="63"/>
-      <c r="G155" s="63"/>
-      <c r="H155" s="127"/>
-      <c r="I155" s="152"/>
-      <c r="J155" s="152"/>
-      <c r="K155" s="152"/>
+      <c r="E155" s="74"/>
+      <c r="F155" s="74"/>
+      <c r="G155" s="74"/>
+      <c r="H155" s="76"/>
+      <c r="I155" s="82"/>
+      <c r="J155" s="82"/>
+      <c r="K155" s="82"/>
     </row>
     <row r="156" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A156" s="77"/>
-      <c r="B156" s="95"/>
-      <c r="C156" s="86"/>
+      <c r="A156" s="91"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="95"/>
       <c r="D156" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="E156" s="65"/>
-      <c r="F156" s="65"/>
-      <c r="G156" s="65"/>
-      <c r="H156" s="126"/>
-      <c r="I156" s="152"/>
-      <c r="J156" s="152"/>
-      <c r="K156" s="152"/>
+      <c r="E156" s="63"/>
+      <c r="F156" s="63"/>
+      <c r="G156" s="63"/>
+      <c r="H156" s="77"/>
+      <c r="I156" s="82"/>
+      <c r="J156" s="82"/>
+      <c r="K156" s="82"/>
     </row>
     <row r="157" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A157" s="77"/>
-      <c r="B157" s="95"/>
-      <c r="C157" s="86"/>
+      <c r="A157" s="91"/>
+      <c r="B157" s="85"/>
+      <c r="C157" s="95"/>
       <c r="D157" s="6" t="s">
         <v>211</v>
       </c>
       <c r="E157" s="62"/>
-      <c r="F157" s="85"/>
-      <c r="G157" s="85"/>
-      <c r="H157" s="125"/>
-      <c r="I157" s="152"/>
-      <c r="J157" s="152"/>
-      <c r="K157" s="152"/>
+      <c r="F157" s="67"/>
+      <c r="G157" s="67"/>
+      <c r="H157" s="75"/>
+      <c r="I157" s="82"/>
+      <c r="J157" s="82"/>
+      <c r="K157" s="82"/>
     </row>
     <row r="158" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A158" s="77"/>
-      <c r="B158" s="95"/>
-      <c r="C158" s="86"/>
+      <c r="A158" s="91"/>
+      <c r="B158" s="85"/>
+      <c r="C158" s="95"/>
       <c r="D158" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E158" s="63"/>
-      <c r="F158" s="85"/>
-      <c r="G158" s="85"/>
-      <c r="H158" s="127"/>
-      <c r="I158" s="152"/>
-      <c r="J158" s="152"/>
-      <c r="K158" s="152"/>
+      <c r="E158" s="74"/>
+      <c r="F158" s="67"/>
+      <c r="G158" s="67"/>
+      <c r="H158" s="76"/>
+      <c r="I158" s="82"/>
+      <c r="J158" s="82"/>
+      <c r="K158" s="82"/>
     </row>
     <row r="159" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A159" s="77"/>
-      <c r="B159" s="95"/>
-      <c r="C159" s="86"/>
+      <c r="A159" s="91"/>
+      <c r="B159" s="85"/>
+      <c r="C159" s="95"/>
       <c r="D159" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E159" s="65"/>
-      <c r="F159" s="85"/>
-      <c r="G159" s="85"/>
-      <c r="H159" s="126"/>
-      <c r="I159" s="152"/>
-      <c r="J159" s="152"/>
-      <c r="K159" s="152"/>
+      <c r="E159" s="63"/>
+      <c r="F159" s="67"/>
+      <c r="G159" s="67"/>
+      <c r="H159" s="77"/>
+      <c r="I159" s="82"/>
+      <c r="J159" s="82"/>
+      <c r="K159" s="82"/>
     </row>
     <row r="160" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A160" s="77"/>
-      <c r="B160" s="95"/>
-      <c r="C160" s="86"/>
+      <c r="A160" s="91"/>
+      <c r="B160" s="85"/>
+      <c r="C160" s="95"/>
       <c r="D160" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="62"/>
-      <c r="H160" s="125"/>
-      <c r="I160" s="152"/>
-      <c r="J160" s="152"/>
-      <c r="K160" s="152"/>
+      <c r="H160" s="75"/>
+      <c r="I160" s="82"/>
+      <c r="J160" s="82"/>
+      <c r="K160" s="82"/>
     </row>
     <row r="161" spans="1:11" ht="18" customHeight="1">
-      <c r="A161" s="77"/>
-      <c r="B161" s="95"/>
-      <c r="C161" s="86"/>
+      <c r="A161" s="91"/>
+      <c r="B161" s="85"/>
+      <c r="C161" s="95"/>
       <c r="D161" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="E161" s="63"/>
-      <c r="F161" s="63"/>
-      <c r="G161" s="63"/>
-      <c r="H161" s="127"/>
-      <c r="I161" s="152"/>
-      <c r="J161" s="152"/>
-      <c r="K161" s="152"/>
+      <c r="E161" s="74"/>
+      <c r="F161" s="74"/>
+      <c r="G161" s="74"/>
+      <c r="H161" s="76"/>
+      <c r="I161" s="82"/>
+      <c r="J161" s="82"/>
+      <c r="K161" s="82"/>
     </row>
     <row r="162" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A162" s="77"/>
-      <c r="B162" s="95"/>
-      <c r="C162" s="86"/>
+      <c r="A162" s="91"/>
+      <c r="B162" s="85"/>
+      <c r="C162" s="95"/>
       <c r="D162" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E162" s="63"/>
-      <c r="F162" s="63"/>
-      <c r="G162" s="63"/>
-      <c r="H162" s="127"/>
-      <c r="I162" s="152"/>
-      <c r="J162" s="152"/>
-      <c r="K162" s="152"/>
+      <c r="E162" s="74"/>
+      <c r="F162" s="74"/>
+      <c r="G162" s="74"/>
+      <c r="H162" s="76"/>
+      <c r="I162" s="82"/>
+      <c r="J162" s="82"/>
+      <c r="K162" s="82"/>
     </row>
     <row r="163" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A163" s="77"/>
-      <c r="B163" s="95"/>
-      <c r="C163" s="86"/>
+      <c r="A163" s="91"/>
+      <c r="B163" s="85"/>
+      <c r="C163" s="95"/>
       <c r="D163" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E163" s="65"/>
-      <c r="F163" s="65"/>
-      <c r="G163" s="65"/>
-      <c r="H163" s="126"/>
-      <c r="I163" s="152"/>
-      <c r="J163" s="152"/>
-      <c r="K163" s="152"/>
+      <c r="E163" s="63"/>
+      <c r="F163" s="63"/>
+      <c r="G163" s="63"/>
+      <c r="H163" s="77"/>
+      <c r="I163" s="82"/>
+      <c r="J163" s="82"/>
+      <c r="K163" s="82"/>
     </row>
     <row r="164" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A164" s="77"/>
-      <c r="B164" s="96" t="s">
+      <c r="A164" s="91"/>
+      <c r="B164" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="C164" s="160" t="s">
+      <c r="C164" s="87" t="s">
         <v>218</v>
       </c>
       <c r="D164" s="47" t="s">
@@ -4977,87 +4977,87 @@
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="62"/>
-      <c r="H164" s="125"/>
-      <c r="I164" s="152"/>
-      <c r="J164" s="152"/>
-      <c r="K164" s="152"/>
+      <c r="H164" s="75"/>
+      <c r="I164" s="82"/>
+      <c r="J164" s="82"/>
+      <c r="K164" s="82"/>
     </row>
     <row r="165" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A165" s="77"/>
-      <c r="B165" s="95"/>
-      <c r="C165" s="158"/>
+      <c r="A165" s="91"/>
+      <c r="B165" s="85"/>
+      <c r="C165" s="88"/>
       <c r="D165" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="E165" s="63"/>
-      <c r="F165" s="63"/>
-      <c r="G165" s="63"/>
-      <c r="H165" s="127"/>
-      <c r="I165" s="152"/>
-      <c r="J165" s="152"/>
-      <c r="K165" s="152"/>
+      <c r="E165" s="74"/>
+      <c r="F165" s="74"/>
+      <c r="G165" s="74"/>
+      <c r="H165" s="76"/>
+      <c r="I165" s="82"/>
+      <c r="J165" s="82"/>
+      <c r="K165" s="82"/>
     </row>
     <row r="166" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A166" s="77"/>
-      <c r="B166" s="95"/>
-      <c r="C166" s="158"/>
+      <c r="A166" s="91"/>
+      <c r="B166" s="85"/>
+      <c r="C166" s="88"/>
       <c r="D166" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="E166" s="65"/>
-      <c r="F166" s="65"/>
-      <c r="G166" s="65"/>
-      <c r="H166" s="126"/>
-      <c r="I166" s="152"/>
-      <c r="J166" s="152"/>
-      <c r="K166" s="152"/>
+      <c r="E166" s="63"/>
+      <c r="F166" s="63"/>
+      <c r="G166" s="63"/>
+      <c r="H166" s="77"/>
+      <c r="I166" s="82"/>
+      <c r="J166" s="82"/>
+      <c r="K166" s="82"/>
     </row>
     <row r="167" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A167" s="77"/>
-      <c r="B167" s="95"/>
-      <c r="C167" s="158"/>
+      <c r="A167" s="91"/>
+      <c r="B167" s="85"/>
+      <c r="C167" s="88"/>
       <c r="D167" s="12" t="s">
         <v>222</v>
       </c>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="62"/>
-      <c r="H167" s="125"/>
-      <c r="I167" s="152"/>
-      <c r="J167" s="152"/>
-      <c r="K167" s="152"/>
+      <c r="H167" s="75"/>
+      <c r="I167" s="82"/>
+      <c r="J167" s="82"/>
+      <c r="K167" s="82"/>
     </row>
     <row r="168" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A168" s="77"/>
-      <c r="B168" s="95"/>
-      <c r="C168" s="160" t="s">
+      <c r="A168" s="91"/>
+      <c r="B168" s="85"/>
+      <c r="C168" s="87" t="s">
         <v>223</v>
       </c>
       <c r="D168" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="E168" s="63"/>
-      <c r="F168" s="63"/>
-      <c r="G168" s="63"/>
-      <c r="H168" s="127"/>
-      <c r="I168" s="152"/>
-      <c r="J168" s="152"/>
-      <c r="K168" s="152"/>
+      <c r="E168" s="74"/>
+      <c r="F168" s="74"/>
+      <c r="G168" s="74"/>
+      <c r="H168" s="76"/>
+      <c r="I168" s="82"/>
+      <c r="J168" s="82"/>
+      <c r="K168" s="82"/>
     </row>
     <row r="169" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A169" s="78"/>
-      <c r="B169" s="97"/>
-      <c r="C169" s="161"/>
+      <c r="A169" s="92"/>
+      <c r="B169" s="86"/>
+      <c r="C169" s="89"/>
       <c r="D169" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="E169" s="65"/>
-      <c r="F169" s="65"/>
-      <c r="G169" s="65"/>
-      <c r="H169" s="126"/>
-      <c r="I169" s="153"/>
-      <c r="J169" s="153"/>
-      <c r="K169" s="153"/>
+      <c r="E169" s="63"/>
+      <c r="F169" s="63"/>
+      <c r="G169" s="63"/>
+      <c r="H169" s="77"/>
+      <c r="I169" s="83"/>
+      <c r="J169" s="83"/>
+      <c r="K169" s="83"/>
     </row>
     <row r="170" spans="1:11" ht="19.2">
       <c r="E170" s="5"/>
@@ -6259,6 +6259,296 @@
     </row>
   </sheetData>
   <mergeCells count="314">
+    <mergeCell ref="K2:K11"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I11"/>
+    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I12:I22"/>
+    <mergeCell ref="J12:J22"/>
+    <mergeCell ref="K12:K22"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="A27:A46"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="B30:C35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="B36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="B12:B22"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B40:C42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="B43:C46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="I47:I58"/>
+    <mergeCell ref="J47:J58"/>
+    <mergeCell ref="K47:K58"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="I36:I46"/>
+    <mergeCell ref="J36:J46"/>
+    <mergeCell ref="K36:K46"/>
+    <mergeCell ref="I27:I35"/>
+    <mergeCell ref="J27:J35"/>
+    <mergeCell ref="K27:K35"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="I59:I69"/>
+    <mergeCell ref="J59:J69"/>
+    <mergeCell ref="K59:K69"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B59:C62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="B68:C69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="A70:A80"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="A47:A69"/>
+    <mergeCell ref="B47:C54"/>
+    <mergeCell ref="B55:C58"/>
+    <mergeCell ref="B78:C80"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="I78:I82"/>
+    <mergeCell ref="J78:J82"/>
+    <mergeCell ref="K78:K82"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I77"/>
+    <mergeCell ref="J70:J77"/>
+    <mergeCell ref="K70:K77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="I83:I102"/>
+    <mergeCell ref="J83:J102"/>
+    <mergeCell ref="K83:K102"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="A81:A110"/>
+    <mergeCell ref="B81:C82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="B83:B102"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="C89:C99"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="A112:A140"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="F112:F115"/>
+    <mergeCell ref="G112:G115"/>
+    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="B103:C106"/>
+    <mergeCell ref="B107:C110"/>
+    <mergeCell ref="B128:C133"/>
+    <mergeCell ref="B134:C140"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="B116:C120"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="G116:G118"/>
+    <mergeCell ref="F116:F118"/>
+    <mergeCell ref="H116:H118"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="K103:K110"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="I116:I127"/>
+    <mergeCell ref="J116:J127"/>
+    <mergeCell ref="K116:K127"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="B121:C127"/>
+    <mergeCell ref="E121:E124"/>
+    <mergeCell ref="F121:F124"/>
+    <mergeCell ref="G121:G124"/>
+    <mergeCell ref="H121:H124"/>
+    <mergeCell ref="K142:K153"/>
+    <mergeCell ref="E145:E147"/>
+    <mergeCell ref="F145:F147"/>
+    <mergeCell ref="G145:G147"/>
+    <mergeCell ref="H145:H147"/>
+    <mergeCell ref="E148:E150"/>
+    <mergeCell ref="F148:F150"/>
+    <mergeCell ref="G148:G150"/>
+    <mergeCell ref="A142:A153"/>
+    <mergeCell ref="B142:C145"/>
+    <mergeCell ref="E142:E144"/>
+    <mergeCell ref="F142:F144"/>
+    <mergeCell ref="G142:G144"/>
+    <mergeCell ref="H142:H144"/>
+    <mergeCell ref="B146:B153"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C148:C153"/>
+    <mergeCell ref="A154:A169"/>
+    <mergeCell ref="B154:C163"/>
+    <mergeCell ref="E154:E156"/>
+    <mergeCell ref="F154:F156"/>
+    <mergeCell ref="G154:G156"/>
+    <mergeCell ref="I142:I153"/>
+    <mergeCell ref="J142:J153"/>
+    <mergeCell ref="E151:E153"/>
+    <mergeCell ref="F151:F153"/>
+    <mergeCell ref="G151:G153"/>
+    <mergeCell ref="H151:H153"/>
+    <mergeCell ref="H137:H140"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="E137:E140"/>
+    <mergeCell ref="B164:B169"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="G164:G166"/>
+    <mergeCell ref="H164:H166"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="F167:F169"/>
+    <mergeCell ref="H154:H156"/>
+    <mergeCell ref="G167:G169"/>
+    <mergeCell ref="H167:H169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="E157:E159"/>
+    <mergeCell ref="F157:F159"/>
+    <mergeCell ref="G157:G159"/>
+    <mergeCell ref="H157:H159"/>
+    <mergeCell ref="E160:E163"/>
+    <mergeCell ref="F160:F163"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="G125:G127"/>
+    <mergeCell ref="H125:H127"/>
+    <mergeCell ref="F125:F127"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="H134:H136"/>
+    <mergeCell ref="E128:E131"/>
+    <mergeCell ref="F128:F131"/>
+    <mergeCell ref="G128:G131"/>
+    <mergeCell ref="H128:H131"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="H132:H133"/>
     <mergeCell ref="G83:G84"/>
     <mergeCell ref="H83:H84"/>
     <mergeCell ref="G57:G58"/>
@@ -6283,296 +6573,6 @@
     <mergeCell ref="J112:J115"/>
     <mergeCell ref="K112:K115"/>
     <mergeCell ref="J103:J110"/>
-    <mergeCell ref="G96:G98"/>
-    <mergeCell ref="H96:H98"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="E125:E127"/>
-    <mergeCell ref="G125:G127"/>
-    <mergeCell ref="H125:H127"/>
-    <mergeCell ref="F125:F127"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="F134:F136"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="H134:H136"/>
-    <mergeCell ref="E128:E131"/>
-    <mergeCell ref="F128:F131"/>
-    <mergeCell ref="G128:G131"/>
-    <mergeCell ref="H128:H131"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="H137:H140"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="E137:E140"/>
-    <mergeCell ref="B164:B169"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="F164:F166"/>
-    <mergeCell ref="G164:G166"/>
-    <mergeCell ref="H164:H166"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="F167:F169"/>
-    <mergeCell ref="H154:H156"/>
-    <mergeCell ref="G167:G169"/>
-    <mergeCell ref="H167:H169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="E157:E159"/>
-    <mergeCell ref="F157:F159"/>
-    <mergeCell ref="G157:G159"/>
-    <mergeCell ref="H157:H159"/>
-    <mergeCell ref="E160:E163"/>
-    <mergeCell ref="F160:F163"/>
-    <mergeCell ref="A154:A169"/>
-    <mergeCell ref="B154:C163"/>
-    <mergeCell ref="E154:E156"/>
-    <mergeCell ref="F154:F156"/>
-    <mergeCell ref="G154:G156"/>
-    <mergeCell ref="I142:I153"/>
-    <mergeCell ref="J142:J153"/>
-    <mergeCell ref="E151:E153"/>
-    <mergeCell ref="F151:F153"/>
-    <mergeCell ref="G151:G153"/>
-    <mergeCell ref="H151:H153"/>
-    <mergeCell ref="K142:K153"/>
-    <mergeCell ref="E145:E147"/>
-    <mergeCell ref="F145:F147"/>
-    <mergeCell ref="G145:G147"/>
-    <mergeCell ref="H145:H147"/>
-    <mergeCell ref="E148:E150"/>
-    <mergeCell ref="F148:F150"/>
-    <mergeCell ref="G148:G150"/>
-    <mergeCell ref="A142:A153"/>
-    <mergeCell ref="B142:C145"/>
-    <mergeCell ref="E142:E144"/>
-    <mergeCell ref="F142:F144"/>
-    <mergeCell ref="G142:G144"/>
-    <mergeCell ref="H142:H144"/>
-    <mergeCell ref="B146:B153"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="C148:C153"/>
-    <mergeCell ref="I116:I127"/>
-    <mergeCell ref="J116:J127"/>
-    <mergeCell ref="K116:K127"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="B121:C127"/>
-    <mergeCell ref="E121:E124"/>
-    <mergeCell ref="F121:F124"/>
-    <mergeCell ref="G121:G124"/>
-    <mergeCell ref="H121:H124"/>
-    <mergeCell ref="K103:K110"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="A112:A140"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="E112:E115"/>
-    <mergeCell ref="F112:F115"/>
-    <mergeCell ref="G112:G115"/>
-    <mergeCell ref="H112:H115"/>
-    <mergeCell ref="B103:C106"/>
-    <mergeCell ref="B107:C110"/>
-    <mergeCell ref="B128:C133"/>
-    <mergeCell ref="B134:C140"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="B116:C120"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="G116:G118"/>
-    <mergeCell ref="F116:F118"/>
-    <mergeCell ref="H116:H118"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="I83:I102"/>
-    <mergeCell ref="J83:J102"/>
-    <mergeCell ref="K83:K102"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="A81:A110"/>
-    <mergeCell ref="B81:C82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="B83:B102"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="C89:C99"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="I78:I82"/>
-    <mergeCell ref="J78:J82"/>
-    <mergeCell ref="K78:K82"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I77"/>
-    <mergeCell ref="J70:J77"/>
-    <mergeCell ref="K70:K77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="A70:A80"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="A47:A69"/>
-    <mergeCell ref="B47:C54"/>
-    <mergeCell ref="B55:C58"/>
-    <mergeCell ref="B78:C80"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="I59:I69"/>
-    <mergeCell ref="J59:J69"/>
-    <mergeCell ref="K59:K69"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B59:C62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="B68:C69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="K47:K58"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="I36:I46"/>
-    <mergeCell ref="J36:J46"/>
-    <mergeCell ref="K36:K46"/>
-    <mergeCell ref="I27:I35"/>
-    <mergeCell ref="J27:J35"/>
-    <mergeCell ref="K27:K35"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="B43:C46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="I47:I58"/>
-    <mergeCell ref="J47:J58"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="A27:A46"/>
-    <mergeCell ref="B27:C29"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="B30:C35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="B36:C39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="B12:B22"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B40:C42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I12:I22"/>
-    <mergeCell ref="J12:J22"/>
-    <mergeCell ref="K12:K22"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="K2:K11"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I11"/>
-    <mergeCell ref="J2:J11"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="E15:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{61CA1064-5AEB-4E9B-8C6E-CEEF98F80767}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{79D3A832-A8B9-4BD1-B612-E20BE0534EAB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -771,7 +771,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -918,6 +918,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1552,7 +1560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1730,323 +1738,326 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2389,8 +2400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="19.8" thickBottom="1"/>
@@ -2424,187 +2435,187 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="49"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="165"/>
-      <c r="M1" s="66" t="s">
+      <c r="I1" s="73"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="75"/>
+      <c r="M1" s="162" t="s">
         <v>226</v>
       </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="168" t="s">
+      <c r="C2" s="81" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="64"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="83"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
       <c r="K2" s="62"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="91"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="162"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="91"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="162"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="104"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="91"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="162" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="64" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="54" t="s">
         <v>227</v>
       </c>
       <c r="E5" s="62"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="91"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="162"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A7" s="91"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="162"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="91"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="130" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="70" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A9" s="91"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="131"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="167"/>
-      <c r="C10" s="131"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A11" s="91"/>
-      <c r="B11" s="167"/>
-      <c r="C11" s="132"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="1:15" ht="18" thickBot="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="84" t="s">
+      <c r="A12" s="77"/>
+      <c r="B12" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -2618,85 +2629,85 @@
       <c r="K12" s="62"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A13" s="91"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="95"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A14" s="91"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="95"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="104"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A15" s="91"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="95" t="s">
+      <c r="A15" s="77"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="86" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="104"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A16" s="91"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="95"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="104"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A17" s="91"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="95"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
     </row>
     <row r="18" spans="1:11" ht="18" thickBot="1">
-      <c r="A18" s="91"/>
-      <c r="B18" s="84"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="10" t="s">
         <v>26</v>
       </c>
@@ -2706,77 +2717,77 @@
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="95" t="s">
+      <c r="A19" s="77"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="86" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="E19" s="104"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="91"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="95"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="104"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="95"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="104"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
     </row>
     <row r="22" spans="1:11" ht="18" thickBot="1">
-      <c r="A22" s="91"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="95"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
     </row>
     <row r="23" spans="1:11" ht="18" thickBot="1">
-      <c r="A23" s="91"/>
-      <c r="B23" s="84" t="s">
+      <c r="A23" s="77"/>
+      <c r="B23" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="95"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="55" t="s">
         <v>32</v>
       </c>
@@ -2787,727 +2798,727 @@
       <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A24" s="91"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="95"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="104"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A25" s="91"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="95"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="104"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
     </row>
     <row r="26" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A26" s="92"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="160"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="98"/>
       <c r="D26" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="104"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A27" s="136" t="s">
+      <c r="A27" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="149"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="104"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="64"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="83"/>
       <c r="I27" s="62"/>
       <c r="J27" s="62"/>
       <c r="K27" s="62"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A28" s="136"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="150"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="104"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A29" s="136"/>
-      <c r="B29" s="158"/>
-      <c r="C29" s="159"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="152"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A30" s="136"/>
-      <c r="B30" s="85" t="s">
+      <c r="A30" s="87"/>
+      <c r="B30" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="95"/>
+      <c r="C30" s="86"/>
       <c r="D30" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="E30" s="153"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A31" s="136"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="95"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="86"/>
       <c r="D31" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="153"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A32" s="136"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="95"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="86"/>
       <c r="D32" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="154"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A33" s="136"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="95"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="86"/>
       <c r="D33" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="104"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A34" s="136"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="95"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="86"/>
       <c r="D34" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="104"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A35" s="136"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="95"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="86"/>
       <c r="D35" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="104"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A36" s="136"/>
-      <c r="B36" s="115" t="s">
+      <c r="A36" s="87"/>
+      <c r="B36" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="150"/>
+      <c r="C36" s="92"/>
       <c r="D36" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="104"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="65"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="69"/>
       <c r="I36" s="62"/>
       <c r="J36" s="62"/>
       <c r="K36" s="62"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A37" s="136"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="150"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="92"/>
       <c r="D37" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="104"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A38" s="136"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="150"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="92"/>
       <c r="D38" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="104"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A39" s="136"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="150"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="92"/>
       <c r="D39" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="104"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
     </row>
     <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="136"/>
-      <c r="B40" s="113" t="s">
+      <c r="A40" s="87"/>
+      <c r="B40" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="114"/>
+      <c r="C40" s="99"/>
       <c r="D40" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="104"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
     </row>
     <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="136"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="116"/>
+      <c r="A41" s="87"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="100"/>
       <c r="D41" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="104"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="155"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
     </row>
     <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A42" s="136"/>
-      <c r="B42" s="158"/>
-      <c r="C42" s="161"/>
+      <c r="A42" s="87"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="101"/>
       <c r="D42" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="104"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A43" s="136"/>
-      <c r="B43" s="85" t="s">
+      <c r="A43" s="87"/>
+      <c r="B43" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="95"/>
+      <c r="C43" s="86"/>
       <c r="D43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="104"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A44" s="136"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="95"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="86"/>
       <c r="D44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="104"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="155"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A45" s="136"/>
-      <c r="B45" s="156"/>
-      <c r="C45" s="157"/>
+      <c r="A45" s="87"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="103"/>
       <c r="D45" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="104"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="155"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
     </row>
     <row r="46" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A46" s="137"/>
-      <c r="B46" s="156"/>
-      <c r="C46" s="157"/>
+      <c r="A46" s="88"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="103"/>
       <c r="D46" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="104"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="155"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A47" s="135" t="s">
+      <c r="A47" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="141" t="s">
+      <c r="B47" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="142"/>
+      <c r="C47" s="121"/>
       <c r="D47" s="57" t="s">
         <v>63</v>
       </c>
       <c r="E47" s="62"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
       <c r="I47" s="62"/>
       <c r="J47" s="62"/>
       <c r="K47" s="62"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A48" s="136"/>
-      <c r="B48" s="143"/>
-      <c r="C48" s="144"/>
+      <c r="A48" s="87"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="109"/>
       <c r="D48" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="74"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A49" s="136"/>
-      <c r="B49" s="143"/>
-      <c r="C49" s="144"/>
+      <c r="A49" s="87"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="109"/>
       <c r="D49" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="74"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="74"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
     </row>
     <row r="50" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A50" s="136"/>
-      <c r="B50" s="143"/>
-      <c r="C50" s="144"/>
+      <c r="A50" s="87"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="109"/>
       <c r="D50" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="63"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A51" s="136"/>
-      <c r="B51" s="143"/>
-      <c r="C51" s="144"/>
+      <c r="A51" s="87"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="109"/>
       <c r="D51" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="104"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="163"/>
+      <c r="G51" s="166"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A52" s="136"/>
-      <c r="B52" s="143"/>
-      <c r="C52" s="144"/>
+      <c r="A52" s="87"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="109"/>
       <c r="D52" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="104"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="74"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="74"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="167"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="63"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A53" s="136"/>
-      <c r="B53" s="143"/>
-      <c r="C53" s="144"/>
+      <c r="A53" s="87"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="109"/>
       <c r="D53" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="104"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="74"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="165"/>
+      <c r="G53" s="168"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A54" s="136"/>
-      <c r="B54" s="145"/>
-      <c r="C54" s="146"/>
+      <c r="A54" s="87"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="110"/>
       <c r="D54" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="74"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="74"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A55" s="136"/>
-      <c r="B55" s="147" t="s">
+      <c r="A55" s="87"/>
+      <c r="B55" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="148"/>
+      <c r="C55" s="108"/>
       <c r="D55" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="74"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="74"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A56" s="136"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="144"/>
+      <c r="A56" s="87"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="109"/>
       <c r="D56" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="E56" s="104"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="74"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="74"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A57" s="136"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="144"/>
+      <c r="A57" s="87"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="109"/>
       <c r="D57" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="104"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="74"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="74"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A58" s="136"/>
-      <c r="B58" s="145"/>
-      <c r="C58" s="146"/>
+      <c r="A58" s="87"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="110"/>
       <c r="D58" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="104"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="74"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A59" s="136"/>
-      <c r="B59" s="147" t="s">
+      <c r="A59" s="87"/>
+      <c r="B59" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="148"/>
+      <c r="C59" s="108"/>
       <c r="D59" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="104"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
       <c r="I59" s="62"/>
       <c r="J59" s="62"/>
       <c r="K59" s="62"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A60" s="136"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="144"/>
+      <c r="A60" s="87"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="109"/>
       <c r="D60" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E60" s="104"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="74"/>
-      <c r="K60" s="74"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="63"/>
+      <c r="K60" s="63"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A61" s="136"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="144"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="109"/>
       <c r="D61" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="104"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="74"/>
-      <c r="K61" s="74"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A62" s="136"/>
-      <c r="B62" s="145"/>
-      <c r="C62" s="146"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="113"/>
+      <c r="C62" s="110"/>
       <c r="D62" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="104"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="74"/>
-      <c r="J62" s="74"/>
-      <c r="K62" s="74"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A63" s="136"/>
-      <c r="B63" s="100" t="s">
+      <c r="A63" s="87"/>
+      <c r="B63" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="148" t="s">
+      <c r="C63" s="108" t="s">
         <v>82</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="104"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="74"/>
-      <c r="J63" s="74"/>
-      <c r="K63" s="74"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A64" s="136"/>
-      <c r="B64" s="100"/>
-      <c r="C64" s="144"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="109"/>
       <c r="D64" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E64" s="104"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="74"/>
-      <c r="J64" s="74"/>
-      <c r="K64" s="74"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="63"/>
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A65" s="136"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="148" t="s">
+      <c r="A65" s="87"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="108" t="s">
         <v>85</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E65" s="104"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="74"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="74"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A66" s="136"/>
-      <c r="B66" s="100"/>
-      <c r="C66" s="144"/>
+      <c r="A66" s="87"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="109"/>
       <c r="D66" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E66" s="104"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="74"/>
-      <c r="J66" s="74"/>
-      <c r="K66" s="74"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
     </row>
     <row r="67" spans="1:11" ht="18" thickBot="1">
-      <c r="A67" s="136"/>
-      <c r="B67" s="100"/>
-      <c r="C67" s="146"/>
+      <c r="A67" s="87"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="110"/>
       <c r="D67" s="14" t="s">
         <v>88</v>
       </c>
       <c r="F67" s="47"/>
       <c r="G67" s="47"/>
       <c r="H67" s="8"/>
-      <c r="I67" s="74"/>
-      <c r="J67" s="74"/>
-      <c r="K67" s="74"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A68" s="136"/>
-      <c r="B68" s="113" t="s">
+      <c r="A68" s="87"/>
+      <c r="B68" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="149"/>
-      <c r="D68" s="47" t="s">
+      <c r="C68" s="90"/>
+      <c r="D68" s="169" t="s">
         <v>90</v>
       </c>
-      <c r="E68" s="104"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="74"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="63"/>
     </row>
     <row r="69" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A69" s="137"/>
-      <c r="B69" s="117"/>
-      <c r="C69" s="151"/>
-      <c r="D69" s="47" t="s">
+      <c r="A69" s="88"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="115"/>
+      <c r="D69" s="169" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="104"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="63"/>
-      <c r="J69" s="63"/>
-      <c r="K69" s="63"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="65"/>
     </row>
     <row r="70" spans="1:11" ht="18" thickBot="1">
-      <c r="A70" s="135" t="s">
+      <c r="A70" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="138" t="s">
+      <c r="B70" s="117" t="s">
         <v>93</v>
       </c>
       <c r="C70" s="18" t="s">
@@ -3517,33 +3528,33 @@
         <v>95</v>
       </c>
       <c r="E70" s="62"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="64"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="83"/>
       <c r="I70" s="62"/>
       <c r="J70" s="62"/>
       <c r="K70" s="62"/>
     </row>
     <row r="71" spans="1:11" ht="18" thickBot="1">
-      <c r="A71" s="136"/>
-      <c r="B71" s="139"/>
+      <c r="A71" s="87"/>
+      <c r="B71" s="118"/>
       <c r="C71" s="19" t="s">
         <v>96</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E71" s="63"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="74"/>
-      <c r="J71" s="74"/>
-      <c r="K71" s="74"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="83"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="63"/>
     </row>
     <row r="72" spans="1:11" ht="18" thickBot="1">
-      <c r="A72" s="136"/>
-      <c r="B72" s="139"/>
+      <c r="A72" s="87"/>
+      <c r="B72" s="118"/>
       <c r="C72" s="19" t="s">
         <v>98</v>
       </c>
@@ -3552,13 +3563,13 @@
       </c>
       <c r="F72" s="48"/>
       <c r="G72" s="48"/>
-      <c r="I72" s="74"/>
-      <c r="J72" s="74"/>
-      <c r="K72" s="74"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="63"/>
     </row>
     <row r="73" spans="1:11" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A73" s="136"/>
-      <c r="B73" s="139"/>
+      <c r="A73" s="87"/>
+      <c r="B73" s="118"/>
       <c r="C73" s="21" t="s">
         <v>100</v>
       </c>
@@ -3568,13 +3579,13 @@
       <c r="F73" s="46"/>
       <c r="G73" s="46"/>
       <c r="H73" s="8"/>
-      <c r="I73" s="74"/>
-      <c r="J73" s="74"/>
-      <c r="K73" s="74"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
+      <c r="K73" s="63"/>
     </row>
     <row r="74" spans="1:11" ht="34.5" customHeight="1">
-      <c r="A74" s="136"/>
-      <c r="B74" s="139"/>
+      <c r="A74" s="87"/>
+      <c r="B74" s="118"/>
       <c r="C74" s="21" t="s">
         <v>102</v>
       </c>
@@ -3582,147 +3593,147 @@
         <v>103</v>
       </c>
       <c r="E74" s="62"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="78"/>
-      <c r="H74" s="75"/>
-      <c r="I74" s="74"/>
-      <c r="J74" s="74"/>
-      <c r="K74" s="74"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="125"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="63"/>
     </row>
     <row r="75" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A75" s="136"/>
-      <c r="B75" s="139"/>
-      <c r="C75" s="102" t="s">
+      <c r="A75" s="87"/>
+      <c r="B75" s="118"/>
+      <c r="C75" s="122" t="s">
         <v>104</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E75" s="63"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="77"/>
-      <c r="I75" s="74"/>
-      <c r="J75" s="74"/>
-      <c r="K75" s="74"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="68"/>
+      <c r="H75" s="126"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A76" s="136"/>
-      <c r="B76" s="139"/>
-      <c r="C76" s="133"/>
+      <c r="A76" s="87"/>
+      <c r="B76" s="118"/>
+      <c r="C76" s="123"/>
       <c r="D76" s="20" t="s">
         <v>106</v>
       </c>
       <c r="E76" s="62"/>
       <c r="F76" s="62"/>
       <c r="G76" s="62"/>
-      <c r="H76" s="64"/>
-      <c r="I76" s="74"/>
-      <c r="J76" s="74"/>
-      <c r="K76" s="74"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="63"/>
+      <c r="K76" s="63"/>
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A77" s="136"/>
-      <c r="B77" s="140"/>
-      <c r="C77" s="134"/>
+      <c r="A77" s="87"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="124"/>
       <c r="D77" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="E77" s="63"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="64"/>
-      <c r="I77" s="74"/>
-      <c r="J77" s="74"/>
-      <c r="K77" s="74"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="83"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
     </row>
     <row r="78" spans="1:11" ht="16.95" customHeight="1">
-      <c r="A78" s="136"/>
-      <c r="B78" s="113" t="s">
+      <c r="A78" s="87"/>
+      <c r="B78" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="C78" s="149"/>
+      <c r="C78" s="90"/>
       <c r="D78" s="55" t="s">
         <v>109</v>
       </c>
       <c r="E78" s="62"/>
       <c r="F78" s="62"/>
       <c r="G78" s="62"/>
-      <c r="H78" s="75"/>
+      <c r="H78" s="125"/>
       <c r="I78" s="62"/>
       <c r="J78" s="62"/>
       <c r="K78" s="62"/>
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A79" s="136"/>
-      <c r="B79" s="115"/>
-      <c r="C79" s="150"/>
+      <c r="A79" s="87"/>
+      <c r="B79" s="91"/>
+      <c r="C79" s="92"/>
       <c r="D79" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="74"/>
-      <c r="H79" s="76"/>
-      <c r="I79" s="74"/>
-      <c r="J79" s="74"/>
-      <c r="K79" s="74"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="127"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
     </row>
     <row r="80" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A80" s="137"/>
-      <c r="B80" s="117"/>
-      <c r="C80" s="151"/>
+      <c r="A80" s="88"/>
+      <c r="B80" s="114"/>
+      <c r="C80" s="115"/>
       <c r="D80" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="77"/>
-      <c r="I80" s="74"/>
-      <c r="J80" s="74"/>
-      <c r="K80" s="74"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="126"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="63"/>
+      <c r="K80" s="63"/>
     </row>
     <row r="81" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A81" s="124" t="s">
+      <c r="A81" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="B81" s="93" t="s">
+      <c r="B81" s="134" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="94"/>
+      <c r="C81" s="135"/>
       <c r="D81" s="15" t="s">
         <v>114</v>
       </c>
       <c r="E81" s="62"/>
       <c r="F81" s="62"/>
       <c r="G81" s="62"/>
-      <c r="H81" s="64"/>
-      <c r="I81" s="74"/>
-      <c r="J81" s="74"/>
-      <c r="K81" s="74"/>
+      <c r="H81" s="83"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="63"/>
     </row>
     <row r="82" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A82" s="125"/>
-      <c r="B82" s="85"/>
-      <c r="C82" s="95"/>
+      <c r="A82" s="132"/>
+      <c r="B82" s="95"/>
+      <c r="C82" s="86"/>
       <c r="D82" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E82" s="63"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="63"/>
-      <c r="K82" s="63"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="83"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="65"/>
+      <c r="K82" s="65"/>
     </row>
     <row r="83" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A83" s="125"/>
-      <c r="B83" s="84" t="s">
+      <c r="A83" s="132"/>
+      <c r="B83" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="C83" s="127" t="s">
+      <c r="C83" s="136" t="s">
         <v>117</v>
       </c>
       <c r="D83" s="12" t="s">
@@ -3731,75 +3742,75 @@
       <c r="E83" s="62"/>
       <c r="F83" s="62"/>
       <c r="G83" s="62"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="121"/>
-      <c r="J83" s="121"/>
-      <c r="K83" s="121"/>
+      <c r="H83" s="83"/>
+      <c r="I83" s="128"/>
+      <c r="J83" s="128"/>
+      <c r="K83" s="128"/>
     </row>
     <row r="84" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A84" s="125"/>
-      <c r="B84" s="85"/>
-      <c r="C84" s="128"/>
+      <c r="A84" s="132"/>
+      <c r="B84" s="95"/>
+      <c r="C84" s="137"/>
       <c r="D84" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E84" s="74"/>
-      <c r="F84" s="63"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="122"/>
-      <c r="J84" s="122"/>
-      <c r="K84" s="122"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="83"/>
+      <c r="I84" s="129"/>
+      <c r="J84" s="129"/>
+      <c r="K84" s="129"/>
     </row>
     <row r="85" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A85" s="125"/>
-      <c r="B85" s="85"/>
-      <c r="C85" s="128"/>
+      <c r="A85" s="132"/>
+      <c r="B85" s="95"/>
+      <c r="C85" s="137"/>
       <c r="D85" s="12" t="s">
         <v>120</v>
       </c>
       <c r="E85" s="62"/>
       <c r="F85" s="62"/>
       <c r="G85" s="62"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="122"/>
-      <c r="J85" s="122"/>
-      <c r="K85" s="122"/>
+      <c r="H85" s="83"/>
+      <c r="I85" s="129"/>
+      <c r="J85" s="129"/>
+      <c r="K85" s="129"/>
     </row>
     <row r="86" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A86" s="125"/>
-      <c r="B86" s="85"/>
-      <c r="C86" s="128"/>
+      <c r="A86" s="132"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="137"/>
       <c r="D86" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E86" s="74"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="74"/>
-      <c r="H86" s="64"/>
-      <c r="I86" s="122"/>
-      <c r="J86" s="122"/>
-      <c r="K86" s="122"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="83"/>
+      <c r="I86" s="129"/>
+      <c r="J86" s="129"/>
+      <c r="K86" s="129"/>
     </row>
     <row r="87" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A87" s="125"/>
-      <c r="B87" s="85"/>
-      <c r="C87" s="128"/>
+      <c r="A87" s="132"/>
+      <c r="B87" s="95"/>
+      <c r="C87" s="137"/>
       <c r="D87" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E87" s="63"/>
-      <c r="F87" s="63"/>
-      <c r="G87" s="63"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="122"/>
-      <c r="J87" s="122"/>
-      <c r="K87" s="122"/>
+      <c r="E87" s="65"/>
+      <c r="F87" s="65"/>
+      <c r="G87" s="65"/>
+      <c r="H87" s="83"/>
+      <c r="I87" s="129"/>
+      <c r="J87" s="129"/>
+      <c r="K87" s="129"/>
     </row>
     <row r="88" spans="1:11" ht="18" thickBot="1">
-      <c r="A88" s="125"/>
-      <c r="B88" s="85"/>
-      <c r="C88" s="129"/>
+      <c r="A88" s="132"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="138"/>
       <c r="D88" s="12" t="s">
         <v>123</v>
       </c>
@@ -3807,14 +3818,14 @@
       <c r="F88" s="45"/>
       <c r="G88" s="45"/>
       <c r="H88" s="8"/>
-      <c r="I88" s="122"/>
-      <c r="J88" s="122"/>
-      <c r="K88" s="122"/>
+      <c r="I88" s="129"/>
+      <c r="J88" s="129"/>
+      <c r="K88" s="129"/>
     </row>
     <row r="89" spans="1:11" ht="18" thickBot="1">
-      <c r="A89" s="125"/>
-      <c r="B89" s="85"/>
-      <c r="C89" s="130" t="s">
+      <c r="A89" s="132"/>
+      <c r="B89" s="95"/>
+      <c r="C89" s="70" t="s">
         <v>124</v>
       </c>
       <c r="D89" s="47" t="s">
@@ -3823,148 +3834,148 @@
       <c r="F89" s="45"/>
       <c r="G89" s="45"/>
       <c r="H89" s="8"/>
-      <c r="I89" s="122"/>
-      <c r="J89" s="122"/>
-      <c r="K89" s="122"/>
+      <c r="I89" s="129"/>
+      <c r="J89" s="129"/>
+      <c r="K89" s="129"/>
     </row>
     <row r="90" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A90" s="125"/>
-      <c r="B90" s="85"/>
-      <c r="C90" s="131"/>
+      <c r="A90" s="132"/>
+      <c r="B90" s="95"/>
+      <c r="C90" s="71"/>
       <c r="D90" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E90" s="74"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="64"/>
-      <c r="I90" s="122"/>
-      <c r="J90" s="122"/>
-      <c r="K90" s="122"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="83"/>
+      <c r="I90" s="129"/>
+      <c r="J90" s="129"/>
+      <c r="K90" s="129"/>
     </row>
     <row r="91" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A91" s="125"/>
-      <c r="B91" s="85"/>
-      <c r="C91" s="131"/>
+      <c r="A91" s="132"/>
+      <c r="B91" s="95"/>
+      <c r="C91" s="71"/>
       <c r="D91" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E91" s="74"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="67"/>
-      <c r="H91" s="64"/>
-      <c r="I91" s="122"/>
-      <c r="J91" s="122"/>
-      <c r="K91" s="122"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="83"/>
+      <c r="I91" s="129"/>
+      <c r="J91" s="129"/>
+      <c r="K91" s="129"/>
     </row>
     <row r="92" spans="1:11" ht="18" thickBot="1">
-      <c r="A92" s="125"/>
-      <c r="B92" s="85"/>
-      <c r="C92" s="131"/>
+      <c r="A92" s="132"/>
+      <c r="B92" s="95"/>
+      <c r="C92" s="71"/>
       <c r="D92" s="47" t="s">
         <v>128</v>
       </c>
       <c r="F92" s="47"/>
       <c r="G92" s="47"/>
       <c r="H92" s="8"/>
-      <c r="I92" s="122"/>
-      <c r="J92" s="122"/>
-      <c r="K92" s="122"/>
+      <c r="I92" s="129"/>
+      <c r="J92" s="129"/>
+      <c r="K92" s="129"/>
     </row>
     <row r="93" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A93" s="125"/>
-      <c r="B93" s="85"/>
-      <c r="C93" s="131"/>
+      <c r="A93" s="132"/>
+      <c r="B93" s="95"/>
+      <c r="C93" s="71"/>
       <c r="D93" s="12" t="s">
         <v>129</v>
       </c>
       <c r="E93" s="62"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="64"/>
-      <c r="I93" s="122"/>
-      <c r="J93" s="122"/>
-      <c r="K93" s="122"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="83"/>
+      <c r="I93" s="129"/>
+      <c r="J93" s="129"/>
+      <c r="K93" s="129"/>
     </row>
     <row r="94" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A94" s="125"/>
-      <c r="B94" s="85"/>
-      <c r="C94" s="131"/>
+      <c r="A94" s="132"/>
+      <c r="B94" s="95"/>
+      <c r="C94" s="71"/>
       <c r="D94" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E94" s="74"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="64"/>
-      <c r="I94" s="122"/>
-      <c r="J94" s="122"/>
-      <c r="K94" s="122"/>
+      <c r="E94" s="63"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="83"/>
+      <c r="I94" s="129"/>
+      <c r="J94" s="129"/>
+      <c r="K94" s="129"/>
     </row>
     <row r="95" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A95" s="125"/>
-      <c r="B95" s="85"/>
-      <c r="C95" s="131"/>
+      <c r="A95" s="132"/>
+      <c r="B95" s="95"/>
+      <c r="C95" s="71"/>
       <c r="D95" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E95" s="63"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="67"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="122"/>
-      <c r="J95" s="122"/>
-      <c r="K95" s="122"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="85"/>
+      <c r="G95" s="85"/>
+      <c r="H95" s="83"/>
+      <c r="I95" s="129"/>
+      <c r="J95" s="129"/>
+      <c r="K95" s="129"/>
     </row>
     <row r="96" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A96" s="125"/>
-      <c r="B96" s="85"/>
-      <c r="C96" s="131"/>
+      <c r="A96" s="132"/>
+      <c r="B96" s="95"/>
+      <c r="C96" s="71"/>
       <c r="D96" s="12" t="s">
         <v>132</v>
       </c>
       <c r="E96" s="62"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="64"/>
-      <c r="I96" s="122"/>
-      <c r="J96" s="122"/>
-      <c r="K96" s="122"/>
+      <c r="F96" s="85"/>
+      <c r="G96" s="85"/>
+      <c r="H96" s="83"/>
+      <c r="I96" s="129"/>
+      <c r="J96" s="129"/>
+      <c r="K96" s="129"/>
     </row>
     <row r="97" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A97" s="125"/>
-      <c r="B97" s="85"/>
-      <c r="C97" s="131"/>
+      <c r="A97" s="132"/>
+      <c r="B97" s="95"/>
+      <c r="C97" s="71"/>
       <c r="D97" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E97" s="74"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="67"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="122"/>
-      <c r="J97" s="122"/>
-      <c r="K97" s="122"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="85"/>
+      <c r="G97" s="85"/>
+      <c r="H97" s="83"/>
+      <c r="I97" s="129"/>
+      <c r="J97" s="129"/>
+      <c r="K97" s="129"/>
     </row>
     <row r="98" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A98" s="125"/>
-      <c r="B98" s="85"/>
-      <c r="C98" s="131"/>
+      <c r="A98" s="132"/>
+      <c r="B98" s="95"/>
+      <c r="C98" s="71"/>
       <c r="D98" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E98" s="63"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="64"/>
-      <c r="I98" s="122"/>
-      <c r="J98" s="122"/>
-      <c r="K98" s="122"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="85"/>
+      <c r="G98" s="85"/>
+      <c r="H98" s="83"/>
+      <c r="I98" s="129"/>
+      <c r="J98" s="129"/>
+      <c r="K98" s="129"/>
     </row>
     <row r="99" spans="1:11" ht="18" thickBot="1">
-      <c r="A99" s="125"/>
-      <c r="B99" s="85"/>
-      <c r="C99" s="132"/>
+      <c r="A99" s="132"/>
+      <c r="B99" s="95"/>
+      <c r="C99" s="72"/>
       <c r="D99" s="12" t="s">
         <v>135</v>
       </c>
@@ -3972,14 +3983,14 @@
       <c r="F99" s="45"/>
       <c r="G99" s="45"/>
       <c r="H99" s="8"/>
-      <c r="I99" s="122"/>
-      <c r="J99" s="122"/>
-      <c r="K99" s="122"/>
+      <c r="I99" s="129"/>
+      <c r="J99" s="129"/>
+      <c r="K99" s="129"/>
     </row>
     <row r="100" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A100" s="125"/>
-      <c r="B100" s="85"/>
-      <c r="C100" s="119" t="s">
+      <c r="A100" s="132"/>
+      <c r="B100" s="95"/>
+      <c r="C100" s="149" t="s">
         <v>136</v>
       </c>
       <c r="D100" s="11" t="s">
@@ -3988,164 +3999,164 @@
       <c r="E100" s="62"/>
       <c r="F100" s="62"/>
       <c r="G100" s="62"/>
-      <c r="H100" s="64"/>
-      <c r="I100" s="122"/>
-      <c r="J100" s="122"/>
-      <c r="K100" s="122"/>
+      <c r="H100" s="83"/>
+      <c r="I100" s="129"/>
+      <c r="J100" s="129"/>
+      <c r="K100" s="129"/>
     </row>
     <row r="101" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A101" s="125"/>
-      <c r="B101" s="85"/>
-      <c r="C101" s="120"/>
+      <c r="A101" s="132"/>
+      <c r="B101" s="95"/>
+      <c r="C101" s="150"/>
       <c r="D101" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="74"/>
-      <c r="H101" s="64"/>
-      <c r="I101" s="122"/>
-      <c r="J101" s="122"/>
-      <c r="K101" s="122"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="83"/>
+      <c r="I101" s="129"/>
+      <c r="J101" s="129"/>
+      <c r="K101" s="129"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A102" s="125"/>
-      <c r="B102" s="85"/>
-      <c r="C102" s="120"/>
+      <c r="A102" s="132"/>
+      <c r="B102" s="95"/>
+      <c r="C102" s="150"/>
       <c r="D102" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E102" s="63"/>
-      <c r="F102" s="63"/>
-      <c r="G102" s="63"/>
-      <c r="H102" s="64"/>
-      <c r="I102" s="123"/>
-      <c r="J102" s="123"/>
-      <c r="K102" s="123"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="65"/>
+      <c r="H102" s="83"/>
+      <c r="I102" s="130"/>
+      <c r="J102" s="130"/>
+      <c r="K102" s="130"/>
     </row>
     <row r="103" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A103" s="125"/>
-      <c r="B103" s="107" t="s">
+      <c r="A103" s="132"/>
+      <c r="B103" s="142" t="s">
         <v>140</v>
       </c>
-      <c r="C103" s="108"/>
+      <c r="C103" s="143"/>
       <c r="D103" s="58" t="s">
         <v>141</v>
       </c>
       <c r="E103" s="62"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="67"/>
-      <c r="H103" s="64"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="83"/>
       <c r="I103" s="62"/>
       <c r="J103" s="62"/>
       <c r="K103" s="62"/>
     </row>
     <row r="104" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A104" s="125"/>
-      <c r="B104" s="109"/>
-      <c r="C104" s="110"/>
+      <c r="A104" s="132"/>
+      <c r="B104" s="144"/>
+      <c r="C104" s="145"/>
       <c r="D104" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E104" s="63"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="64"/>
-      <c r="I104" s="74"/>
-      <c r="J104" s="74"/>
-      <c r="K104" s="74"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="85"/>
+      <c r="H104" s="83"/>
+      <c r="I104" s="63"/>
+      <c r="J104" s="63"/>
+      <c r="K104" s="63"/>
     </row>
     <row r="105" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A105" s="125"/>
-      <c r="B105" s="109"/>
-      <c r="C105" s="110"/>
+      <c r="A105" s="132"/>
+      <c r="B105" s="144"/>
+      <c r="C105" s="145"/>
       <c r="D105" s="12" t="s">
         <v>143</v>
       </c>
       <c r="E105" s="62"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="74"/>
-      <c r="K105" s="74"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="85"/>
+      <c r="H105" s="83"/>
+      <c r="I105" s="63"/>
+      <c r="J105" s="63"/>
+      <c r="K105" s="63"/>
     </row>
     <row r="106" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A106" s="125"/>
-      <c r="B106" s="111"/>
-      <c r="C106" s="112"/>
+      <c r="A106" s="132"/>
+      <c r="B106" s="146"/>
+      <c r="C106" s="147"/>
       <c r="D106" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E106" s="63"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="67"/>
-      <c r="H106" s="64"/>
-      <c r="I106" s="74"/>
-      <c r="J106" s="74"/>
-      <c r="K106" s="74"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="85"/>
+      <c r="G106" s="85"/>
+      <c r="H106" s="83"/>
+      <c r="I106" s="63"/>
+      <c r="J106" s="63"/>
+      <c r="K106" s="63"/>
     </row>
     <row r="107" spans="1:11" ht="16.95" customHeight="1">
-      <c r="A107" s="125"/>
-      <c r="B107" s="113" t="s">
+      <c r="A107" s="132"/>
+      <c r="B107" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="C107" s="114"/>
+      <c r="C107" s="99"/>
       <c r="D107" s="47" t="s">
         <v>146</v>
       </c>
       <c r="E107" s="62"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="67"/>
-      <c r="H107" s="75"/>
-      <c r="I107" s="74"/>
-      <c r="J107" s="74"/>
-      <c r="K107" s="74"/>
+      <c r="F107" s="85"/>
+      <c r="G107" s="85"/>
+      <c r="H107" s="125"/>
+      <c r="I107" s="63"/>
+      <c r="J107" s="63"/>
+      <c r="K107" s="63"/>
     </row>
     <row r="108" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A108" s="125"/>
-      <c r="B108" s="115"/>
-      <c r="C108" s="116"/>
+      <c r="A108" s="132"/>
+      <c r="B108" s="91"/>
+      <c r="C108" s="100"/>
       <c r="D108" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E108" s="63"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="67"/>
-      <c r="H108" s="77"/>
-      <c r="I108" s="74"/>
-      <c r="J108" s="74"/>
-      <c r="K108" s="74"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="126"/>
+      <c r="I108" s="63"/>
+      <c r="J108" s="63"/>
+      <c r="K108" s="63"/>
     </row>
     <row r="109" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A109" s="125"/>
-      <c r="B109" s="115"/>
-      <c r="C109" s="116"/>
+      <c r="A109" s="132"/>
+      <c r="B109" s="91"/>
+      <c r="C109" s="100"/>
       <c r="D109" s="12" t="s">
         <v>148</v>
       </c>
       <c r="E109" s="62"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="67"/>
-      <c r="H109" s="64"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="74"/>
-      <c r="K109" s="74"/>
+      <c r="F109" s="85"/>
+      <c r="G109" s="85"/>
+      <c r="H109" s="83"/>
+      <c r="I109" s="63"/>
+      <c r="J109" s="63"/>
+      <c r="K109" s="63"/>
     </row>
     <row r="110" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A110" s="126"/>
-      <c r="B110" s="117"/>
-      <c r="C110" s="118"/>
+      <c r="A110" s="133"/>
+      <c r="B110" s="114"/>
+      <c r="C110" s="148"/>
       <c r="D110" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E110" s="63"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="64"/>
-      <c r="I110" s="63"/>
-      <c r="J110" s="63"/>
-      <c r="K110" s="63"/>
+      <c r="E110" s="65"/>
+      <c r="F110" s="85"/>
+      <c r="G110" s="85"/>
+      <c r="H110" s="83"/>
+      <c r="I110" s="65"/>
+      <c r="J110" s="65"/>
+      <c r="K110" s="65"/>
     </row>
     <row r="111" spans="1:11" ht="22.8" thickBot="1">
       <c r="A111" s="27"/>
@@ -4158,10 +4169,10 @@
       <c r="H111" s="51"/>
     </row>
     <row r="112" spans="1:11" ht="52.8" thickBot="1">
-      <c r="A112" s="105" t="s">
+      <c r="A112" s="139" t="s">
         <v>150</v>
       </c>
-      <c r="B112" s="106" t="s">
+      <c r="B112" s="140" t="s">
         <v>151</v>
       </c>
       <c r="C112" s="30" t="s">
@@ -4170,447 +4181,447 @@
       <c r="D112" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="74"/>
-      <c r="H112" s="76"/>
-      <c r="I112" s="81"/>
-      <c r="J112" s="81"/>
-      <c r="K112" s="81"/>
+      <c r="E112" s="63"/>
+      <c r="F112" s="63"/>
+      <c r="G112" s="63"/>
+      <c r="H112" s="127"/>
+      <c r="I112" s="151"/>
+      <c r="J112" s="151"/>
+      <c r="K112" s="151"/>
     </row>
     <row r="113" spans="1:11" ht="52.8" thickBot="1">
-      <c r="A113" s="105"/>
-      <c r="B113" s="103"/>
+      <c r="A113" s="139"/>
+      <c r="B113" s="141"/>
       <c r="C113" s="30" t="s">
         <v>154</v>
       </c>
       <c r="D113" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="74"/>
-      <c r="H113" s="76"/>
-      <c r="I113" s="82"/>
-      <c r="J113" s="82"/>
-      <c r="K113" s="82"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="127"/>
+      <c r="I113" s="152"/>
+      <c r="J113" s="152"/>
+      <c r="K113" s="152"/>
     </row>
     <row r="114" spans="1:11" ht="52.8" thickBot="1">
-      <c r="A114" s="105"/>
-      <c r="B114" s="103"/>
+      <c r="A114" s="139"/>
+      <c r="B114" s="141"/>
       <c r="C114" s="30" t="s">
         <v>156</v>
       </c>
       <c r="D114" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="E114" s="74"/>
-      <c r="F114" s="74"/>
-      <c r="G114" s="74"/>
-      <c r="H114" s="76"/>
-      <c r="I114" s="82"/>
-      <c r="J114" s="82"/>
-      <c r="K114" s="82"/>
+      <c r="E114" s="63"/>
+      <c r="F114" s="63"/>
+      <c r="G114" s="63"/>
+      <c r="H114" s="127"/>
+      <c r="I114" s="152"/>
+      <c r="J114" s="152"/>
+      <c r="K114" s="152"/>
     </row>
     <row r="115" spans="1:11" ht="52.8" thickBot="1">
-      <c r="A115" s="105"/>
-      <c r="B115" s="103"/>
+      <c r="A115" s="139"/>
+      <c r="B115" s="141"/>
       <c r="C115" s="30" t="s">
         <v>158</v>
       </c>
       <c r="D115" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="E115" s="63"/>
-      <c r="F115" s="63"/>
-      <c r="G115" s="63"/>
-      <c r="H115" s="77"/>
-      <c r="I115" s="82"/>
-      <c r="J115" s="82"/>
-      <c r="K115" s="82"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="126"/>
+      <c r="I115" s="152"/>
+      <c r="J115" s="152"/>
+      <c r="K115" s="152"/>
     </row>
     <row r="116" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A116" s="105"/>
-      <c r="B116" s="103" t="s">
+      <c r="A116" s="139"/>
+      <c r="B116" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="C116" s="104"/>
+      <c r="C116" s="82"/>
       <c r="D116" s="53" t="s">
         <v>161</v>
       </c>
       <c r="E116" s="62"/>
       <c r="F116" s="62"/>
       <c r="G116" s="62"/>
-      <c r="H116" s="75"/>
-      <c r="I116" s="81"/>
-      <c r="J116" s="81"/>
-      <c r="K116" s="81"/>
+      <c r="H116" s="125"/>
+      <c r="I116" s="151"/>
+      <c r="J116" s="151"/>
+      <c r="K116" s="151"/>
     </row>
     <row r="117" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A117" s="105"/>
-      <c r="B117" s="103"/>
-      <c r="C117" s="104"/>
+      <c r="A117" s="139"/>
+      <c r="B117" s="141"/>
+      <c r="C117" s="82"/>
       <c r="D117" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="E117" s="74"/>
-      <c r="F117" s="74"/>
-      <c r="G117" s="74"/>
-      <c r="H117" s="76"/>
-      <c r="I117" s="82"/>
-      <c r="J117" s="82"/>
-      <c r="K117" s="82"/>
+      <c r="E117" s="63"/>
+      <c r="F117" s="63"/>
+      <c r="G117" s="63"/>
+      <c r="H117" s="127"/>
+      <c r="I117" s="152"/>
+      <c r="J117" s="152"/>
+      <c r="K117" s="152"/>
     </row>
     <row r="118" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A118" s="105"/>
-      <c r="B118" s="103"/>
-      <c r="C118" s="104"/>
+      <c r="A118" s="139"/>
+      <c r="B118" s="141"/>
+      <c r="C118" s="82"/>
       <c r="D118" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="E118" s="63"/>
-      <c r="F118" s="63"/>
-      <c r="G118" s="63"/>
-      <c r="H118" s="77"/>
-      <c r="I118" s="82"/>
-      <c r="J118" s="82"/>
-      <c r="K118" s="82"/>
+      <c r="E118" s="65"/>
+      <c r="F118" s="65"/>
+      <c r="G118" s="65"/>
+      <c r="H118" s="126"/>
+      <c r="I118" s="152"/>
+      <c r="J118" s="152"/>
+      <c r="K118" s="152"/>
     </row>
     <row r="119" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A119" s="105"/>
-      <c r="B119" s="103"/>
-      <c r="C119" s="104"/>
+      <c r="A119" s="139"/>
+      <c r="B119" s="141"/>
+      <c r="C119" s="82"/>
       <c r="D119" s="59" t="s">
         <v>164</v>
       </c>
       <c r="E119" s="62"/>
       <c r="F119" s="62"/>
       <c r="G119" s="62"/>
-      <c r="H119" s="75"/>
-      <c r="I119" s="82"/>
-      <c r="J119" s="82"/>
-      <c r="K119" s="82"/>
+      <c r="H119" s="125"/>
+      <c r="I119" s="152"/>
+      <c r="J119" s="152"/>
+      <c r="K119" s="152"/>
     </row>
     <row r="120" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A120" s="105"/>
-      <c r="B120" s="103"/>
-      <c r="C120" s="104"/>
+      <c r="A120" s="139"/>
+      <c r="B120" s="141"/>
+      <c r="C120" s="82"/>
       <c r="D120" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="E120" s="63"/>
-      <c r="F120" s="63"/>
-      <c r="G120" s="63"/>
-      <c r="H120" s="77"/>
-      <c r="I120" s="82"/>
-      <c r="J120" s="82"/>
-      <c r="K120" s="82"/>
+      <c r="E120" s="65"/>
+      <c r="F120" s="65"/>
+      <c r="G120" s="65"/>
+      <c r="H120" s="126"/>
+      <c r="I120" s="152"/>
+      <c r="J120" s="152"/>
+      <c r="K120" s="152"/>
     </row>
     <row r="121" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A121" s="105"/>
-      <c r="B121" s="103" t="s">
+      <c r="A121" s="139"/>
+      <c r="B121" s="141" t="s">
         <v>166</v>
       </c>
-      <c r="C121" s="104"/>
+      <c r="C121" s="82"/>
       <c r="D121" s="47" t="s">
         <v>167</v>
       </c>
       <c r="E121" s="62"/>
       <c r="F121" s="62"/>
       <c r="G121" s="62"/>
-      <c r="H121" s="75"/>
-      <c r="I121" s="82"/>
-      <c r="J121" s="82"/>
-      <c r="K121" s="82"/>
+      <c r="H121" s="125"/>
+      <c r="I121" s="152"/>
+      <c r="J121" s="152"/>
+      <c r="K121" s="152"/>
     </row>
     <row r="122" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A122" s="105"/>
-      <c r="B122" s="103"/>
-      <c r="C122" s="104"/>
+      <c r="A122" s="139"/>
+      <c r="B122" s="141"/>
+      <c r="C122" s="82"/>
       <c r="D122" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E122" s="74"/>
-      <c r="F122" s="74"/>
-      <c r="G122" s="74"/>
-      <c r="H122" s="76"/>
-      <c r="I122" s="82"/>
-      <c r="J122" s="82"/>
-      <c r="K122" s="82"/>
+      <c r="E122" s="63"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="127"/>
+      <c r="I122" s="152"/>
+      <c r="J122" s="152"/>
+      <c r="K122" s="152"/>
     </row>
     <row r="123" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A123" s="105"/>
-      <c r="B123" s="103"/>
-      <c r="C123" s="104"/>
+      <c r="A123" s="139"/>
+      <c r="B123" s="141"/>
+      <c r="C123" s="82"/>
       <c r="D123" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="E123" s="74"/>
-      <c r="F123" s="74"/>
-      <c r="G123" s="74"/>
-      <c r="H123" s="76"/>
-      <c r="I123" s="82"/>
-      <c r="J123" s="82"/>
-      <c r="K123" s="82"/>
+      <c r="E123" s="63"/>
+      <c r="F123" s="63"/>
+      <c r="G123" s="63"/>
+      <c r="H123" s="127"/>
+      <c r="I123" s="152"/>
+      <c r="J123" s="152"/>
+      <c r="K123" s="152"/>
     </row>
     <row r="124" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A124" s="105"/>
-      <c r="B124" s="103"/>
-      <c r="C124" s="104"/>
+      <c r="A124" s="139"/>
+      <c r="B124" s="141"/>
+      <c r="C124" s="82"/>
       <c r="D124" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="E124" s="63"/>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="77"/>
-      <c r="I124" s="82"/>
-      <c r="J124" s="82"/>
-      <c r="K124" s="82"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="126"/>
+      <c r="I124" s="152"/>
+      <c r="J124" s="152"/>
+      <c r="K124" s="152"/>
     </row>
     <row r="125" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A125" s="105"/>
-      <c r="B125" s="103"/>
-      <c r="C125" s="104"/>
+      <c r="A125" s="139"/>
+      <c r="B125" s="141"/>
+      <c r="C125" s="82"/>
       <c r="D125" s="47" t="s">
         <v>171</v>
       </c>
       <c r="E125" s="62"/>
-      <c r="F125" s="65"/>
+      <c r="F125" s="69"/>
       <c r="G125" s="62"/>
-      <c r="H125" s="75"/>
-      <c r="I125" s="82"/>
-      <c r="J125" s="82"/>
-      <c r="K125" s="82"/>
+      <c r="H125" s="125"/>
+      <c r="I125" s="152"/>
+      <c r="J125" s="152"/>
+      <c r="K125" s="152"/>
     </row>
     <row r="126" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A126" s="105"/>
-      <c r="B126" s="103"/>
-      <c r="C126" s="104"/>
+      <c r="A126" s="139"/>
+      <c r="B126" s="141"/>
+      <c r="C126" s="82"/>
       <c r="D126" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="E126" s="74"/>
-      <c r="F126" s="65"/>
-      <c r="G126" s="74"/>
-      <c r="H126" s="76"/>
-      <c r="I126" s="82"/>
-      <c r="J126" s="82"/>
-      <c r="K126" s="82"/>
+      <c r="E126" s="63"/>
+      <c r="F126" s="69"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="127"/>
+      <c r="I126" s="152"/>
+      <c r="J126" s="152"/>
+      <c r="K126" s="152"/>
     </row>
     <row r="127" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A127" s="105"/>
-      <c r="B127" s="103"/>
-      <c r="C127" s="104"/>
+      <c r="A127" s="139"/>
+      <c r="B127" s="141"/>
+      <c r="C127" s="82"/>
       <c r="D127" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="E127" s="63"/>
-      <c r="F127" s="65"/>
-      <c r="G127" s="63"/>
-      <c r="H127" s="77"/>
-      <c r="I127" s="82"/>
-      <c r="J127" s="82"/>
-      <c r="K127" s="82"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="69"/>
+      <c r="G127" s="65"/>
+      <c r="H127" s="126"/>
+      <c r="I127" s="152"/>
+      <c r="J127" s="152"/>
+      <c r="K127" s="152"/>
     </row>
     <row r="128" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A128" s="105"/>
-      <c r="B128" s="103" t="s">
+      <c r="A128" s="139"/>
+      <c r="B128" s="141" t="s">
         <v>174</v>
       </c>
-      <c r="C128" s="104"/>
+      <c r="C128" s="82"/>
       <c r="D128" s="34" t="s">
         <v>175</v>
       </c>
       <c r="E128" s="62"/>
       <c r="F128" s="62"/>
       <c r="G128" s="62"/>
-      <c r="H128" s="75"/>
-      <c r="I128" s="81"/>
-      <c r="J128" s="81"/>
-      <c r="K128" s="81"/>
+      <c r="H128" s="125"/>
+      <c r="I128" s="151"/>
+      <c r="J128" s="151"/>
+      <c r="K128" s="151"/>
     </row>
     <row r="129" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A129" s="105"/>
-      <c r="B129" s="103"/>
-      <c r="C129" s="104"/>
+      <c r="A129" s="139"/>
+      <c r="B129" s="141"/>
+      <c r="C129" s="82"/>
       <c r="D129" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="E129" s="74"/>
-      <c r="F129" s="74"/>
-      <c r="G129" s="74"/>
-      <c r="H129" s="76"/>
-      <c r="I129" s="82"/>
-      <c r="J129" s="82"/>
-      <c r="K129" s="82"/>
+      <c r="E129" s="63"/>
+      <c r="F129" s="63"/>
+      <c r="G129" s="63"/>
+      <c r="H129" s="127"/>
+      <c r="I129" s="152"/>
+      <c r="J129" s="152"/>
+      <c r="K129" s="152"/>
     </row>
     <row r="130" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A130" s="105"/>
-      <c r="B130" s="103"/>
-      <c r="C130" s="104"/>
+      <c r="A130" s="139"/>
+      <c r="B130" s="141"/>
+      <c r="C130" s="82"/>
       <c r="D130" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="E130" s="74"/>
-      <c r="F130" s="74"/>
-      <c r="G130" s="74"/>
-      <c r="H130" s="76"/>
-      <c r="I130" s="82"/>
-      <c r="J130" s="82"/>
-      <c r="K130" s="82"/>
+      <c r="E130" s="63"/>
+      <c r="F130" s="63"/>
+      <c r="G130" s="63"/>
+      <c r="H130" s="127"/>
+      <c r="I130" s="152"/>
+      <c r="J130" s="152"/>
+      <c r="K130" s="152"/>
     </row>
     <row r="131" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A131" s="105"/>
-      <c r="B131" s="103"/>
-      <c r="C131" s="104"/>
+      <c r="A131" s="139"/>
+      <c r="B131" s="141"/>
+      <c r="C131" s="82"/>
       <c r="D131" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="E131" s="63"/>
-      <c r="F131" s="63"/>
-      <c r="G131" s="63"/>
-      <c r="H131" s="77"/>
-      <c r="I131" s="82"/>
-      <c r="J131" s="82"/>
-      <c r="K131" s="82"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="126"/>
+      <c r="I131" s="152"/>
+      <c r="J131" s="152"/>
+      <c r="K131" s="152"/>
     </row>
     <row r="132" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A132" s="105"/>
-      <c r="B132" s="103"/>
-      <c r="C132" s="104"/>
+      <c r="A132" s="139"/>
+      <c r="B132" s="141"/>
+      <c r="C132" s="82"/>
       <c r="D132" s="32" t="s">
         <v>179</v>
       </c>
       <c r="E132" s="62"/>
       <c r="F132" s="62"/>
       <c r="G132" s="62"/>
-      <c r="H132" s="75"/>
-      <c r="I132" s="82"/>
-      <c r="J132" s="82"/>
-      <c r="K132" s="82"/>
+      <c r="H132" s="125"/>
+      <c r="I132" s="152"/>
+      <c r="J132" s="152"/>
+      <c r="K132" s="152"/>
     </row>
     <row r="133" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A133" s="105"/>
-      <c r="B133" s="103"/>
-      <c r="C133" s="104"/>
+      <c r="A133" s="139"/>
+      <c r="B133" s="141"/>
+      <c r="C133" s="82"/>
       <c r="D133" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="E133" s="63"/>
-      <c r="F133" s="63"/>
-      <c r="G133" s="63"/>
-      <c r="H133" s="77"/>
-      <c r="I133" s="82"/>
-      <c r="J133" s="82"/>
-      <c r="K133" s="82"/>
+      <c r="E133" s="65"/>
+      <c r="F133" s="65"/>
+      <c r="G133" s="65"/>
+      <c r="H133" s="126"/>
+      <c r="I133" s="152"/>
+      <c r="J133" s="152"/>
+      <c r="K133" s="152"/>
     </row>
     <row r="134" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A134" s="105"/>
-      <c r="B134" s="103" t="s">
+      <c r="A134" s="139"/>
+      <c r="B134" s="141" t="s">
         <v>181</v>
       </c>
-      <c r="C134" s="103"/>
+      <c r="C134" s="141"/>
       <c r="D134" s="37" t="s">
         <v>182</v>
       </c>
       <c r="E134" s="62"/>
       <c r="F134" s="62"/>
       <c r="G134" s="62"/>
-      <c r="H134" s="75"/>
-      <c r="I134" s="82"/>
-      <c r="J134" s="82"/>
-      <c r="K134" s="82"/>
+      <c r="H134" s="125"/>
+      <c r="I134" s="152"/>
+      <c r="J134" s="152"/>
+      <c r="K134" s="152"/>
     </row>
     <row r="135" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A135" s="105"/>
-      <c r="B135" s="103"/>
-      <c r="C135" s="103"/>
+      <c r="A135" s="139"/>
+      <c r="B135" s="141"/>
+      <c r="C135" s="141"/>
       <c r="D135" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="E135" s="74"/>
-      <c r="F135" s="74"/>
-      <c r="G135" s="74"/>
-      <c r="H135" s="76"/>
-      <c r="I135" s="82"/>
-      <c r="J135" s="82"/>
-      <c r="K135" s="82"/>
+      <c r="E135" s="63"/>
+      <c r="F135" s="63"/>
+      <c r="G135" s="63"/>
+      <c r="H135" s="127"/>
+      <c r="I135" s="152"/>
+      <c r="J135" s="152"/>
+      <c r="K135" s="152"/>
     </row>
     <row r="136" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A136" s="105"/>
-      <c r="B136" s="103"/>
-      <c r="C136" s="103"/>
+      <c r="A136" s="139"/>
+      <c r="B136" s="141"/>
+      <c r="C136" s="141"/>
       <c r="D136" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="E136" s="63"/>
-      <c r="F136" s="63"/>
-      <c r="G136" s="63"/>
-      <c r="H136" s="77"/>
-      <c r="I136" s="82"/>
-      <c r="J136" s="82"/>
-      <c r="K136" s="82"/>
+      <c r="E136" s="65"/>
+      <c r="F136" s="65"/>
+      <c r="G136" s="65"/>
+      <c r="H136" s="126"/>
+      <c r="I136" s="152"/>
+      <c r="J136" s="152"/>
+      <c r="K136" s="152"/>
     </row>
     <row r="137" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A137" s="105"/>
-      <c r="B137" s="103"/>
-      <c r="C137" s="103"/>
+      <c r="A137" s="139"/>
+      <c r="B137" s="141"/>
+      <c r="C137" s="141"/>
       <c r="D137" s="53" t="s">
         <v>185</v>
       </c>
       <c r="E137" s="62"/>
       <c r="F137" s="62"/>
       <c r="G137" s="62"/>
-      <c r="H137" s="75"/>
-      <c r="I137" s="82"/>
-      <c r="J137" s="82"/>
-      <c r="K137" s="82"/>
+      <c r="H137" s="125"/>
+      <c r="I137" s="152"/>
+      <c r="J137" s="152"/>
+      <c r="K137" s="152"/>
     </row>
     <row r="138" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A138" s="105"/>
-      <c r="B138" s="103"/>
-      <c r="C138" s="103"/>
+      <c r="A138" s="139"/>
+      <c r="B138" s="141"/>
+      <c r="C138" s="141"/>
       <c r="D138" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="E138" s="74"/>
-      <c r="F138" s="74"/>
-      <c r="G138" s="74"/>
-      <c r="H138" s="76"/>
-      <c r="I138" s="82"/>
-      <c r="J138" s="82"/>
-      <c r="K138" s="82"/>
+      <c r="E138" s="63"/>
+      <c r="F138" s="63"/>
+      <c r="G138" s="63"/>
+      <c r="H138" s="127"/>
+      <c r="I138" s="152"/>
+      <c r="J138" s="152"/>
+      <c r="K138" s="152"/>
     </row>
     <row r="139" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A139" s="105"/>
-      <c r="B139" s="103"/>
-      <c r="C139" s="103"/>
+      <c r="A139" s="139"/>
+      <c r="B139" s="141"/>
+      <c r="C139" s="141"/>
       <c r="D139" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="E139" s="74"/>
-      <c r="F139" s="74"/>
-      <c r="G139" s="74"/>
-      <c r="H139" s="76"/>
-      <c r="I139" s="82"/>
-      <c r="J139" s="82"/>
-      <c r="K139" s="82"/>
+      <c r="E139" s="63"/>
+      <c r="F139" s="63"/>
+      <c r="G139" s="63"/>
+      <c r="H139" s="127"/>
+      <c r="I139" s="152"/>
+      <c r="J139" s="152"/>
+      <c r="K139" s="152"/>
     </row>
     <row r="140" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A140" s="105"/>
-      <c r="B140" s="103"/>
-      <c r="C140" s="103"/>
+      <c r="A140" s="139"/>
+      <c r="B140" s="141"/>
+      <c r="C140" s="141"/>
       <c r="D140" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="E140" s="63"/>
-      <c r="F140" s="63"/>
-      <c r="G140" s="63"/>
-      <c r="H140" s="77"/>
-      <c r="I140" s="83"/>
-      <c r="J140" s="83"/>
-      <c r="K140" s="83"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="126"/>
+      <c r="I140" s="153"/>
+      <c r="J140" s="153"/>
+      <c r="K140" s="153"/>
     </row>
     <row r="141" spans="1:11" thickBot="1">
       <c r="D141" s="5"/>
@@ -4620,107 +4631,107 @@
       <c r="H141" s="52"/>
     </row>
     <row r="142" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A142" s="90" t="s">
+      <c r="A142" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B142" s="97" t="s">
+      <c r="B142" s="155" t="s">
         <v>190</v>
       </c>
-      <c r="C142" s="98"/>
+      <c r="C142" s="156"/>
       <c r="D142" s="61" t="s">
         <v>191</v>
       </c>
       <c r="E142" s="62"/>
-      <c r="F142" s="67"/>
-      <c r="G142" s="67"/>
-      <c r="H142" s="75"/>
-      <c r="I142" s="81"/>
-      <c r="J142" s="81"/>
-      <c r="K142" s="81"/>
+      <c r="F142" s="85"/>
+      <c r="G142" s="85"/>
+      <c r="H142" s="125"/>
+      <c r="I142" s="151"/>
+      <c r="J142" s="151"/>
+      <c r="K142" s="151"/>
     </row>
     <row r="143" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A143" s="91"/>
-      <c r="B143" s="99"/>
-      <c r="C143" s="88"/>
+      <c r="A143" s="77"/>
+      <c r="B143" s="157"/>
+      <c r="C143" s="158"/>
       <c r="D143" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="E143" s="74"/>
-      <c r="F143" s="67"/>
-      <c r="G143" s="67"/>
-      <c r="H143" s="76"/>
-      <c r="I143" s="82"/>
-      <c r="J143" s="82"/>
-      <c r="K143" s="82"/>
+      <c r="E143" s="63"/>
+      <c r="F143" s="85"/>
+      <c r="G143" s="85"/>
+      <c r="H143" s="127"/>
+      <c r="I143" s="152"/>
+      <c r="J143" s="152"/>
+      <c r="K143" s="152"/>
     </row>
     <row r="144" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A144" s="91"/>
-      <c r="B144" s="99"/>
-      <c r="C144" s="88"/>
+      <c r="A144" s="77"/>
+      <c r="B144" s="157"/>
+      <c r="C144" s="158"/>
       <c r="D144" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="E144" s="63"/>
-      <c r="F144" s="67"/>
-      <c r="G144" s="67"/>
-      <c r="H144" s="77"/>
-      <c r="I144" s="82"/>
-      <c r="J144" s="82"/>
-      <c r="K144" s="82"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="85"/>
+      <c r="G144" s="85"/>
+      <c r="H144" s="126"/>
+      <c r="I144" s="152"/>
+      <c r="J144" s="152"/>
+      <c r="K144" s="152"/>
     </row>
     <row r="145" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A145" s="91"/>
-      <c r="B145" s="99"/>
-      <c r="C145" s="88"/>
+      <c r="A145" s="77"/>
+      <c r="B145" s="157"/>
+      <c r="C145" s="158"/>
       <c r="D145" s="11" t="s">
         <v>194</v>
       </c>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="62"/>
-      <c r="H145" s="75"/>
-      <c r="I145" s="82"/>
-      <c r="J145" s="82"/>
-      <c r="K145" s="82"/>
+      <c r="H145" s="125"/>
+      <c r="I145" s="152"/>
+      <c r="J145" s="152"/>
+      <c r="K145" s="152"/>
     </row>
     <row r="146" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A146" s="91"/>
-      <c r="B146" s="100" t="s">
+      <c r="A146" s="77"/>
+      <c r="B146" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="C146" s="87" t="s">
+      <c r="C146" s="160" t="s">
         <v>196</v>
       </c>
       <c r="D146" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="E146" s="74"/>
-      <c r="F146" s="74"/>
-      <c r="G146" s="74"/>
-      <c r="H146" s="76"/>
-      <c r="I146" s="82"/>
-      <c r="J146" s="82"/>
-      <c r="K146" s="82"/>
+      <c r="E146" s="63"/>
+      <c r="F146" s="63"/>
+      <c r="G146" s="63"/>
+      <c r="H146" s="127"/>
+      <c r="I146" s="152"/>
+      <c r="J146" s="152"/>
+      <c r="K146" s="152"/>
     </row>
     <row r="147" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A147" s="91"/>
-      <c r="B147" s="100"/>
-      <c r="C147" s="87"/>
+      <c r="A147" s="77"/>
+      <c r="B147" s="107"/>
+      <c r="C147" s="160"/>
       <c r="D147" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E147" s="63"/>
-      <c r="F147" s="63"/>
-      <c r="G147" s="63"/>
-      <c r="H147" s="77"/>
-      <c r="I147" s="82"/>
-      <c r="J147" s="82"/>
-      <c r="K147" s="82"/>
+      <c r="E147" s="65"/>
+      <c r="F147" s="65"/>
+      <c r="G147" s="65"/>
+      <c r="H147" s="126"/>
+      <c r="I147" s="152"/>
+      <c r="J147" s="152"/>
+      <c r="K147" s="152"/>
     </row>
     <row r="148" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A148" s="91"/>
-      <c r="B148" s="100"/>
-      <c r="C148" s="87" t="s">
+      <c r="A148" s="77"/>
+      <c r="B148" s="107"/>
+      <c r="C148" s="160" t="s">
         <v>199</v>
       </c>
       <c r="D148" s="12" t="s">
@@ -4729,246 +4740,246 @@
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="62"/>
-      <c r="H148" s="75"/>
-      <c r="I148" s="82"/>
-      <c r="J148" s="82"/>
-      <c r="K148" s="82"/>
+      <c r="H148" s="125"/>
+      <c r="I148" s="152"/>
+      <c r="J148" s="152"/>
+      <c r="K148" s="152"/>
     </row>
     <row r="149" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A149" s="91"/>
-      <c r="B149" s="100"/>
-      <c r="C149" s="88"/>
+      <c r="A149" s="77"/>
+      <c r="B149" s="107"/>
+      <c r="C149" s="158"/>
       <c r="D149" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E149" s="74"/>
-      <c r="F149" s="74"/>
-      <c r="G149" s="74"/>
-      <c r="H149" s="76"/>
-      <c r="I149" s="82"/>
-      <c r="J149" s="82"/>
-      <c r="K149" s="82"/>
+      <c r="E149" s="63"/>
+      <c r="F149" s="63"/>
+      <c r="G149" s="63"/>
+      <c r="H149" s="127"/>
+      <c r="I149" s="152"/>
+      <c r="J149" s="152"/>
+      <c r="K149" s="152"/>
     </row>
     <row r="150" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A150" s="91"/>
-      <c r="B150" s="100"/>
-      <c r="C150" s="88"/>
+      <c r="A150" s="77"/>
+      <c r="B150" s="107"/>
+      <c r="C150" s="158"/>
       <c r="D150" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="E150" s="63"/>
-      <c r="F150" s="63"/>
-      <c r="G150" s="63"/>
-      <c r="H150" s="77"/>
-      <c r="I150" s="82"/>
-      <c r="J150" s="82"/>
-      <c r="K150" s="82"/>
+      <c r="E150" s="65"/>
+      <c r="F150" s="65"/>
+      <c r="G150" s="65"/>
+      <c r="H150" s="126"/>
+      <c r="I150" s="152"/>
+      <c r="J150" s="152"/>
+      <c r="K150" s="152"/>
     </row>
     <row r="151" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A151" s="91"/>
-      <c r="B151" s="100"/>
-      <c r="C151" s="88"/>
+      <c r="A151" s="77"/>
+      <c r="B151" s="107"/>
+      <c r="C151" s="158"/>
       <c r="D151" s="47" t="s">
         <v>203</v>
       </c>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="62"/>
-      <c r="H151" s="75"/>
-      <c r="I151" s="82"/>
-      <c r="J151" s="82"/>
-      <c r="K151" s="82"/>
+      <c r="H151" s="125"/>
+      <c r="I151" s="152"/>
+      <c r="J151" s="152"/>
+      <c r="K151" s="152"/>
     </row>
     <row r="152" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A152" s="91"/>
-      <c r="B152" s="100"/>
-      <c r="C152" s="88"/>
+      <c r="A152" s="77"/>
+      <c r="B152" s="107"/>
+      <c r="C152" s="158"/>
       <c r="D152" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="E152" s="74"/>
-      <c r="F152" s="74"/>
-      <c r="G152" s="74"/>
-      <c r="H152" s="76"/>
-      <c r="I152" s="82"/>
-      <c r="J152" s="82"/>
-      <c r="K152" s="82"/>
+      <c r="E152" s="63"/>
+      <c r="F152" s="63"/>
+      <c r="G152" s="63"/>
+      <c r="H152" s="127"/>
+      <c r="I152" s="152"/>
+      <c r="J152" s="152"/>
+      <c r="K152" s="152"/>
     </row>
     <row r="153" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A153" s="96"/>
-      <c r="B153" s="101"/>
-      <c r="C153" s="102"/>
+      <c r="A153" s="154"/>
+      <c r="B153" s="159"/>
+      <c r="C153" s="122"/>
       <c r="D153" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="E153" s="63"/>
-      <c r="F153" s="63"/>
-      <c r="G153" s="63"/>
-      <c r="H153" s="77"/>
-      <c r="I153" s="83"/>
-      <c r="J153" s="83"/>
-      <c r="K153" s="83"/>
+      <c r="E153" s="65"/>
+      <c r="F153" s="65"/>
+      <c r="G153" s="65"/>
+      <c r="H153" s="126"/>
+      <c r="I153" s="153"/>
+      <c r="J153" s="153"/>
+      <c r="K153" s="153"/>
     </row>
     <row r="154" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A154" s="90" t="s">
+      <c r="A154" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="B154" s="93" t="s">
+      <c r="B154" s="134" t="s">
         <v>207</v>
       </c>
-      <c r="C154" s="94"/>
+      <c r="C154" s="135"/>
       <c r="D154" s="41" t="s">
         <v>208</v>
       </c>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="62"/>
-      <c r="H154" s="75"/>
-      <c r="I154" s="81"/>
-      <c r="J154" s="81"/>
-      <c r="K154" s="81"/>
+      <c r="H154" s="125"/>
+      <c r="I154" s="151"/>
+      <c r="J154" s="151"/>
+      <c r="K154" s="151"/>
     </row>
     <row r="155" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A155" s="91"/>
-      <c r="B155" s="85"/>
-      <c r="C155" s="95"/>
+      <c r="A155" s="77"/>
+      <c r="B155" s="95"/>
+      <c r="C155" s="86"/>
       <c r="D155" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="E155" s="74"/>
-      <c r="F155" s="74"/>
-      <c r="G155" s="74"/>
-      <c r="H155" s="76"/>
-      <c r="I155" s="82"/>
-      <c r="J155" s="82"/>
-      <c r="K155" s="82"/>
+      <c r="E155" s="63"/>
+      <c r="F155" s="63"/>
+      <c r="G155" s="63"/>
+      <c r="H155" s="127"/>
+      <c r="I155" s="152"/>
+      <c r="J155" s="152"/>
+      <c r="K155" s="152"/>
     </row>
     <row r="156" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A156" s="91"/>
-      <c r="B156" s="85"/>
-      <c r="C156" s="95"/>
+      <c r="A156" s="77"/>
+      <c r="B156" s="95"/>
+      <c r="C156" s="86"/>
       <c r="D156" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="E156" s="63"/>
-      <c r="F156" s="63"/>
-      <c r="G156" s="63"/>
-      <c r="H156" s="77"/>
-      <c r="I156" s="82"/>
-      <c r="J156" s="82"/>
-      <c r="K156" s="82"/>
+      <c r="E156" s="65"/>
+      <c r="F156" s="65"/>
+      <c r="G156" s="65"/>
+      <c r="H156" s="126"/>
+      <c r="I156" s="152"/>
+      <c r="J156" s="152"/>
+      <c r="K156" s="152"/>
     </row>
     <row r="157" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A157" s="91"/>
-      <c r="B157" s="85"/>
-      <c r="C157" s="95"/>
+      <c r="A157" s="77"/>
+      <c r="B157" s="95"/>
+      <c r="C157" s="86"/>
       <c r="D157" s="6" t="s">
         <v>211</v>
       </c>
       <c r="E157" s="62"/>
-      <c r="F157" s="67"/>
-      <c r="G157" s="67"/>
-      <c r="H157" s="75"/>
-      <c r="I157" s="82"/>
-      <c r="J157" s="82"/>
-      <c r="K157" s="82"/>
+      <c r="F157" s="85"/>
+      <c r="G157" s="85"/>
+      <c r="H157" s="125"/>
+      <c r="I157" s="152"/>
+      <c r="J157" s="152"/>
+      <c r="K157" s="152"/>
     </row>
     <row r="158" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A158" s="91"/>
-      <c r="B158" s="85"/>
-      <c r="C158" s="95"/>
+      <c r="A158" s="77"/>
+      <c r="B158" s="95"/>
+      <c r="C158" s="86"/>
       <c r="D158" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E158" s="74"/>
-      <c r="F158" s="67"/>
-      <c r="G158" s="67"/>
-      <c r="H158" s="76"/>
-      <c r="I158" s="82"/>
-      <c r="J158" s="82"/>
-      <c r="K158" s="82"/>
+      <c r="E158" s="63"/>
+      <c r="F158" s="85"/>
+      <c r="G158" s="85"/>
+      <c r="H158" s="127"/>
+      <c r="I158" s="152"/>
+      <c r="J158" s="152"/>
+      <c r="K158" s="152"/>
     </row>
     <row r="159" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A159" s="91"/>
-      <c r="B159" s="85"/>
-      <c r="C159" s="95"/>
+      <c r="A159" s="77"/>
+      <c r="B159" s="95"/>
+      <c r="C159" s="86"/>
       <c r="D159" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E159" s="63"/>
-      <c r="F159" s="67"/>
-      <c r="G159" s="67"/>
-      <c r="H159" s="77"/>
-      <c r="I159" s="82"/>
-      <c r="J159" s="82"/>
-      <c r="K159" s="82"/>
+      <c r="E159" s="65"/>
+      <c r="F159" s="85"/>
+      <c r="G159" s="85"/>
+      <c r="H159" s="126"/>
+      <c r="I159" s="152"/>
+      <c r="J159" s="152"/>
+      <c r="K159" s="152"/>
     </row>
     <row r="160" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A160" s="91"/>
-      <c r="B160" s="85"/>
-      <c r="C160" s="95"/>
+      <c r="A160" s="77"/>
+      <c r="B160" s="95"/>
+      <c r="C160" s="86"/>
       <c r="D160" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="62"/>
-      <c r="H160" s="75"/>
-      <c r="I160" s="82"/>
-      <c r="J160" s="82"/>
-      <c r="K160" s="82"/>
+      <c r="H160" s="125"/>
+      <c r="I160" s="152"/>
+      <c r="J160" s="152"/>
+      <c r="K160" s="152"/>
     </row>
     <row r="161" spans="1:11" ht="18" customHeight="1">
-      <c r="A161" s="91"/>
-      <c r="B161" s="85"/>
-      <c r="C161" s="95"/>
+      <c r="A161" s="77"/>
+      <c r="B161" s="95"/>
+      <c r="C161" s="86"/>
       <c r="D161" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="E161" s="74"/>
-      <c r="F161" s="74"/>
-      <c r="G161" s="74"/>
-      <c r="H161" s="76"/>
-      <c r="I161" s="82"/>
-      <c r="J161" s="82"/>
-      <c r="K161" s="82"/>
+      <c r="E161" s="63"/>
+      <c r="F161" s="63"/>
+      <c r="G161" s="63"/>
+      <c r="H161" s="127"/>
+      <c r="I161" s="152"/>
+      <c r="J161" s="152"/>
+      <c r="K161" s="152"/>
     </row>
     <row r="162" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A162" s="91"/>
-      <c r="B162" s="85"/>
-      <c r="C162" s="95"/>
+      <c r="A162" s="77"/>
+      <c r="B162" s="95"/>
+      <c r="C162" s="86"/>
       <c r="D162" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E162" s="74"/>
-      <c r="F162" s="74"/>
-      <c r="G162" s="74"/>
-      <c r="H162" s="76"/>
-      <c r="I162" s="82"/>
-      <c r="J162" s="82"/>
-      <c r="K162" s="82"/>
+      <c r="E162" s="63"/>
+      <c r="F162" s="63"/>
+      <c r="G162" s="63"/>
+      <c r="H162" s="127"/>
+      <c r="I162" s="152"/>
+      <c r="J162" s="152"/>
+      <c r="K162" s="152"/>
     </row>
     <row r="163" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A163" s="91"/>
-      <c r="B163" s="85"/>
-      <c r="C163" s="95"/>
+      <c r="A163" s="77"/>
+      <c r="B163" s="95"/>
+      <c r="C163" s="86"/>
       <c r="D163" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E163" s="63"/>
-      <c r="F163" s="63"/>
-      <c r="G163" s="63"/>
-      <c r="H163" s="77"/>
-      <c r="I163" s="82"/>
-      <c r="J163" s="82"/>
-      <c r="K163" s="82"/>
+      <c r="E163" s="65"/>
+      <c r="F163" s="65"/>
+      <c r="G163" s="65"/>
+      <c r="H163" s="126"/>
+      <c r="I163" s="152"/>
+      <c r="J163" s="152"/>
+      <c r="K163" s="152"/>
     </row>
     <row r="164" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A164" s="91"/>
-      <c r="B164" s="84" t="s">
+      <c r="A164" s="77"/>
+      <c r="B164" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="C164" s="87" t="s">
+      <c r="C164" s="160" t="s">
         <v>218</v>
       </c>
       <c r="D164" s="47" t="s">
@@ -4977,87 +4988,87 @@
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="62"/>
-      <c r="H164" s="75"/>
-      <c r="I164" s="82"/>
-      <c r="J164" s="82"/>
-      <c r="K164" s="82"/>
+      <c r="H164" s="125"/>
+      <c r="I164" s="152"/>
+      <c r="J164" s="152"/>
+      <c r="K164" s="152"/>
     </row>
     <row r="165" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A165" s="91"/>
-      <c r="B165" s="85"/>
-      <c r="C165" s="88"/>
+      <c r="A165" s="77"/>
+      <c r="B165" s="95"/>
+      <c r="C165" s="158"/>
       <c r="D165" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="E165" s="74"/>
-      <c r="F165" s="74"/>
-      <c r="G165" s="74"/>
-      <c r="H165" s="76"/>
-      <c r="I165" s="82"/>
-      <c r="J165" s="82"/>
-      <c r="K165" s="82"/>
+      <c r="E165" s="63"/>
+      <c r="F165" s="63"/>
+      <c r="G165" s="63"/>
+      <c r="H165" s="127"/>
+      <c r="I165" s="152"/>
+      <c r="J165" s="152"/>
+      <c r="K165" s="152"/>
     </row>
     <row r="166" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A166" s="91"/>
-      <c r="B166" s="85"/>
-      <c r="C166" s="88"/>
+      <c r="A166" s="77"/>
+      <c r="B166" s="95"/>
+      <c r="C166" s="158"/>
       <c r="D166" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="E166" s="63"/>
-      <c r="F166" s="63"/>
-      <c r="G166" s="63"/>
-      <c r="H166" s="77"/>
-      <c r="I166" s="82"/>
-      <c r="J166" s="82"/>
-      <c r="K166" s="82"/>
+      <c r="E166" s="65"/>
+      <c r="F166" s="65"/>
+      <c r="G166" s="65"/>
+      <c r="H166" s="126"/>
+      <c r="I166" s="152"/>
+      <c r="J166" s="152"/>
+      <c r="K166" s="152"/>
     </row>
     <row r="167" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A167" s="91"/>
-      <c r="B167" s="85"/>
-      <c r="C167" s="88"/>
+      <c r="A167" s="77"/>
+      <c r="B167" s="95"/>
+      <c r="C167" s="158"/>
       <c r="D167" s="12" t="s">
         <v>222</v>
       </c>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="62"/>
-      <c r="H167" s="75"/>
-      <c r="I167" s="82"/>
-      <c r="J167" s="82"/>
-      <c r="K167" s="82"/>
+      <c r="H167" s="125"/>
+      <c r="I167" s="152"/>
+      <c r="J167" s="152"/>
+      <c r="K167" s="152"/>
     </row>
     <row r="168" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A168" s="91"/>
-      <c r="B168" s="85"/>
-      <c r="C168" s="87" t="s">
+      <c r="A168" s="77"/>
+      <c r="B168" s="95"/>
+      <c r="C168" s="160" t="s">
         <v>223</v>
       </c>
       <c r="D168" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="E168" s="74"/>
-      <c r="F168" s="74"/>
-      <c r="G168" s="74"/>
-      <c r="H168" s="76"/>
-      <c r="I168" s="82"/>
-      <c r="J168" s="82"/>
-      <c r="K168" s="82"/>
+      <c r="E168" s="63"/>
+      <c r="F168" s="63"/>
+      <c r="G168" s="63"/>
+      <c r="H168" s="127"/>
+      <c r="I168" s="152"/>
+      <c r="J168" s="152"/>
+      <c r="K168" s="152"/>
     </row>
     <row r="169" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A169" s="92"/>
-      <c r="B169" s="86"/>
-      <c r="C169" s="89"/>
+      <c r="A169" s="78"/>
+      <c r="B169" s="97"/>
+      <c r="C169" s="161"/>
       <c r="D169" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="E169" s="63"/>
-      <c r="F169" s="63"/>
-      <c r="G169" s="63"/>
-      <c r="H169" s="77"/>
-      <c r="I169" s="83"/>
-      <c r="J169" s="83"/>
-      <c r="K169" s="83"/>
+      <c r="E169" s="65"/>
+      <c r="F169" s="65"/>
+      <c r="G169" s="65"/>
+      <c r="H169" s="126"/>
+      <c r="I169" s="153"/>
+      <c r="J169" s="153"/>
+      <c r="K169" s="153"/>
     </row>
     <row r="170" spans="1:11" ht="19.2">
       <c r="E170" s="5"/>
@@ -6259,6 +6270,296 @@
     </row>
   </sheetData>
   <mergeCells count="314">
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="M1:O3"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G160:G163"/>
+    <mergeCell ref="H160:H163"/>
+    <mergeCell ref="H148:H150"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="I154:I169"/>
+    <mergeCell ref="J154:J169"/>
+    <mergeCell ref="K154:K169"/>
+    <mergeCell ref="J128:J140"/>
+    <mergeCell ref="K128:K140"/>
+    <mergeCell ref="I128:I140"/>
+    <mergeCell ref="F137:F140"/>
+    <mergeCell ref="G137:G140"/>
+    <mergeCell ref="I112:I115"/>
+    <mergeCell ref="J112:J115"/>
+    <mergeCell ref="K112:K115"/>
+    <mergeCell ref="J103:J110"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="G125:G127"/>
+    <mergeCell ref="H125:H127"/>
+    <mergeCell ref="F125:F127"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="H134:H136"/>
+    <mergeCell ref="E128:E131"/>
+    <mergeCell ref="F128:F131"/>
+    <mergeCell ref="G128:G131"/>
+    <mergeCell ref="H128:H131"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="H137:H140"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="E137:E140"/>
+    <mergeCell ref="B164:B169"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="G164:G166"/>
+    <mergeCell ref="H164:H166"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="F167:F169"/>
+    <mergeCell ref="H154:H156"/>
+    <mergeCell ref="G167:G169"/>
+    <mergeCell ref="H167:H169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="E157:E159"/>
+    <mergeCell ref="F157:F159"/>
+    <mergeCell ref="G157:G159"/>
+    <mergeCell ref="H157:H159"/>
+    <mergeCell ref="E160:E163"/>
+    <mergeCell ref="F160:F163"/>
+    <mergeCell ref="A154:A169"/>
+    <mergeCell ref="B154:C163"/>
+    <mergeCell ref="E154:E156"/>
+    <mergeCell ref="F154:F156"/>
+    <mergeCell ref="G154:G156"/>
+    <mergeCell ref="I142:I153"/>
+    <mergeCell ref="J142:J153"/>
+    <mergeCell ref="E151:E153"/>
+    <mergeCell ref="F151:F153"/>
+    <mergeCell ref="G151:G153"/>
+    <mergeCell ref="H151:H153"/>
+    <mergeCell ref="K142:K153"/>
+    <mergeCell ref="E145:E147"/>
+    <mergeCell ref="F145:F147"/>
+    <mergeCell ref="G145:G147"/>
+    <mergeCell ref="H145:H147"/>
+    <mergeCell ref="E148:E150"/>
+    <mergeCell ref="F148:F150"/>
+    <mergeCell ref="G148:G150"/>
+    <mergeCell ref="A142:A153"/>
+    <mergeCell ref="B142:C145"/>
+    <mergeCell ref="E142:E144"/>
+    <mergeCell ref="F142:F144"/>
+    <mergeCell ref="G142:G144"/>
+    <mergeCell ref="H142:H144"/>
+    <mergeCell ref="B146:B153"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C148:C153"/>
+    <mergeCell ref="I116:I127"/>
+    <mergeCell ref="J116:J127"/>
+    <mergeCell ref="K116:K127"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="B121:C127"/>
+    <mergeCell ref="E121:E124"/>
+    <mergeCell ref="F121:F124"/>
+    <mergeCell ref="G121:G124"/>
+    <mergeCell ref="H121:H124"/>
+    <mergeCell ref="K103:K110"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="A112:A140"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="F112:F115"/>
+    <mergeCell ref="G112:G115"/>
+    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="B103:C106"/>
+    <mergeCell ref="B107:C110"/>
+    <mergeCell ref="B128:C133"/>
+    <mergeCell ref="B134:C140"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="B116:C120"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="G116:G118"/>
+    <mergeCell ref="F116:F118"/>
+    <mergeCell ref="H116:H118"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="I83:I102"/>
+    <mergeCell ref="J83:J102"/>
+    <mergeCell ref="K83:K102"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="A81:A110"/>
+    <mergeCell ref="B81:C82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="B83:B102"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="C89:C99"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="I78:I82"/>
+    <mergeCell ref="J78:J82"/>
+    <mergeCell ref="K78:K82"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I77"/>
+    <mergeCell ref="J70:J77"/>
+    <mergeCell ref="K70:K77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="A70:A80"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="A47:A69"/>
+    <mergeCell ref="B47:C54"/>
+    <mergeCell ref="B55:C58"/>
+    <mergeCell ref="B78:C80"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="I59:I69"/>
+    <mergeCell ref="J59:J69"/>
+    <mergeCell ref="K59:K69"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B59:C62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="B68:C69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="K47:K58"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="I36:I46"/>
+    <mergeCell ref="J36:J46"/>
+    <mergeCell ref="K36:K46"/>
+    <mergeCell ref="I27:I35"/>
+    <mergeCell ref="J27:J35"/>
+    <mergeCell ref="K27:K35"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="B43:C46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="I47:I58"/>
+    <mergeCell ref="J47:J58"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="A27:A46"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="B30:C35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="B36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="B12:B22"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B40:C42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I12:I22"/>
+    <mergeCell ref="J12:J22"/>
+    <mergeCell ref="K12:K22"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
     <mergeCell ref="K2:K11"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="E5:E7"/>
@@ -6283,296 +6584,6 @@
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="E15:E17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I12:I22"/>
-    <mergeCell ref="J12:J22"/>
-    <mergeCell ref="K12:K22"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="A27:A46"/>
-    <mergeCell ref="B27:C29"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="B30:C35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="B36:C39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="B12:B22"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B40:C42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="B43:C46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="I47:I58"/>
-    <mergeCell ref="J47:J58"/>
-    <mergeCell ref="K47:K58"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="I36:I46"/>
-    <mergeCell ref="J36:J46"/>
-    <mergeCell ref="K36:K46"/>
-    <mergeCell ref="I27:I35"/>
-    <mergeCell ref="J27:J35"/>
-    <mergeCell ref="K27:K35"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="I59:I69"/>
-    <mergeCell ref="J59:J69"/>
-    <mergeCell ref="K59:K69"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B59:C62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="B68:C69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="A70:A80"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="A47:A69"/>
-    <mergeCell ref="B47:C54"/>
-    <mergeCell ref="B55:C58"/>
-    <mergeCell ref="B78:C80"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="I78:I82"/>
-    <mergeCell ref="J78:J82"/>
-    <mergeCell ref="K78:K82"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I77"/>
-    <mergeCell ref="J70:J77"/>
-    <mergeCell ref="K70:K77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="I83:I102"/>
-    <mergeCell ref="J83:J102"/>
-    <mergeCell ref="K83:K102"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="A81:A110"/>
-    <mergeCell ref="B81:C82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="B83:B102"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="C89:C99"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="A112:A140"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="E112:E115"/>
-    <mergeCell ref="F112:F115"/>
-    <mergeCell ref="G112:G115"/>
-    <mergeCell ref="H112:H115"/>
-    <mergeCell ref="B103:C106"/>
-    <mergeCell ref="B107:C110"/>
-    <mergeCell ref="B128:C133"/>
-    <mergeCell ref="B134:C140"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="B116:C120"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="G116:G118"/>
-    <mergeCell ref="F116:F118"/>
-    <mergeCell ref="H116:H118"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="K103:K110"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="I116:I127"/>
-    <mergeCell ref="J116:J127"/>
-    <mergeCell ref="K116:K127"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="B121:C127"/>
-    <mergeCell ref="E121:E124"/>
-    <mergeCell ref="F121:F124"/>
-    <mergeCell ref="G121:G124"/>
-    <mergeCell ref="H121:H124"/>
-    <mergeCell ref="K142:K153"/>
-    <mergeCell ref="E145:E147"/>
-    <mergeCell ref="F145:F147"/>
-    <mergeCell ref="G145:G147"/>
-    <mergeCell ref="H145:H147"/>
-    <mergeCell ref="E148:E150"/>
-    <mergeCell ref="F148:F150"/>
-    <mergeCell ref="G148:G150"/>
-    <mergeCell ref="A142:A153"/>
-    <mergeCell ref="B142:C145"/>
-    <mergeCell ref="E142:E144"/>
-    <mergeCell ref="F142:F144"/>
-    <mergeCell ref="G142:G144"/>
-    <mergeCell ref="H142:H144"/>
-    <mergeCell ref="B146:B153"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="C148:C153"/>
-    <mergeCell ref="A154:A169"/>
-    <mergeCell ref="B154:C163"/>
-    <mergeCell ref="E154:E156"/>
-    <mergeCell ref="F154:F156"/>
-    <mergeCell ref="G154:G156"/>
-    <mergeCell ref="I142:I153"/>
-    <mergeCell ref="J142:J153"/>
-    <mergeCell ref="E151:E153"/>
-    <mergeCell ref="F151:F153"/>
-    <mergeCell ref="G151:G153"/>
-    <mergeCell ref="H151:H153"/>
-    <mergeCell ref="H137:H140"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="E137:E140"/>
-    <mergeCell ref="B164:B169"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="F164:F166"/>
-    <mergeCell ref="G164:G166"/>
-    <mergeCell ref="H164:H166"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="F167:F169"/>
-    <mergeCell ref="H154:H156"/>
-    <mergeCell ref="G167:G169"/>
-    <mergeCell ref="H167:H169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="E157:E159"/>
-    <mergeCell ref="F157:F159"/>
-    <mergeCell ref="G157:G159"/>
-    <mergeCell ref="H157:H159"/>
-    <mergeCell ref="E160:E163"/>
-    <mergeCell ref="F160:F163"/>
-    <mergeCell ref="G96:G98"/>
-    <mergeCell ref="H96:H98"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="E125:E127"/>
-    <mergeCell ref="G125:G127"/>
-    <mergeCell ref="H125:H127"/>
-    <mergeCell ref="F125:F127"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="F134:F136"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="H134:H136"/>
-    <mergeCell ref="E128:E131"/>
-    <mergeCell ref="F128:F131"/>
-    <mergeCell ref="G128:G131"/>
-    <mergeCell ref="H128:H131"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="M1:O3"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G160:G163"/>
-    <mergeCell ref="H160:H163"/>
-    <mergeCell ref="H148:H150"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="I154:I169"/>
-    <mergeCell ref="J154:J169"/>
-    <mergeCell ref="K154:K169"/>
-    <mergeCell ref="J128:J140"/>
-    <mergeCell ref="K128:K140"/>
-    <mergeCell ref="I128:I140"/>
-    <mergeCell ref="F137:F140"/>
-    <mergeCell ref="G137:G140"/>
-    <mergeCell ref="I112:I115"/>
-    <mergeCell ref="J112:J115"/>
-    <mergeCell ref="K112:K115"/>
-    <mergeCell ref="J103:J110"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{79D3A832-A8B9-4BD1-B612-E20BE0534EAB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{92AEC025-4C84-43A4-9A7A-E3F9864D107D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>其他(Others)</t>
   </si>
   <si>
-    <t>目标规划(Goal Programming)</t>
-  </si>
-  <si>
     <t>多目标规划(Multi-Objective Programming)</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
   </si>
   <si>
     <t>期望最大化算法(Expectation Maximization, EM)</t>
-  </si>
-  <si>
-    <t>SOM聚类(Self Organizing Maps Clustering)</t>
   </si>
   <si>
     <t>层次聚类(Hierarchical Clustering)</t>
@@ -644,9 +638,6 @@
     <t>灰色预测(Grey forecasting)</t>
   </si>
   <si>
-    <t>贝叶斯网络(Bayesian network)</t>
-  </si>
-  <si>
     <t>差分方程(Difference equation)</t>
   </si>
   <si>
@@ -764,6 +755,18 @@
   </si>
   <si>
     <t>禁忌搜索(Tabu Search)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标规划(Goal Programming)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOM聚类(Self Organizing Maps Clustering)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝叶斯网络(Bayesian network)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1560,7 +1563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1735,39 +1738,312 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1776,15 +2052,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1795,268 +2062,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2400,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="19.8" thickBottom="1"/>
@@ -2435,1728 +2441,1728 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="49"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="75"/>
-      <c r="M1" s="162" t="s">
-        <v>226</v>
-      </c>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="166"/>
+      <c r="M1" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="169" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="64"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="163"/>
       <c r="D3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="64"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="163"/>
       <c r="D4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="64" t="s">
+      <c r="A5" s="92"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="163" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+        <v>224</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="64"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="163"/>
       <c r="D6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
     </row>
     <row r="7" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="163"/>
       <c r="D7" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="70" t="s">
+      <c r="A8" s="92"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="131" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="105"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A9" s="92"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="54" t="s">
+      <c r="E9" s="105"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A10" s="92"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-    </row>
-    <row r="10" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="105"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A11" s="92"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-    </row>
-    <row r="11" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="105"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+    </row>
+    <row r="12" spans="1:15" ht="18" thickBot="1">
+      <c r="A12" s="92"/>
+      <c r="B12" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="82"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-    </row>
-    <row r="12" spans="1:15" ht="18" thickBot="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="96" t="s">
+      <c r="C12" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="D12" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="86"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="105"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A14" s="92"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-    </row>
-    <row r="14" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A14" s="77"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="105"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A15" s="92"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-    </row>
-    <row r="15" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="86" t="s">
+      <c r="D15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="105"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A16" s="92"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-    </row>
-    <row r="16" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="105"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A17" s="92"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="105"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+    </row>
+    <row r="18" spans="1:11" ht="18" thickBot="1">
+      <c r="A18" s="92"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A17" s="77"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-    </row>
-    <row r="18" spans="1:11" ht="18" thickBot="1">
-      <c r="A18" s="77"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="54" t="s">
         <v>26</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>27</v>
       </c>
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A19" s="77"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="86" t="s">
+      <c r="A19" s="92"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="96" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
+        <v>226</v>
+      </c>
+      <c r="E19" s="105"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="77"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="86"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="96"/>
       <c r="D20" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="105"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A21" s="92"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="77"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="54" t="s">
+      <c r="E21" s="105"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+    </row>
+    <row r="22" spans="1:11" ht="18" thickBot="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-    </row>
-    <row r="22" spans="1:11" ht="18" thickBot="1">
-      <c r="A22" s="77"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:11" ht="18" thickBot="1">
-      <c r="A23" s="77"/>
-      <c r="B23" s="96" t="s">
+      <c r="A23" s="92"/>
+      <c r="B23" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="96"/>
+      <c r="D23" s="55" t="s">
         <v>31</v>
-      </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="55" t="s">
-        <v>32</v>
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="86"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="105"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A25" s="92"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="82"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="55" t="s">
+      <c r="E25" s="105"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+    </row>
+    <row r="26" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A26" s="93"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-    </row>
-    <row r="26" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A26" s="78"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="56" t="s">
+      <c r="E26" s="105"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A27" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="82"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A27" s="87" t="s">
+      <c r="B27" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="C27" s="150"/>
+      <c r="D27" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="12" t="s">
+      <c r="E27" s="105"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A28" s="137"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="82"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A28" s="87"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="12" t="s">
+      <c r="E28" s="105"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A29" s="137"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="82"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A29" s="87"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="47" t="s">
+      <c r="E29" s="153"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A30" s="137"/>
+      <c r="B30" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="104"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A30" s="87"/>
-      <c r="B30" s="95" t="s">
+      <c r="C30" s="96"/>
+      <c r="D30" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" s="154"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A31" s="137"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="E30" s="105"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A31" s="87"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="53" t="s">
+      <c r="E31" s="154"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A32" s="137"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="105"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A32" s="87"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="53" t="s">
+      <c r="E32" s="155"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A33" s="137"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="106"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A33" s="87"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="105"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A34" s="137"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="82"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-    </row>
-    <row r="34" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="54" t="s">
+      <c r="E34" s="105"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A35" s="137"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="82"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-    </row>
-    <row r="35" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A35" s="87"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="54" t="s">
+      <c r="E35" s="105"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A36" s="137"/>
+      <c r="B36" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="82"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-    </row>
-    <row r="36" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A36" s="87"/>
-      <c r="B36" s="91" t="s">
+      <c r="C36" s="151"/>
+      <c r="D36" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="92"/>
-      <c r="D36" s="47" t="s">
+      <c r="E36" s="105"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A37" s="137"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="82"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-    </row>
-    <row r="37" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A37" s="87"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="47" t="s">
+      <c r="E37" s="105"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A38" s="137"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="82"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-    </row>
-    <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A38" s="87"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="47" t="s">
+      <c r="E38" s="105"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A39" s="137"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="82"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-    </row>
-    <row r="39" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A39" s="87"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="53" t="s">
+      <c r="E39" s="105"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+    </row>
+    <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A40" s="137"/>
+      <c r="B40" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="82"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-    </row>
-    <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="87"/>
-      <c r="B40" s="89" t="s">
+      <c r="C40" s="115"/>
+      <c r="D40" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="99"/>
-      <c r="D40" s="13" t="s">
+      <c r="E40" s="105"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+    </row>
+    <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A41" s="137"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="82"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-    </row>
-    <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="87"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="13" t="s">
+      <c r="E41" s="105"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+    </row>
+    <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A42" s="137"/>
+      <c r="B42" s="159"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="82"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-    </row>
-    <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A42" s="87"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="13" t="s">
+      <c r="E42" s="105"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A43" s="137"/>
+      <c r="B43" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="82"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-    </row>
-    <row r="43" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A43" s="87"/>
-      <c r="B43" s="95" t="s">
+      <c r="C43" s="96"/>
+      <c r="D43" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="86"/>
-      <c r="D43" s="13" t="s">
+      <c r="E43" s="105"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+    </row>
+    <row r="44" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A44" s="137"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="82"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-    </row>
-    <row r="44" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A44" s="87"/>
-      <c r="B44" s="95"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="13" t="s">
+      <c r="E44" s="105"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A45" s="137"/>
+      <c r="B45" s="157"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="82"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-    </row>
-    <row r="45" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A45" s="87"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="13" t="s">
+      <c r="E45" s="105"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="75"/>
+    </row>
+    <row r="46" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A46" s="138"/>
+      <c r="B46" s="157"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="82"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-    </row>
-    <row r="46" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A46" s="88"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="14" t="s">
+      <c r="E46" s="105"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="156"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A47" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="82"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-    </row>
-    <row r="47" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A47" s="116" t="s">
+      <c r="B47" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="120" t="s">
+      <c r="C47" s="143"/>
+      <c r="D47" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="121"/>
-      <c r="D47" s="57" t="s">
+      <c r="E47" s="63"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A48" s="137"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="62"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-    </row>
-    <row r="48" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A48" s="87"/>
-      <c r="B48" s="112"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="58" t="s">
+      <c r="E48" s="75"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="75"/>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A49" s="137"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-    </row>
-    <row r="49" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A49" s="87"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="58" t="s">
+      <c r="E49" s="75"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="75"/>
+    </row>
+    <row r="50" spans="1:11" ht="16.2" thickBot="1">
+      <c r="A50" s="137"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="63"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-    </row>
-    <row r="50" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A50" s="87"/>
-      <c r="B50" s="112"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="58" t="s">
+      <c r="E50" s="64"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="75"/>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A51" s="137"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="63"/>
-    </row>
-    <row r="51" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A51" s="87"/>
-      <c r="B51" s="112"/>
-      <c r="C51" s="109"/>
-      <c r="D51" s="47" t="s">
+      <c r="E51" s="105"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A52" s="137"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="82"/>
-      <c r="F51" s="163"/>
-      <c r="G51" s="166"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="63"/>
-    </row>
-    <row r="52" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A52" s="87"/>
-      <c r="B52" s="112"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="53" t="s">
+      <c r="E52" s="105"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="75"/>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A53" s="137"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="82"/>
-      <c r="F52" s="164"/>
-      <c r="G52" s="167"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="63"/>
-    </row>
-    <row r="53" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A53" s="87"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="53" t="s">
+      <c r="E53" s="105"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A54" s="137"/>
+      <c r="B54" s="146"/>
+      <c r="C54" s="147"/>
+      <c r="D54" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="82"/>
-      <c r="F53" s="165"/>
-      <c r="G53" s="168"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="63"/>
-    </row>
-    <row r="54" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A54" s="87"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="110"/>
-      <c r="D54" s="55" t="s">
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A55" s="137"/>
+      <c r="B55" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63"/>
-    </row>
-    <row r="55" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A55" s="87"/>
-      <c r="B55" s="111" t="s">
+      <c r="C55" s="149"/>
+      <c r="D55" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="108"/>
-      <c r="D55" s="53" t="s">
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="75"/>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A56" s="137"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-    </row>
-    <row r="56" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A56" s="87"/>
-      <c r="B56" s="112"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="53" t="s">
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="75"/>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A57" s="137"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="E57" s="105"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="75"/>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A58" s="137"/>
+      <c r="B58" s="146"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
-    </row>
-    <row r="57" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A57" s="87"/>
-      <c r="B57" s="112"/>
-      <c r="C57" s="109"/>
-      <c r="D57" s="58" t="s">
+      <c r="E58" s="105"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="75"/>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A59" s="137"/>
+      <c r="B59" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="82"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
-    </row>
-    <row r="58" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A58" s="87"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="58" t="s">
+      <c r="C59" s="149"/>
+      <c r="D59" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="82"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="63"/>
-      <c r="K58" s="63"/>
-    </row>
-    <row r="59" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A59" s="87"/>
-      <c r="B59" s="111" t="s">
+      <c r="E59" s="105"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A60" s="137"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="108"/>
-      <c r="D59" s="11" t="s">
+      <c r="E60" s="105"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="75"/>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A61" s="137"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="82"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="62"/>
-    </row>
-    <row r="60" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A60" s="87"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="16" t="s">
+      <c r="E61" s="105"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A62" s="137"/>
+      <c r="B62" s="146"/>
+      <c r="C62" s="147"/>
+      <c r="D62" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E60" s="82"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="63"/>
-      <c r="K60" s="63"/>
-    </row>
-    <row r="61" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A61" s="87"/>
-      <c r="B61" s="112"/>
-      <c r="C61" s="109"/>
-      <c r="D61" s="16" t="s">
+      <c r="E62" s="105"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="75"/>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A63" s="137"/>
+      <c r="B63" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="82"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="63"/>
-    </row>
-    <row r="62" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A62" s="87"/>
-      <c r="B62" s="113"/>
-      <c r="C62" s="110"/>
-      <c r="D62" s="17" t="s">
+      <c r="C63" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="82"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="63"/>
-      <c r="K62" s="63"/>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A63" s="87"/>
-      <c r="B63" s="107" t="s">
+      <c r="D63" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="108" t="s">
+      <c r="E63" s="105"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="75"/>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A64" s="137"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="170" t="s">
         <v>82</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="E64" s="105"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="75"/>
+      <c r="K64" s="75"/>
+    </row>
+    <row r="65" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A65" s="137"/>
+      <c r="B65" s="101"/>
+      <c r="C65" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="82"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="63"/>
-      <c r="J63" s="63"/>
-      <c r="K63" s="63"/>
-    </row>
-    <row r="64" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A64" s="87"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="14" t="s">
+      <c r="D65" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E64" s="82"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
-    </row>
-    <row r="65" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A65" s="87"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="108" t="s">
+      <c r="E65" s="105"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="75"/>
+      <c r="K65" s="75"/>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A66" s="137"/>
+      <c r="B66" s="101"/>
+      <c r="C66" s="145"/>
+      <c r="D66" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="E66" s="105"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="75"/>
+      <c r="K66" s="75"/>
+    </row>
+    <row r="67" spans="1:11" ht="18" thickBot="1">
+      <c r="A67" s="137"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="147"/>
+      <c r="D67" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="E65" s="82"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="63"/>
-      <c r="K65" s="63"/>
-    </row>
-    <row r="66" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A66" s="87"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E66" s="82"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="85"/>
-      <c r="H66" s="69"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="63"/>
-      <c r="K66" s="63"/>
-    </row>
-    <row r="67" spans="1:11" ht="18" thickBot="1">
-      <c r="A67" s="87"/>
-      <c r="B67" s="107"/>
-      <c r="C67" s="110"/>
-      <c r="D67" s="14" t="s">
-        <v>88</v>
       </c>
       <c r="F67" s="47"/>
       <c r="G67" s="47"/>
       <c r="H67" s="8"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="75"/>
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A68" s="87"/>
-      <c r="B68" s="89" t="s">
+      <c r="A68" s="137"/>
+      <c r="B68" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="150"/>
+      <c r="D68" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="105"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="75"/>
+    </row>
+    <row r="69" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A69" s="138"/>
+      <c r="B69" s="118"/>
+      <c r="C69" s="152"/>
+      <c r="D69" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="90"/>
-      <c r="D68" s="169" t="s">
+      <c r="E69" s="105"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="64"/>
+    </row>
+    <row r="70" spans="1:11" ht="18" thickBot="1">
+      <c r="A70" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="E68" s="82"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="85"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="63"/>
-      <c r="K68" s="63"/>
-    </row>
-    <row r="69" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A69" s="88"/>
-      <c r="B69" s="114"/>
-      <c r="C69" s="115"/>
-      <c r="D69" s="169" t="s">
+      <c r="B70" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="82"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="65"/>
-      <c r="J69" s="65"/>
-      <c r="K69" s="65"/>
-    </row>
-    <row r="70" spans="1:11" ht="18" thickBot="1">
-      <c r="A70" s="116" t="s">
+      <c r="C70" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="117" t="s">
+      <c r="D70" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="E70" s="63"/>
+      <c r="F70" s="68"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="63"/>
+    </row>
+    <row r="71" spans="1:11" ht="18" thickBot="1">
+      <c r="A71" s="137"/>
+      <c r="B71" s="140"/>
+      <c r="C71" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D71" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="62"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="83"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="62"/>
-    </row>
-    <row r="71" spans="1:11" ht="18" thickBot="1">
-      <c r="A71" s="87"/>
-      <c r="B71" s="118"/>
-      <c r="C71" s="19" t="s">
+      <c r="E71" s="64"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="75"/>
+      <c r="K71" s="75"/>
+    </row>
+    <row r="72" spans="1:11" ht="18" thickBot="1">
+      <c r="A72" s="137"/>
+      <c r="B72" s="140"/>
+      <c r="C72" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D72" s="47" t="s">
         <v>97</v>
-      </c>
-      <c r="E71" s="65"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="83"/>
-      <c r="I71" s="63"/>
-      <c r="J71" s="63"/>
-      <c r="K71" s="63"/>
-    </row>
-    <row r="72" spans="1:11" ht="18" thickBot="1">
-      <c r="A72" s="87"/>
-      <c r="B72" s="118"/>
-      <c r="C72" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" s="47" t="s">
-        <v>99</v>
       </c>
       <c r="F72" s="48"/>
       <c r="G72" s="48"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="63"/>
-      <c r="K72" s="63"/>
+      <c r="I72" s="75"/>
+      <c r="J72" s="75"/>
+      <c r="K72" s="75"/>
     </row>
     <row r="73" spans="1:11" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A73" s="87"/>
-      <c r="B73" s="118"/>
+      <c r="A73" s="137"/>
+      <c r="B73" s="140"/>
       <c r="C73" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F73" s="46"/>
       <c r="G73" s="46"/>
       <c r="H73" s="8"/>
-      <c r="I73" s="63"/>
-      <c r="J73" s="63"/>
-      <c r="K73" s="63"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="75"/>
+      <c r="K73" s="75"/>
     </row>
     <row r="74" spans="1:11" ht="34.5" customHeight="1">
-      <c r="A74" s="87"/>
-      <c r="B74" s="118"/>
+      <c r="A74" s="137"/>
+      <c r="B74" s="140"/>
       <c r="C74" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="63"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="76"/>
+      <c r="I74" s="75"/>
+      <c r="J74" s="75"/>
+      <c r="K74" s="75"/>
+    </row>
+    <row r="75" spans="1:11" ht="16.2" thickBot="1">
+      <c r="A75" s="137"/>
+      <c r="B75" s="140"/>
+      <c r="C75" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D75" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E74" s="62"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="125"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="63"/>
-      <c r="K74" s="63"/>
-    </row>
-    <row r="75" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A75" s="87"/>
-      <c r="B75" s="118"/>
-      <c r="C75" s="122" t="s">
+      <c r="E75" s="64"/>
+      <c r="F75" s="81"/>
+      <c r="G75" s="81"/>
+      <c r="H75" s="78"/>
+      <c r="I75" s="75"/>
+      <c r="J75" s="75"/>
+      <c r="K75" s="75"/>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A76" s="137"/>
+      <c r="B76" s="140"/>
+      <c r="C76" s="134"/>
+      <c r="D76" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="75"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="75"/>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A77" s="137"/>
+      <c r="B77" s="141"/>
+      <c r="C77" s="135"/>
+      <c r="D77" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E75" s="65"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="126"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-    </row>
-    <row r="76" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A76" s="87"/>
-      <c r="B76" s="118"/>
-      <c r="C76" s="123"/>
-      <c r="D76" s="20" t="s">
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="75"/>
+    </row>
+    <row r="78" spans="1:11" ht="16.95" customHeight="1">
+      <c r="A78" s="137"/>
+      <c r="B78" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="63"/>
-      <c r="K76" s="63"/>
-    </row>
-    <row r="77" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A77" s="87"/>
-      <c r="B77" s="119"/>
-      <c r="C77" s="124"/>
-      <c r="D77" s="22" t="s">
+      <c r="C78" s="150"/>
+      <c r="D78" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="83"/>
-      <c r="I77" s="63"/>
-      <c r="J77" s="63"/>
-      <c r="K77" s="63"/>
-    </row>
-    <row r="78" spans="1:11" ht="16.95" customHeight="1">
-      <c r="A78" s="87"/>
-      <c r="B78" s="89" t="s">
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="76"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="63"/>
+      <c r="K78" s="63"/>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A79" s="137"/>
+      <c r="B79" s="116"/>
+      <c r="C79" s="151"/>
+      <c r="D79" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="C78" s="90"/>
-      <c r="D78" s="55" t="s">
+      <c r="E79" s="75"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="77"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="75"/>
+      <c r="K79" s="75"/>
+    </row>
+    <row r="80" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A80" s="138"/>
+      <c r="B80" s="118"/>
+      <c r="C80" s="152"/>
+      <c r="D80" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="125"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62"/>
-      <c r="K78" s="62"/>
-    </row>
-    <row r="79" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A79" s="87"/>
-      <c r="B79" s="91"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="53" t="s">
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="78"/>
+      <c r="I80" s="75"/>
+      <c r="J80" s="75"/>
+      <c r="K80" s="75"/>
+    </row>
+    <row r="81" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A81" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="127"/>
-      <c r="I79" s="63"/>
-      <c r="J79" s="63"/>
-      <c r="K79" s="63"/>
-    </row>
-    <row r="80" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A80" s="88"/>
-      <c r="B80" s="114"/>
-      <c r="C80" s="115"/>
-      <c r="D80" s="53" t="s">
+      <c r="B81" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="126"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="63"/>
-      <c r="K80" s="63"/>
-    </row>
-    <row r="81" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A81" s="131" t="s">
+      <c r="C81" s="95"/>
+      <c r="D81" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B81" s="134" t="s">
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="65"/>
+      <c r="I81" s="75"/>
+      <c r="J81" s="75"/>
+      <c r="K81" s="75"/>
+    </row>
+    <row r="82" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A82" s="126"/>
+      <c r="B82" s="86"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="135"/>
-      <c r="D81" s="15" t="s">
+      <c r="E82" s="64"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="65"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="64"/>
+      <c r="K82" s="64"/>
+    </row>
+    <row r="83" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A83" s="126"/>
+      <c r="B83" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="E81" s="62"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="62"/>
-      <c r="H81" s="83"/>
-      <c r="I81" s="63"/>
-      <c r="J81" s="63"/>
-      <c r="K81" s="63"/>
-    </row>
-    <row r="82" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A82" s="132"/>
-      <c r="B82" s="95"/>
-      <c r="C82" s="86"/>
-      <c r="D82" s="23" t="s">
+      <c r="C83" s="128" t="s">
         <v>115</v>
       </c>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="83"/>
-      <c r="I82" s="65"/>
-      <c r="J82" s="65"/>
-      <c r="K82" s="65"/>
-    </row>
-    <row r="83" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A83" s="132"/>
-      <c r="B83" s="96" t="s">
+      <c r="D83" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C83" s="136" t="s">
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="65"/>
+      <c r="I83" s="122"/>
+      <c r="J83" s="122"/>
+      <c r="K83" s="122"/>
+    </row>
+    <row r="84" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A84" s="126"/>
+      <c r="B84" s="86"/>
+      <c r="C84" s="129"/>
+      <c r="D84" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="E84" s="75"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="65"/>
+      <c r="I84" s="123"/>
+      <c r="J84" s="123"/>
+      <c r="K84" s="123"/>
+    </row>
+    <row r="85" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A85" s="126"/>
+      <c r="B85" s="86"/>
+      <c r="C85" s="129"/>
+      <c r="D85" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="83"/>
-      <c r="I83" s="128"/>
-      <c r="J83" s="128"/>
-      <c r="K83" s="128"/>
-    </row>
-    <row r="84" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A84" s="132"/>
-      <c r="B84" s="95"/>
-      <c r="C84" s="137"/>
-      <c r="D84" s="12" t="s">
+      <c r="E85" s="63"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="63"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="123"/>
+      <c r="J85" s="123"/>
+      <c r="K85" s="123"/>
+    </row>
+    <row r="86" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A86" s="126"/>
+      <c r="B86" s="86"/>
+      <c r="C86" s="129"/>
+      <c r="D86" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E84" s="63"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="83"/>
-      <c r="I84" s="129"/>
-      <c r="J84" s="129"/>
-      <c r="K84" s="129"/>
-    </row>
-    <row r="85" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A85" s="132"/>
-      <c r="B85" s="95"/>
-      <c r="C85" s="137"/>
-      <c r="D85" s="12" t="s">
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="65"/>
+      <c r="I86" s="123"/>
+      <c r="J86" s="123"/>
+      <c r="K86" s="123"/>
+    </row>
+    <row r="87" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A87" s="126"/>
+      <c r="B87" s="86"/>
+      <c r="C87" s="129"/>
+      <c r="D87" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E85" s="62"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="62"/>
-      <c r="H85" s="83"/>
-      <c r="I85" s="129"/>
-      <c r="J85" s="129"/>
-      <c r="K85" s="129"/>
-    </row>
-    <row r="86" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A86" s="132"/>
-      <c r="B86" s="95"/>
-      <c r="C86" s="137"/>
-      <c r="D86" s="12" t="s">
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="65"/>
+      <c r="I87" s="123"/>
+      <c r="J87" s="123"/>
+      <c r="K87" s="123"/>
+    </row>
+    <row r="88" spans="1:11" ht="18" thickBot="1">
+      <c r="A88" s="126"/>
+      <c r="B88" s="86"/>
+      <c r="C88" s="130"/>
+      <c r="D88" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="83"/>
-      <c r="I86" s="129"/>
-      <c r="J86" s="129"/>
-      <c r="K86" s="129"/>
-    </row>
-    <row r="87" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A87" s="132"/>
-      <c r="B87" s="95"/>
-      <c r="C87" s="137"/>
-      <c r="D87" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="83"/>
-      <c r="I87" s="129"/>
-      <c r="J87" s="129"/>
-      <c r="K87" s="129"/>
-    </row>
-    <row r="88" spans="1:11" ht="18" thickBot="1">
-      <c r="A88" s="132"/>
-      <c r="B88" s="95"/>
-      <c r="C88" s="138"/>
-      <c r="D88" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="45"/>
       <c r="G88" s="45"/>
       <c r="H88" s="8"/>
-      <c r="I88" s="129"/>
-      <c r="J88" s="129"/>
-      <c r="K88" s="129"/>
+      <c r="I88" s="123"/>
+      <c r="J88" s="123"/>
+      <c r="K88" s="123"/>
     </row>
     <row r="89" spans="1:11" ht="18" thickBot="1">
-      <c r="A89" s="132"/>
-      <c r="B89" s="95"/>
-      <c r="C89" s="70" t="s">
-        <v>124</v>
+      <c r="A89" s="126"/>
+      <c r="B89" s="86"/>
+      <c r="C89" s="131" t="s">
+        <v>122</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F89" s="45"/>
       <c r="G89" s="45"/>
       <c r="H89" s="8"/>
-      <c r="I89" s="129"/>
-      <c r="J89" s="129"/>
-      <c r="K89" s="129"/>
+      <c r="I89" s="123"/>
+      <c r="J89" s="123"/>
+      <c r="K89" s="123"/>
     </row>
     <row r="90" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A90" s="132"/>
-      <c r="B90" s="95"/>
-      <c r="C90" s="71"/>
+      <c r="A90" s="126"/>
+      <c r="B90" s="86"/>
+      <c r="C90" s="132"/>
       <c r="D90" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E90" s="75"/>
+      <c r="F90" s="68"/>
+      <c r="G90" s="68"/>
+      <c r="H90" s="65"/>
+      <c r="I90" s="123"/>
+      <c r="J90" s="123"/>
+      <c r="K90" s="123"/>
+    </row>
+    <row r="91" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A91" s="126"/>
+      <c r="B91" s="86"/>
+      <c r="C91" s="132"/>
+      <c r="D91" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E91" s="75"/>
+      <c r="F91" s="68"/>
+      <c r="G91" s="68"/>
+      <c r="H91" s="65"/>
+      <c r="I91" s="123"/>
+      <c r="J91" s="123"/>
+      <c r="K91" s="123"/>
+    </row>
+    <row r="92" spans="1:11" ht="18" thickBot="1">
+      <c r="A92" s="126"/>
+      <c r="B92" s="86"/>
+      <c r="C92" s="132"/>
+      <c r="D92" s="47" t="s">
         <v>126</v>
-      </c>
-      <c r="E90" s="63"/>
-      <c r="F90" s="85"/>
-      <c r="G90" s="85"/>
-      <c r="H90" s="83"/>
-      <c r="I90" s="129"/>
-      <c r="J90" s="129"/>
-      <c r="K90" s="129"/>
-    </row>
-    <row r="91" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A91" s="132"/>
-      <c r="B91" s="95"/>
-      <c r="C91" s="71"/>
-      <c r="D91" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E91" s="63"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="85"/>
-      <c r="H91" s="83"/>
-      <c r="I91" s="129"/>
-      <c r="J91" s="129"/>
-      <c r="K91" s="129"/>
-    </row>
-    <row r="92" spans="1:11" ht="18" thickBot="1">
-      <c r="A92" s="132"/>
-      <c r="B92" s="95"/>
-      <c r="C92" s="71"/>
-      <c r="D92" s="47" t="s">
-        <v>128</v>
       </c>
       <c r="F92" s="47"/>
       <c r="G92" s="47"/>
       <c r="H92" s="8"/>
-      <c r="I92" s="129"/>
-      <c r="J92" s="129"/>
-      <c r="K92" s="129"/>
+      <c r="I92" s="123"/>
+      <c r="J92" s="123"/>
+      <c r="K92" s="123"/>
     </row>
     <row r="93" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A93" s="132"/>
-      <c r="B93" s="95"/>
-      <c r="C93" s="71"/>
+      <c r="A93" s="126"/>
+      <c r="B93" s="86"/>
+      <c r="C93" s="132"/>
       <c r="D93" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E93" s="63"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="68"/>
+      <c r="H93" s="65"/>
+      <c r="I93" s="123"/>
+      <c r="J93" s="123"/>
+      <c r="K93" s="123"/>
+    </row>
+    <row r="94" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A94" s="126"/>
+      <c r="B94" s="86"/>
+      <c r="C94" s="132"/>
+      <c r="D94" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E94" s="75"/>
+      <c r="F94" s="68"/>
+      <c r="G94" s="68"/>
+      <c r="H94" s="65"/>
+      <c r="I94" s="123"/>
+      <c r="J94" s="123"/>
+      <c r="K94" s="123"/>
+    </row>
+    <row r="95" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A95" s="126"/>
+      <c r="B95" s="86"/>
+      <c r="C95" s="132"/>
+      <c r="D95" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E93" s="62"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="83"/>
-      <c r="I93" s="129"/>
-      <c r="J93" s="129"/>
-      <c r="K93" s="129"/>
-    </row>
-    <row r="94" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A94" s="132"/>
-      <c r="B94" s="95"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="12" t="s">
+      <c r="E95" s="64"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="68"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="123"/>
+      <c r="J95" s="123"/>
+      <c r="K95" s="123"/>
+    </row>
+    <row r="96" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A96" s="126"/>
+      <c r="B96" s="86"/>
+      <c r="C96" s="132"/>
+      <c r="D96" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E94" s="63"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="85"/>
-      <c r="H94" s="83"/>
-      <c r="I94" s="129"/>
-      <c r="J94" s="129"/>
-      <c r="K94" s="129"/>
-    </row>
-    <row r="95" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A95" s="132"/>
-      <c r="B95" s="95"/>
-      <c r="C95" s="71"/>
-      <c r="D95" s="12" t="s">
+      <c r="E96" s="63"/>
+      <c r="F96" s="68"/>
+      <c r="G96" s="68"/>
+      <c r="H96" s="65"/>
+      <c r="I96" s="123"/>
+      <c r="J96" s="123"/>
+      <c r="K96" s="123"/>
+    </row>
+    <row r="97" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A97" s="126"/>
+      <c r="B97" s="86"/>
+      <c r="C97" s="132"/>
+      <c r="D97" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E95" s="65"/>
-      <c r="F95" s="85"/>
-      <c r="G95" s="85"/>
-      <c r="H95" s="83"/>
-      <c r="I95" s="129"/>
-      <c r="J95" s="129"/>
-      <c r="K95" s="129"/>
-    </row>
-    <row r="96" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A96" s="132"/>
-      <c r="B96" s="95"/>
-      <c r="C96" s="71"/>
-      <c r="D96" s="12" t="s">
+      <c r="E97" s="75"/>
+      <c r="F97" s="68"/>
+      <c r="G97" s="68"/>
+      <c r="H97" s="65"/>
+      <c r="I97" s="123"/>
+      <c r="J97" s="123"/>
+      <c r="K97" s="123"/>
+    </row>
+    <row r="98" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A98" s="126"/>
+      <c r="B98" s="86"/>
+      <c r="C98" s="132"/>
+      <c r="D98" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E96" s="62"/>
-      <c r="F96" s="85"/>
-      <c r="G96" s="85"/>
-      <c r="H96" s="83"/>
-      <c r="I96" s="129"/>
-      <c r="J96" s="129"/>
-      <c r="K96" s="129"/>
-    </row>
-    <row r="97" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A97" s="132"/>
-      <c r="B97" s="95"/>
-      <c r="C97" s="71"/>
-      <c r="D97" s="25" t="s">
+      <c r="E98" s="64"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="68"/>
+      <c r="H98" s="65"/>
+      <c r="I98" s="123"/>
+      <c r="J98" s="123"/>
+      <c r="K98" s="123"/>
+    </row>
+    <row r="99" spans="1:11" ht="18" thickBot="1">
+      <c r="A99" s="126"/>
+      <c r="B99" s="86"/>
+      <c r="C99" s="133"/>
+      <c r="D99" s="12" t="s">
         <v>133</v>
-      </c>
-      <c r="E97" s="63"/>
-      <c r="F97" s="85"/>
-      <c r="G97" s="85"/>
-      <c r="H97" s="83"/>
-      <c r="I97" s="129"/>
-      <c r="J97" s="129"/>
-      <c r="K97" s="129"/>
-    </row>
-    <row r="98" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A98" s="132"/>
-      <c r="B98" s="95"/>
-      <c r="C98" s="71"/>
-      <c r="D98" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E98" s="65"/>
-      <c r="F98" s="85"/>
-      <c r="G98" s="85"/>
-      <c r="H98" s="83"/>
-      <c r="I98" s="129"/>
-      <c r="J98" s="129"/>
-      <c r="K98" s="129"/>
-    </row>
-    <row r="99" spans="1:11" ht="18" thickBot="1">
-      <c r="A99" s="132"/>
-      <c r="B99" s="95"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="12" t="s">
-        <v>135</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="45"/>
       <c r="G99" s="45"/>
       <c r="H99" s="8"/>
-      <c r="I99" s="129"/>
-      <c r="J99" s="129"/>
-      <c r="K99" s="129"/>
+      <c r="I99" s="123"/>
+      <c r="J99" s="123"/>
+      <c r="K99" s="123"/>
     </row>
     <row r="100" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A100" s="132"/>
-      <c r="B100" s="95"/>
-      <c r="C100" s="149" t="s">
+      <c r="A100" s="126"/>
+      <c r="B100" s="86"/>
+      <c r="C100" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" s="63"/>
+      <c r="F100" s="63"/>
+      <c r="G100" s="63"/>
+      <c r="H100" s="65"/>
+      <c r="I100" s="123"/>
+      <c r="J100" s="123"/>
+      <c r="K100" s="123"/>
+    </row>
+    <row r="101" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A101" s="126"/>
+      <c r="B101" s="86"/>
+      <c r="C101" s="121"/>
+      <c r="D101" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="E101" s="75"/>
+      <c r="F101" s="75"/>
+      <c r="G101" s="75"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="123"/>
+      <c r="J101" s="123"/>
+      <c r="K101" s="123"/>
+    </row>
+    <row r="102" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A102" s="126"/>
+      <c r="B102" s="86"/>
+      <c r="C102" s="121"/>
+      <c r="D102" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E100" s="62"/>
-      <c r="F100" s="62"/>
-      <c r="G100" s="62"/>
-      <c r="H100" s="83"/>
-      <c r="I100" s="129"/>
-      <c r="J100" s="129"/>
-      <c r="K100" s="129"/>
-    </row>
-    <row r="101" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A101" s="132"/>
-      <c r="B101" s="95"/>
-      <c r="C101" s="150"/>
-      <c r="D101" s="16" t="s">
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="65"/>
+      <c r="I102" s="124"/>
+      <c r="J102" s="124"/>
+      <c r="K102" s="124"/>
+    </row>
+    <row r="103" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A103" s="126"/>
+      <c r="B103" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="E101" s="63"/>
-      <c r="F101" s="63"/>
-      <c r="G101" s="63"/>
-      <c r="H101" s="83"/>
-      <c r="I101" s="129"/>
-      <c r="J101" s="129"/>
-      <c r="K101" s="129"/>
-    </row>
-    <row r="102" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A102" s="132"/>
-      <c r="B102" s="95"/>
-      <c r="C102" s="150"/>
-      <c r="D102" s="16" t="s">
+      <c r="C103" s="109"/>
+      <c r="D103" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="E102" s="65"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="65"/>
-      <c r="H102" s="83"/>
-      <c r="I102" s="130"/>
-      <c r="J102" s="130"/>
-      <c r="K102" s="130"/>
-    </row>
-    <row r="103" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A103" s="132"/>
-      <c r="B103" s="142" t="s">
+      <c r="E103" s="63"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="68"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="63"/>
+      <c r="J103" s="63"/>
+      <c r="K103" s="63"/>
+    </row>
+    <row r="104" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A104" s="126"/>
+      <c r="B104" s="110"/>
+      <c r="C104" s="111"/>
+      <c r="D104" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C103" s="143"/>
-      <c r="D103" s="58" t="s">
+      <c r="E104" s="64"/>
+      <c r="F104" s="68"/>
+      <c r="G104" s="68"/>
+      <c r="H104" s="65"/>
+      <c r="I104" s="75"/>
+      <c r="J104" s="75"/>
+      <c r="K104" s="75"/>
+    </row>
+    <row r="105" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A105" s="126"/>
+      <c r="B105" s="110"/>
+      <c r="C105" s="111"/>
+      <c r="D105" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E103" s="62"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="H103" s="83"/>
-      <c r="I103" s="62"/>
-      <c r="J103" s="62"/>
-      <c r="K103" s="62"/>
-    </row>
-    <row r="104" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A104" s="132"/>
-      <c r="B104" s="144"/>
-      <c r="C104" s="145"/>
-      <c r="D104" s="6" t="s">
+      <c r="E105" s="63"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="68"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="75"/>
+      <c r="J105" s="75"/>
+      <c r="K105" s="75"/>
+    </row>
+    <row r="106" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A106" s="126"/>
+      <c r="B106" s="112"/>
+      <c r="C106" s="113"/>
+      <c r="D106" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E104" s="65"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="85"/>
-      <c r="H104" s="83"/>
-      <c r="I104" s="63"/>
-      <c r="J104" s="63"/>
-      <c r="K104" s="63"/>
-    </row>
-    <row r="105" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A105" s="132"/>
-      <c r="B105" s="144"/>
-      <c r="C105" s="145"/>
-      <c r="D105" s="12" t="s">
+      <c r="E106" s="64"/>
+      <c r="F106" s="68"/>
+      <c r="G106" s="68"/>
+      <c r="H106" s="65"/>
+      <c r="I106" s="75"/>
+      <c r="J106" s="75"/>
+      <c r="K106" s="75"/>
+    </row>
+    <row r="107" spans="1:11" ht="16.95" customHeight="1">
+      <c r="A107" s="126"/>
+      <c r="B107" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="E105" s="62"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="85"/>
-      <c r="H105" s="83"/>
-      <c r="I105" s="63"/>
-      <c r="J105" s="63"/>
-      <c r="K105" s="63"/>
-    </row>
-    <row r="106" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A106" s="132"/>
-      <c r="B106" s="146"/>
-      <c r="C106" s="147"/>
-      <c r="D106" s="12" t="s">
+      <c r="C107" s="115"/>
+      <c r="D107" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="E106" s="65"/>
-      <c r="F106" s="85"/>
-      <c r="G106" s="85"/>
-      <c r="H106" s="83"/>
-      <c r="I106" s="63"/>
-      <c r="J106" s="63"/>
-      <c r="K106" s="63"/>
-    </row>
-    <row r="107" spans="1:11" ht="16.95" customHeight="1">
-      <c r="A107" s="132"/>
-      <c r="B107" s="89" t="s">
+      <c r="E107" s="63"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="68"/>
+      <c r="H107" s="76"/>
+      <c r="I107" s="75"/>
+      <c r="J107" s="75"/>
+      <c r="K107" s="75"/>
+    </row>
+    <row r="108" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
+      <c r="A108" s="126"/>
+      <c r="B108" s="116"/>
+      <c r="C108" s="117"/>
+      <c r="D108" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C107" s="99"/>
-      <c r="D107" s="47" t="s">
+      <c r="E108" s="64"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="68"/>
+      <c r="H108" s="78"/>
+      <c r="I108" s="75"/>
+      <c r="J108" s="75"/>
+      <c r="K108" s="75"/>
+    </row>
+    <row r="109" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
+      <c r="A109" s="126"/>
+      <c r="B109" s="116"/>
+      <c r="C109" s="117"/>
+      <c r="D109" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E107" s="62"/>
-      <c r="F107" s="85"/>
-      <c r="G107" s="85"/>
-      <c r="H107" s="125"/>
-      <c r="I107" s="63"/>
-      <c r="J107" s="63"/>
-      <c r="K107" s="63"/>
-    </row>
-    <row r="108" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A108" s="132"/>
-      <c r="B108" s="91"/>
-      <c r="C108" s="100"/>
-      <c r="D108" s="12" t="s">
+      <c r="E109" s="63"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="68"/>
+      <c r="H109" s="65"/>
+      <c r="I109" s="75"/>
+      <c r="J109" s="75"/>
+      <c r="K109" s="75"/>
+    </row>
+    <row r="110" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
+      <c r="A110" s="127"/>
+      <c r="B110" s="118"/>
+      <c r="C110" s="119"/>
+      <c r="D110" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="E108" s="65"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="85"/>
-      <c r="H108" s="126"/>
-      <c r="I108" s="63"/>
-      <c r="J108" s="63"/>
-      <c r="K108" s="63"/>
-    </row>
-    <row r="109" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A109" s="132"/>
-      <c r="B109" s="91"/>
-      <c r="C109" s="100"/>
-      <c r="D109" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E109" s="62"/>
-      <c r="F109" s="85"/>
-      <c r="G109" s="85"/>
-      <c r="H109" s="83"/>
-      <c r="I109" s="63"/>
-      <c r="J109" s="63"/>
-      <c r="K109" s="63"/>
-    </row>
-    <row r="110" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A110" s="133"/>
-      <c r="B110" s="114"/>
-      <c r="C110" s="148"/>
-      <c r="D110" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="E110" s="65"/>
-      <c r="F110" s="85"/>
-      <c r="G110" s="85"/>
-      <c r="H110" s="83"/>
-      <c r="I110" s="65"/>
-      <c r="J110" s="65"/>
-      <c r="K110" s="65"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="68"/>
+      <c r="G110" s="68"/>
+      <c r="H110" s="65"/>
+      <c r="I110" s="64"/>
+      <c r="J110" s="64"/>
+      <c r="K110" s="64"/>
     </row>
     <row r="111" spans="1:11" ht="22.8" thickBot="1">
       <c r="A111" s="27"/>
@@ -4169,459 +4175,459 @@
       <c r="H111" s="51"/>
     </row>
     <row r="112" spans="1:11" ht="52.8" thickBot="1">
-      <c r="A112" s="139" t="s">
+      <c r="A112" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="B112" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="C112" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="B112" s="140" t="s">
+      <c r="D112" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="C112" s="30" t="s">
+      <c r="E112" s="75"/>
+      <c r="F112" s="75"/>
+      <c r="G112" s="75"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="82"/>
+      <c r="J112" s="82"/>
+      <c r="K112" s="82"/>
+    </row>
+    <row r="113" spans="1:11" ht="52.8" thickBot="1">
+      <c r="A113" s="106"/>
+      <c r="B113" s="104"/>
+      <c r="C113" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="D112" s="53" t="s">
+      <c r="D113" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="E112" s="63"/>
-      <c r="F112" s="63"/>
-      <c r="G112" s="63"/>
-      <c r="H112" s="127"/>
-      <c r="I112" s="151"/>
-      <c r="J112" s="151"/>
-      <c r="K112" s="151"/>
-    </row>
-    <row r="113" spans="1:11" ht="52.8" thickBot="1">
-      <c r="A113" s="139"/>
-      <c r="B113" s="141"/>
-      <c r="C113" s="30" t="s">
+      <c r="E113" s="75"/>
+      <c r="F113" s="75"/>
+      <c r="G113" s="75"/>
+      <c r="H113" s="77"/>
+      <c r="I113" s="83"/>
+      <c r="J113" s="83"/>
+      <c r="K113" s="83"/>
+    </row>
+    <row r="114" spans="1:11" ht="52.8" thickBot="1">
+      <c r="A114" s="106"/>
+      <c r="B114" s="104"/>
+      <c r="C114" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="D113" s="53" t="s">
+      <c r="D114" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="E113" s="63"/>
-      <c r="F113" s="63"/>
-      <c r="G113" s="63"/>
-      <c r="H113" s="127"/>
-      <c r="I113" s="152"/>
-      <c r="J113" s="152"/>
-      <c r="K113" s="152"/>
-    </row>
-    <row r="114" spans="1:11" ht="52.8" thickBot="1">
-      <c r="A114" s="139"/>
-      <c r="B114" s="141"/>
-      <c r="C114" s="30" t="s">
+      <c r="E114" s="75"/>
+      <c r="F114" s="75"/>
+      <c r="G114" s="75"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="83"/>
+      <c r="J114" s="83"/>
+      <c r="K114" s="83"/>
+    </row>
+    <row r="115" spans="1:11" ht="52.8" thickBot="1">
+      <c r="A115" s="106"/>
+      <c r="B115" s="104"/>
+      <c r="C115" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="D114" s="53" t="s">
+      <c r="D115" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="E114" s="63"/>
-      <c r="F114" s="63"/>
-      <c r="G114" s="63"/>
-      <c r="H114" s="127"/>
-      <c r="I114" s="152"/>
-      <c r="J114" s="152"/>
-      <c r="K114" s="152"/>
-    </row>
-    <row r="115" spans="1:11" ht="52.8" thickBot="1">
-      <c r="A115" s="139"/>
-      <c r="B115" s="141"/>
-      <c r="C115" s="30" t="s">
+      <c r="E115" s="64"/>
+      <c r="F115" s="64"/>
+      <c r="G115" s="64"/>
+      <c r="H115" s="78"/>
+      <c r="I115" s="83"/>
+      <c r="J115" s="83"/>
+      <c r="K115" s="83"/>
+    </row>
+    <row r="116" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
+      <c r="A116" s="106"/>
+      <c r="B116" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="D115" s="53" t="s">
+      <c r="C116" s="105"/>
+      <c r="D116" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="E115" s="65"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="126"/>
-      <c r="I115" s="152"/>
-      <c r="J115" s="152"/>
-      <c r="K115" s="152"/>
-    </row>
-    <row r="116" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A116" s="139"/>
-      <c r="B116" s="141" t="s">
+      <c r="E116" s="63"/>
+      <c r="F116" s="63"/>
+      <c r="G116" s="63"/>
+      <c r="H116" s="76"/>
+      <c r="I116" s="82"/>
+      <c r="J116" s="82"/>
+      <c r="K116" s="82"/>
+    </row>
+    <row r="117" spans="1:11" ht="18" customHeight="1" thickBot="1">
+      <c r="A117" s="106"/>
+      <c r="B117" s="104"/>
+      <c r="C117" s="105"/>
+      <c r="D117" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="C116" s="82"/>
-      <c r="D116" s="53" t="s">
+      <c r="E117" s="75"/>
+      <c r="F117" s="75"/>
+      <c r="G117" s="75"/>
+      <c r="H117" s="77"/>
+      <c r="I117" s="83"/>
+      <c r="J117" s="83"/>
+      <c r="K117" s="83"/>
+    </row>
+    <row r="118" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
+      <c r="A118" s="106"/>
+      <c r="B118" s="104"/>
+      <c r="C118" s="105"/>
+      <c r="D118" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="E116" s="62"/>
-      <c r="F116" s="62"/>
-      <c r="G116" s="62"/>
-      <c r="H116" s="125"/>
-      <c r="I116" s="151"/>
-      <c r="J116" s="151"/>
-      <c r="K116" s="151"/>
-    </row>
-    <row r="117" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A117" s="139"/>
-      <c r="B117" s="141"/>
-      <c r="C117" s="82"/>
-      <c r="D117" s="31" t="s">
+      <c r="E118" s="64"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="64"/>
+      <c r="H118" s="78"/>
+      <c r="I118" s="83"/>
+      <c r="J118" s="83"/>
+      <c r="K118" s="83"/>
+    </row>
+    <row r="119" spans="1:11" ht="18" customHeight="1" thickBot="1">
+      <c r="A119" s="106"/>
+      <c r="B119" s="104"/>
+      <c r="C119" s="105"/>
+      <c r="D119" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="E117" s="63"/>
-      <c r="F117" s="63"/>
-      <c r="G117" s="63"/>
-      <c r="H117" s="127"/>
-      <c r="I117" s="152"/>
-      <c r="J117" s="152"/>
-      <c r="K117" s="152"/>
-    </row>
-    <row r="118" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A118" s="139"/>
-      <c r="B118" s="141"/>
-      <c r="C118" s="82"/>
-      <c r="D118" s="47" t="s">
+      <c r="E119" s="63"/>
+      <c r="F119" s="63"/>
+      <c r="G119" s="63"/>
+      <c r="H119" s="76"/>
+      <c r="I119" s="83"/>
+      <c r="J119" s="83"/>
+      <c r="K119" s="83"/>
+    </row>
+    <row r="120" spans="1:11" ht="18" customHeight="1" thickBot="1">
+      <c r="A120" s="106"/>
+      <c r="B120" s="104"/>
+      <c r="C120" s="105"/>
+      <c r="D120" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="E118" s="65"/>
-      <c r="F118" s="65"/>
-      <c r="G118" s="65"/>
-      <c r="H118" s="126"/>
-      <c r="I118" s="152"/>
-      <c r="J118" s="152"/>
-      <c r="K118" s="152"/>
-    </row>
-    <row r="119" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A119" s="139"/>
-      <c r="B119" s="141"/>
-      <c r="C119" s="82"/>
-      <c r="D119" s="59" t="s">
+      <c r="E120" s="64"/>
+      <c r="F120" s="64"/>
+      <c r="G120" s="64"/>
+      <c r="H120" s="78"/>
+      <c r="I120" s="83"/>
+      <c r="J120" s="83"/>
+      <c r="K120" s="83"/>
+    </row>
+    <row r="121" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
+      <c r="A121" s="106"/>
+      <c r="B121" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="E119" s="62"/>
-      <c r="F119" s="62"/>
-      <c r="G119" s="62"/>
-      <c r="H119" s="125"/>
-      <c r="I119" s="152"/>
-      <c r="J119" s="152"/>
-      <c r="K119" s="152"/>
-    </row>
-    <row r="120" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A120" s="139"/>
-      <c r="B120" s="141"/>
-      <c r="C120" s="82"/>
-      <c r="D120" s="60" t="s">
+      <c r="C121" s="105"/>
+      <c r="D121" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="E120" s="65"/>
-      <c r="F120" s="65"/>
-      <c r="G120" s="65"/>
-      <c r="H120" s="126"/>
-      <c r="I120" s="152"/>
-      <c r="J120" s="152"/>
-      <c r="K120" s="152"/>
-    </row>
-    <row r="121" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A121" s="139"/>
-      <c r="B121" s="141" t="s">
+      <c r="E121" s="63"/>
+      <c r="F121" s="63"/>
+      <c r="G121" s="63"/>
+      <c r="H121" s="76"/>
+      <c r="I121" s="83"/>
+      <c r="J121" s="83"/>
+      <c r="K121" s="83"/>
+    </row>
+    <row r="122" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A122" s="106"/>
+      <c r="B122" s="104"/>
+      <c r="C122" s="105"/>
+      <c r="D122" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="C121" s="82"/>
-      <c r="D121" s="47" t="s">
+      <c r="E122" s="75"/>
+      <c r="F122" s="75"/>
+      <c r="G122" s="75"/>
+      <c r="H122" s="77"/>
+      <c r="I122" s="83"/>
+      <c r="J122" s="83"/>
+      <c r="K122" s="83"/>
+    </row>
+    <row r="123" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A123" s="106"/>
+      <c r="B123" s="104"/>
+      <c r="C123" s="105"/>
+      <c r="D123" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="E121" s="62"/>
-      <c r="F121" s="62"/>
-      <c r="G121" s="62"/>
-      <c r="H121" s="125"/>
-      <c r="I121" s="152"/>
-      <c r="J121" s="152"/>
-      <c r="K121" s="152"/>
-    </row>
-    <row r="122" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A122" s="139"/>
-      <c r="B122" s="141"/>
-      <c r="C122" s="82"/>
-      <c r="D122" s="47" t="s">
+      <c r="E123" s="75"/>
+      <c r="F123" s="75"/>
+      <c r="G123" s="75"/>
+      <c r="H123" s="77"/>
+      <c r="I123" s="83"/>
+      <c r="J123" s="83"/>
+      <c r="K123" s="83"/>
+    </row>
+    <row r="124" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A124" s="106"/>
+      <c r="B124" s="104"/>
+      <c r="C124" s="105"/>
+      <c r="D124" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E122" s="63"/>
-      <c r="F122" s="63"/>
-      <c r="G122" s="63"/>
-      <c r="H122" s="127"/>
-      <c r="I122" s="152"/>
-      <c r="J122" s="152"/>
-      <c r="K122" s="152"/>
-    </row>
-    <row r="123" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A123" s="139"/>
-      <c r="B123" s="141"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="47" t="s">
+      <c r="E124" s="64"/>
+      <c r="F124" s="64"/>
+      <c r="G124" s="64"/>
+      <c r="H124" s="78"/>
+      <c r="I124" s="83"/>
+      <c r="J124" s="83"/>
+      <c r="K124" s="83"/>
+    </row>
+    <row r="125" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
+      <c r="A125" s="106"/>
+      <c r="B125" s="104"/>
+      <c r="C125" s="105"/>
+      <c r="D125" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="E123" s="63"/>
-      <c r="F123" s="63"/>
-      <c r="G123" s="63"/>
-      <c r="H123" s="127"/>
-      <c r="I123" s="152"/>
-      <c r="J123" s="152"/>
-      <c r="K123" s="152"/>
-    </row>
-    <row r="124" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A124" s="139"/>
-      <c r="B124" s="141"/>
-      <c r="C124" s="82"/>
-      <c r="D124" s="47" t="s">
+      <c r="E125" s="63"/>
+      <c r="F125" s="66"/>
+      <c r="G125" s="63"/>
+      <c r="H125" s="76"/>
+      <c r="I125" s="83"/>
+      <c r="J125" s="83"/>
+      <c r="K125" s="83"/>
+    </row>
+    <row r="126" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A126" s="106"/>
+      <c r="B126" s="104"/>
+      <c r="C126" s="105"/>
+      <c r="D126" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="E124" s="65"/>
-      <c r="F124" s="65"/>
-      <c r="G124" s="65"/>
-      <c r="H124" s="126"/>
-      <c r="I124" s="152"/>
-      <c r="J124" s="152"/>
-      <c r="K124" s="152"/>
-    </row>
-    <row r="125" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A125" s="139"/>
-      <c r="B125" s="141"/>
-      <c r="C125" s="82"/>
-      <c r="D125" s="47" t="s">
+      <c r="E126" s="75"/>
+      <c r="F126" s="66"/>
+      <c r="G126" s="75"/>
+      <c r="H126" s="77"/>
+      <c r="I126" s="83"/>
+      <c r="J126" s="83"/>
+      <c r="K126" s="83"/>
+    </row>
+    <row r="127" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A127" s="106"/>
+      <c r="B127" s="104"/>
+      <c r="C127" s="105"/>
+      <c r="D127" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="E125" s="62"/>
-      <c r="F125" s="69"/>
-      <c r="G125" s="62"/>
-      <c r="H125" s="125"/>
-      <c r="I125" s="152"/>
-      <c r="J125" s="152"/>
-      <c r="K125" s="152"/>
-    </row>
-    <row r="126" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A126" s="139"/>
-      <c r="B126" s="141"/>
-      <c r="C126" s="82"/>
-      <c r="D126" s="32" t="s">
+      <c r="E127" s="64"/>
+      <c r="F127" s="66"/>
+      <c r="G127" s="64"/>
+      <c r="H127" s="78"/>
+      <c r="I127" s="83"/>
+      <c r="J127" s="83"/>
+      <c r="K127" s="83"/>
+    </row>
+    <row r="128" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
+      <c r="A128" s="106"/>
+      <c r="B128" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="E126" s="63"/>
-      <c r="F126" s="69"/>
-      <c r="G126" s="63"/>
-      <c r="H126" s="127"/>
-      <c r="I126" s="152"/>
-      <c r="J126" s="152"/>
-      <c r="K126" s="152"/>
-    </row>
-    <row r="127" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A127" s="139"/>
-      <c r="B127" s="141"/>
-      <c r="C127" s="82"/>
-      <c r="D127" s="33" t="s">
+      <c r="C128" s="105"/>
+      <c r="D128" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="E127" s="65"/>
-      <c r="F127" s="69"/>
-      <c r="G127" s="65"/>
-      <c r="H127" s="126"/>
-      <c r="I127" s="152"/>
-      <c r="J127" s="152"/>
-      <c r="K127" s="152"/>
-    </row>
-    <row r="128" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A128" s="139"/>
-      <c r="B128" s="141" t="s">
+      <c r="E128" s="63"/>
+      <c r="F128" s="63"/>
+      <c r="G128" s="63"/>
+      <c r="H128" s="76"/>
+      <c r="I128" s="82"/>
+      <c r="J128" s="82"/>
+      <c r="K128" s="82"/>
+    </row>
+    <row r="129" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A129" s="106"/>
+      <c r="B129" s="104"/>
+      <c r="C129" s="105"/>
+      <c r="D129" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="C128" s="82"/>
-      <c r="D128" s="34" t="s">
+      <c r="E129" s="75"/>
+      <c r="F129" s="75"/>
+      <c r="G129" s="75"/>
+      <c r="H129" s="77"/>
+      <c r="I129" s="83"/>
+      <c r="J129" s="83"/>
+      <c r="K129" s="83"/>
+    </row>
+    <row r="130" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A130" s="106"/>
+      <c r="B130" s="104"/>
+      <c r="C130" s="105"/>
+      <c r="D130" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="E128" s="62"/>
-      <c r="F128" s="62"/>
-      <c r="G128" s="62"/>
-      <c r="H128" s="125"/>
-      <c r="I128" s="151"/>
-      <c r="J128" s="151"/>
-      <c r="K128" s="151"/>
-    </row>
-    <row r="129" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A129" s="139"/>
-      <c r="B129" s="141"/>
-      <c r="C129" s="82"/>
-      <c r="D129" s="35" t="s">
+      <c r="E130" s="75"/>
+      <c r="F130" s="75"/>
+      <c r="G130" s="75"/>
+      <c r="H130" s="77"/>
+      <c r="I130" s="83"/>
+      <c r="J130" s="83"/>
+      <c r="K130" s="83"/>
+    </row>
+    <row r="131" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A131" s="106"/>
+      <c r="B131" s="104"/>
+      <c r="C131" s="105"/>
+      <c r="D131" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="E129" s="63"/>
-      <c r="F129" s="63"/>
-      <c r="G129" s="63"/>
-      <c r="H129" s="127"/>
-      <c r="I129" s="152"/>
-      <c r="J129" s="152"/>
-      <c r="K129" s="152"/>
-    </row>
-    <row r="130" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A130" s="139"/>
-      <c r="B130" s="141"/>
-      <c r="C130" s="82"/>
-      <c r="D130" s="35" t="s">
+      <c r="E131" s="64"/>
+      <c r="F131" s="64"/>
+      <c r="G131" s="64"/>
+      <c r="H131" s="78"/>
+      <c r="I131" s="83"/>
+      <c r="J131" s="83"/>
+      <c r="K131" s="83"/>
+    </row>
+    <row r="132" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A132" s="106"/>
+      <c r="B132" s="104"/>
+      <c r="C132" s="105"/>
+      <c r="D132" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="E130" s="63"/>
-      <c r="F130" s="63"/>
-      <c r="G130" s="63"/>
-      <c r="H130" s="127"/>
-      <c r="I130" s="152"/>
-      <c r="J130" s="152"/>
-      <c r="K130" s="152"/>
-    </row>
-    <row r="131" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A131" s="139"/>
-      <c r="B131" s="141"/>
-      <c r="C131" s="82"/>
-      <c r="D131" s="35" t="s">
+      <c r="E132" s="63"/>
+      <c r="F132" s="63"/>
+      <c r="G132" s="63"/>
+      <c r="H132" s="76"/>
+      <c r="I132" s="83"/>
+      <c r="J132" s="83"/>
+      <c r="K132" s="83"/>
+    </row>
+    <row r="133" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A133" s="106"/>
+      <c r="B133" s="104"/>
+      <c r="C133" s="105"/>
+      <c r="D133" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="E131" s="65"/>
-      <c r="F131" s="65"/>
-      <c r="G131" s="65"/>
-      <c r="H131" s="126"/>
-      <c r="I131" s="152"/>
-      <c r="J131" s="152"/>
-      <c r="K131" s="152"/>
-    </row>
-    <row r="132" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A132" s="139"/>
-      <c r="B132" s="141"/>
-      <c r="C132" s="82"/>
-      <c r="D132" s="32" t="s">
+      <c r="E133" s="64"/>
+      <c r="F133" s="64"/>
+      <c r="G133" s="64"/>
+      <c r="H133" s="78"/>
+      <c r="I133" s="83"/>
+      <c r="J133" s="83"/>
+      <c r="K133" s="83"/>
+    </row>
+    <row r="134" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
+      <c r="A134" s="106"/>
+      <c r="B134" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="E132" s="62"/>
-      <c r="F132" s="62"/>
-      <c r="G132" s="62"/>
-      <c r="H132" s="125"/>
-      <c r="I132" s="152"/>
-      <c r="J132" s="152"/>
-      <c r="K132" s="152"/>
-    </row>
-    <row r="133" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A133" s="139"/>
-      <c r="B133" s="141"/>
-      <c r="C133" s="82"/>
-      <c r="D133" s="36" t="s">
+      <c r="C134" s="104"/>
+      <c r="D134" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="E133" s="65"/>
-      <c r="F133" s="65"/>
-      <c r="G133" s="65"/>
-      <c r="H133" s="126"/>
-      <c r="I133" s="152"/>
-      <c r="J133" s="152"/>
-      <c r="K133" s="152"/>
-    </row>
-    <row r="134" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A134" s="139"/>
-      <c r="B134" s="141" t="s">
+      <c r="E134" s="63"/>
+      <c r="F134" s="63"/>
+      <c r="G134" s="63"/>
+      <c r="H134" s="76"/>
+      <c r="I134" s="83"/>
+      <c r="J134" s="83"/>
+      <c r="K134" s="83"/>
+    </row>
+    <row r="135" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A135" s="106"/>
+      <c r="B135" s="104"/>
+      <c r="C135" s="104"/>
+      <c r="D135" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="C134" s="141"/>
-      <c r="D134" s="37" t="s">
+      <c r="E135" s="75"/>
+      <c r="F135" s="75"/>
+      <c r="G135" s="75"/>
+      <c r="H135" s="77"/>
+      <c r="I135" s="83"/>
+      <c r="J135" s="83"/>
+      <c r="K135" s="83"/>
+    </row>
+    <row r="136" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A136" s="106"/>
+      <c r="B136" s="104"/>
+      <c r="C136" s="104"/>
+      <c r="D136" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="E134" s="62"/>
-      <c r="F134" s="62"/>
-      <c r="G134" s="62"/>
-      <c r="H134" s="125"/>
-      <c r="I134" s="152"/>
-      <c r="J134" s="152"/>
-      <c r="K134" s="152"/>
-    </row>
-    <row r="135" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A135" s="139"/>
-      <c r="B135" s="141"/>
-      <c r="C135" s="141"/>
-      <c r="D135" s="38" t="s">
+      <c r="E136" s="64"/>
+      <c r="F136" s="64"/>
+      <c r="G136" s="64"/>
+      <c r="H136" s="78"/>
+      <c r="I136" s="83"/>
+      <c r="J136" s="83"/>
+      <c r="K136" s="83"/>
+    </row>
+    <row r="137" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
+      <c r="A137" s="106"/>
+      <c r="B137" s="104"/>
+      <c r="C137" s="104"/>
+      <c r="D137" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="E135" s="63"/>
-      <c r="F135" s="63"/>
-      <c r="G135" s="63"/>
-      <c r="H135" s="127"/>
-      <c r="I135" s="152"/>
-      <c r="J135" s="152"/>
-      <c r="K135" s="152"/>
-    </row>
-    <row r="136" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A136" s="139"/>
-      <c r="B136" s="141"/>
-      <c r="C136" s="141"/>
-      <c r="D136" s="38" t="s">
+      <c r="E137" s="63"/>
+      <c r="F137" s="63"/>
+      <c r="G137" s="63"/>
+      <c r="H137" s="76"/>
+      <c r="I137" s="83"/>
+      <c r="J137" s="83"/>
+      <c r="K137" s="83"/>
+    </row>
+    <row r="138" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A138" s="106"/>
+      <c r="B138" s="104"/>
+      <c r="C138" s="104"/>
+      <c r="D138" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="E136" s="65"/>
-      <c r="F136" s="65"/>
-      <c r="G136" s="65"/>
-      <c r="H136" s="126"/>
-      <c r="I136" s="152"/>
-      <c r="J136" s="152"/>
-      <c r="K136" s="152"/>
-    </row>
-    <row r="137" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A137" s="139"/>
-      <c r="B137" s="141"/>
-      <c r="C137" s="141"/>
-      <c r="D137" s="53" t="s">
+      <c r="E138" s="75"/>
+      <c r="F138" s="75"/>
+      <c r="G138" s="75"/>
+      <c r="H138" s="77"/>
+      <c r="I138" s="83"/>
+      <c r="J138" s="83"/>
+      <c r="K138" s="83"/>
+    </row>
+    <row r="139" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A139" s="106"/>
+      <c r="B139" s="104"/>
+      <c r="C139" s="104"/>
+      <c r="D139" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="E137" s="62"/>
-      <c r="F137" s="62"/>
-      <c r="G137" s="62"/>
-      <c r="H137" s="125"/>
-      <c r="I137" s="152"/>
-      <c r="J137" s="152"/>
-      <c r="K137" s="152"/>
-    </row>
-    <row r="138" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A138" s="139"/>
-      <c r="B138" s="141"/>
-      <c r="C138" s="141"/>
-      <c r="D138" s="47" t="s">
+      <c r="E139" s="75"/>
+      <c r="F139" s="75"/>
+      <c r="G139" s="75"/>
+      <c r="H139" s="77"/>
+      <c r="I139" s="83"/>
+      <c r="J139" s="83"/>
+      <c r="K139" s="83"/>
+    </row>
+    <row r="140" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A140" s="106"/>
+      <c r="B140" s="104"/>
+      <c r="C140" s="104"/>
+      <c r="D140" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="E138" s="63"/>
-      <c r="F138" s="63"/>
-      <c r="G138" s="63"/>
-      <c r="H138" s="127"/>
-      <c r="I138" s="152"/>
-      <c r="J138" s="152"/>
-      <c r="K138" s="152"/>
-    </row>
-    <row r="139" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A139" s="139"/>
-      <c r="B139" s="141"/>
-      <c r="C139" s="141"/>
-      <c r="D139" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="E139" s="63"/>
-      <c r="F139" s="63"/>
-      <c r="G139" s="63"/>
-      <c r="H139" s="127"/>
-      <c r="I139" s="152"/>
-      <c r="J139" s="152"/>
-      <c r="K139" s="152"/>
-    </row>
-    <row r="140" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A140" s="139"/>
-      <c r="B140" s="141"/>
-      <c r="C140" s="141"/>
-      <c r="D140" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="E140" s="65"/>
-      <c r="F140" s="65"/>
-      <c r="G140" s="65"/>
-      <c r="H140" s="126"/>
-      <c r="I140" s="153"/>
-      <c r="J140" s="153"/>
-      <c r="K140" s="153"/>
+      <c r="E140" s="64"/>
+      <c r="F140" s="64"/>
+      <c r="G140" s="64"/>
+      <c r="H140" s="78"/>
+      <c r="I140" s="84"/>
+      <c r="J140" s="84"/>
+      <c r="K140" s="84"/>
     </row>
     <row r="141" spans="1:11" thickBot="1">
       <c r="D141" s="5"/>
@@ -4631,444 +4637,444 @@
       <c r="H141" s="52"/>
     </row>
     <row r="142" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A142" s="76" t="s">
+      <c r="A142" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="B142" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="C142" s="99"/>
+      <c r="D142" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="B142" s="155" t="s">
+      <c r="E142" s="63"/>
+      <c r="F142" s="68"/>
+      <c r="G142" s="68"/>
+      <c r="H142" s="76"/>
+      <c r="I142" s="82"/>
+      <c r="J142" s="82"/>
+      <c r="K142" s="82"/>
+    </row>
+    <row r="143" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A143" s="92"/>
+      <c r="B143" s="100"/>
+      <c r="C143" s="89"/>
+      <c r="D143" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="C142" s="156"/>
-      <c r="D142" s="61" t="s">
+      <c r="E143" s="75"/>
+      <c r="F143" s="68"/>
+      <c r="G143" s="68"/>
+      <c r="H143" s="77"/>
+      <c r="I143" s="83"/>
+      <c r="J143" s="83"/>
+      <c r="K143" s="83"/>
+    </row>
+    <row r="144" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A144" s="92"/>
+      <c r="B144" s="100"/>
+      <c r="C144" s="89"/>
+      <c r="D144" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E144" s="64"/>
+      <c r="F144" s="68"/>
+      <c r="G144" s="68"/>
+      <c r="H144" s="78"/>
+      <c r="I144" s="83"/>
+      <c r="J144" s="83"/>
+      <c r="K144" s="83"/>
+    </row>
+    <row r="145" spans="1:11" ht="19.05" customHeight="1">
+      <c r="A145" s="92"/>
+      <c r="B145" s="100"/>
+      <c r="C145" s="89"/>
+      <c r="D145" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E142" s="62"/>
-      <c r="F142" s="85"/>
-      <c r="G142" s="85"/>
-      <c r="H142" s="125"/>
-      <c r="I142" s="151"/>
-      <c r="J142" s="151"/>
-      <c r="K142" s="151"/>
-    </row>
-    <row r="143" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A143" s="77"/>
-      <c r="B143" s="157"/>
-      <c r="C143" s="158"/>
-      <c r="D143" s="58" t="s">
+      <c r="E145" s="63"/>
+      <c r="F145" s="63"/>
+      <c r="G145" s="63"/>
+      <c r="H145" s="76"/>
+      <c r="I145" s="83"/>
+      <c r="J145" s="83"/>
+      <c r="K145" s="83"/>
+    </row>
+    <row r="146" spans="1:11" ht="19.05" customHeight="1">
+      <c r="A146" s="92"/>
+      <c r="B146" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="E143" s="63"/>
-      <c r="F143" s="85"/>
-      <c r="G143" s="85"/>
-      <c r="H143" s="127"/>
-      <c r="I143" s="152"/>
-      <c r="J143" s="152"/>
-      <c r="K143" s="152"/>
-    </row>
-    <row r="144" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A144" s="77"/>
-      <c r="B144" s="157"/>
-      <c r="C144" s="158"/>
-      <c r="D144" s="58" t="s">
+      <c r="C146" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="E144" s="65"/>
-      <c r="F144" s="85"/>
-      <c r="G144" s="85"/>
-      <c r="H144" s="126"/>
-      <c r="I144" s="152"/>
-      <c r="J144" s="152"/>
-      <c r="K144" s="152"/>
-    </row>
-    <row r="145" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A145" s="77"/>
-      <c r="B145" s="157"/>
-      <c r="C145" s="158"/>
-      <c r="D145" s="11" t="s">
+      <c r="D146" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E145" s="62"/>
-      <c r="F145" s="62"/>
-      <c r="G145" s="62"/>
-      <c r="H145" s="125"/>
-      <c r="I145" s="152"/>
-      <c r="J145" s="152"/>
-      <c r="K145" s="152"/>
-    </row>
-    <row r="146" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A146" s="77"/>
-      <c r="B146" s="107" t="s">
+      <c r="E146" s="75"/>
+      <c r="F146" s="75"/>
+      <c r="G146" s="75"/>
+      <c r="H146" s="77"/>
+      <c r="I146" s="83"/>
+      <c r="J146" s="83"/>
+      <c r="K146" s="83"/>
+    </row>
+    <row r="147" spans="1:11" ht="18" customHeight="1" thickBot="1">
+      <c r="A147" s="92"/>
+      <c r="B147" s="101"/>
+      <c r="C147" s="88"/>
+      <c r="D147" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C146" s="160" t="s">
+      <c r="E147" s="64"/>
+      <c r="F147" s="64"/>
+      <c r="G147" s="64"/>
+      <c r="H147" s="78"/>
+      <c r="I147" s="83"/>
+      <c r="J147" s="83"/>
+      <c r="K147" s="83"/>
+    </row>
+    <row r="148" spans="1:11" ht="19.05" customHeight="1">
+      <c r="A148" s="92"/>
+      <c r="B148" s="101"/>
+      <c r="C148" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="D146" s="16" t="s">
+      <c r="D148" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E146" s="63"/>
-      <c r="F146" s="63"/>
-      <c r="G146" s="63"/>
-      <c r="H146" s="127"/>
-      <c r="I146" s="152"/>
-      <c r="J146" s="152"/>
-      <c r="K146" s="152"/>
-    </row>
-    <row r="147" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A147" s="77"/>
-      <c r="B147" s="107"/>
-      <c r="C147" s="160"/>
-      <c r="D147" s="16" t="s">
+      <c r="E148" s="63"/>
+      <c r="F148" s="63"/>
+      <c r="G148" s="63"/>
+      <c r="H148" s="76"/>
+      <c r="I148" s="83"/>
+      <c r="J148" s="83"/>
+      <c r="K148" s="83"/>
+    </row>
+    <row r="149" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A149" s="92"/>
+      <c r="B149" s="101"/>
+      <c r="C149" s="89"/>
+      <c r="D149" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E147" s="65"/>
-      <c r="F147" s="65"/>
-      <c r="G147" s="65"/>
-      <c r="H147" s="126"/>
-      <c r="I147" s="152"/>
-      <c r="J147" s="152"/>
-      <c r="K147" s="152"/>
-    </row>
-    <row r="148" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A148" s="77"/>
-      <c r="B148" s="107"/>
-      <c r="C148" s="160" t="s">
+      <c r="E149" s="75"/>
+      <c r="F149" s="75"/>
+      <c r="G149" s="75"/>
+      <c r="H149" s="77"/>
+      <c r="I149" s="83"/>
+      <c r="J149" s="83"/>
+      <c r="K149" s="83"/>
+    </row>
+    <row r="150" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A150" s="92"/>
+      <c r="B150" s="101"/>
+      <c r="C150" s="89"/>
+      <c r="D150" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D148" s="12" t="s">
+      <c r="E150" s="64"/>
+      <c r="F150" s="64"/>
+      <c r="G150" s="64"/>
+      <c r="H150" s="78"/>
+      <c r="I150" s="83"/>
+      <c r="J150" s="83"/>
+      <c r="K150" s="83"/>
+    </row>
+    <row r="151" spans="1:11" ht="19.05" customHeight="1">
+      <c r="A151" s="92"/>
+      <c r="B151" s="101"/>
+      <c r="C151" s="89"/>
+      <c r="D151" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="E148" s="62"/>
-      <c r="F148" s="62"/>
-      <c r="G148" s="62"/>
-      <c r="H148" s="125"/>
-      <c r="I148" s="152"/>
-      <c r="J148" s="152"/>
-      <c r="K148" s="152"/>
-    </row>
-    <row r="149" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A149" s="77"/>
-      <c r="B149" s="107"/>
-      <c r="C149" s="158"/>
-      <c r="D149" s="12" t="s">
+      <c r="E151" s="63"/>
+      <c r="F151" s="63"/>
+      <c r="G151" s="63"/>
+      <c r="H151" s="76"/>
+      <c r="I151" s="83"/>
+      <c r="J151" s="83"/>
+      <c r="K151" s="83"/>
+    </row>
+    <row r="152" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A152" s="92"/>
+      <c r="B152" s="101"/>
+      <c r="C152" s="89"/>
+      <c r="D152" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="E149" s="63"/>
-      <c r="F149" s="63"/>
-      <c r="G149" s="63"/>
-      <c r="H149" s="127"/>
-      <c r="I149" s="152"/>
-      <c r="J149" s="152"/>
-      <c r="K149" s="152"/>
-    </row>
-    <row r="150" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A150" s="77"/>
-      <c r="B150" s="107"/>
-      <c r="C150" s="158"/>
-      <c r="D150" s="12" t="s">
+      <c r="E152" s="75"/>
+      <c r="F152" s="75"/>
+      <c r="G152" s="75"/>
+      <c r="H152" s="77"/>
+      <c r="I152" s="83"/>
+      <c r="J152" s="83"/>
+      <c r="K152" s="83"/>
+    </row>
+    <row r="153" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A153" s="97"/>
+      <c r="B153" s="102"/>
+      <c r="C153" s="103"/>
+      <c r="D153" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="E150" s="65"/>
-      <c r="F150" s="65"/>
-      <c r="G150" s="65"/>
-      <c r="H150" s="126"/>
-      <c r="I150" s="152"/>
-      <c r="J150" s="152"/>
-      <c r="K150" s="152"/>
-    </row>
-    <row r="151" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A151" s="77"/>
-      <c r="B151" s="107"/>
-      <c r="C151" s="158"/>
-      <c r="D151" s="47" t="s">
+      <c r="E153" s="64"/>
+      <c r="F153" s="64"/>
+      <c r="G153" s="64"/>
+      <c r="H153" s="78"/>
+      <c r="I153" s="84"/>
+      <c r="J153" s="84"/>
+      <c r="K153" s="84"/>
+    </row>
+    <row r="154" spans="1:11" ht="19.05" customHeight="1">
+      <c r="A154" s="91" t="s">
         <v>203</v>
       </c>
-      <c r="E151" s="62"/>
-      <c r="F151" s="62"/>
-      <c r="G151" s="62"/>
-      <c r="H151" s="125"/>
-      <c r="I151" s="152"/>
-      <c r="J151" s="152"/>
-      <c r="K151" s="152"/>
-    </row>
-    <row r="152" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A152" s="77"/>
-      <c r="B152" s="107"/>
-      <c r="C152" s="158"/>
-      <c r="D152" s="47" t="s">
+      <c r="B154" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="E152" s="63"/>
-      <c r="F152" s="63"/>
-      <c r="G152" s="63"/>
-      <c r="H152" s="127"/>
-      <c r="I152" s="152"/>
-      <c r="J152" s="152"/>
-      <c r="K152" s="152"/>
-    </row>
-    <row r="153" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A153" s="154"/>
-      <c r="B153" s="159"/>
-      <c r="C153" s="122"/>
-      <c r="D153" s="47" t="s">
+      <c r="C154" s="95"/>
+      <c r="D154" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="E153" s="65"/>
-      <c r="F153" s="65"/>
-      <c r="G153" s="65"/>
-      <c r="H153" s="126"/>
-      <c r="I153" s="153"/>
-      <c r="J153" s="153"/>
-      <c r="K153" s="153"/>
-    </row>
-    <row r="154" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A154" s="76" t="s">
+      <c r="E154" s="63"/>
+      <c r="F154" s="63"/>
+      <c r="G154" s="63"/>
+      <c r="H154" s="76"/>
+      <c r="I154" s="82"/>
+      <c r="J154" s="82"/>
+      <c r="K154" s="82"/>
+    </row>
+    <row r="155" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A155" s="92"/>
+      <c r="B155" s="86"/>
+      <c r="C155" s="96"/>
+      <c r="D155" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="B154" s="134" t="s">
+      <c r="E155" s="75"/>
+      <c r="F155" s="75"/>
+      <c r="G155" s="75"/>
+      <c r="H155" s="77"/>
+      <c r="I155" s="83"/>
+      <c r="J155" s="83"/>
+      <c r="K155" s="83"/>
+    </row>
+    <row r="156" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A156" s="92"/>
+      <c r="B156" s="86"/>
+      <c r="C156" s="96"/>
+      <c r="D156" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="C154" s="135"/>
-      <c r="D154" s="41" t="s">
+      <c r="E156" s="64"/>
+      <c r="F156" s="64"/>
+      <c r="G156" s="64"/>
+      <c r="H156" s="78"/>
+      <c r="I156" s="83"/>
+      <c r="J156" s="83"/>
+      <c r="K156" s="83"/>
+    </row>
+    <row r="157" spans="1:11" ht="19.05" customHeight="1">
+      <c r="A157" s="92"/>
+      <c r="B157" s="86"/>
+      <c r="C157" s="96"/>
+      <c r="D157" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E154" s="62"/>
-      <c r="F154" s="62"/>
-      <c r="G154" s="62"/>
-      <c r="H154" s="125"/>
-      <c r="I154" s="151"/>
-      <c r="J154" s="151"/>
-      <c r="K154" s="151"/>
-    </row>
-    <row r="155" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A155" s="77"/>
-      <c r="B155" s="95"/>
-      <c r="C155" s="86"/>
-      <c r="D155" s="47" t="s">
+      <c r="E157" s="63"/>
+      <c r="F157" s="68"/>
+      <c r="G157" s="68"/>
+      <c r="H157" s="76"/>
+      <c r="I157" s="83"/>
+      <c r="J157" s="83"/>
+      <c r="K157" s="83"/>
+    </row>
+    <row r="158" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A158" s="92"/>
+      <c r="B158" s="86"/>
+      <c r="C158" s="96"/>
+      <c r="D158" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E155" s="63"/>
-      <c r="F155" s="63"/>
-      <c r="G155" s="63"/>
-      <c r="H155" s="127"/>
-      <c r="I155" s="152"/>
-      <c r="J155" s="152"/>
-      <c r="K155" s="152"/>
-    </row>
-    <row r="156" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A156" s="77"/>
-      <c r="B156" s="95"/>
-      <c r="C156" s="86"/>
-      <c r="D156" s="47" t="s">
+      <c r="E158" s="75"/>
+      <c r="F158" s="68"/>
+      <c r="G158" s="68"/>
+      <c r="H158" s="77"/>
+      <c r="I158" s="83"/>
+      <c r="J158" s="83"/>
+      <c r="K158" s="83"/>
+    </row>
+    <row r="159" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A159" s="92"/>
+      <c r="B159" s="86"/>
+      <c r="C159" s="96"/>
+      <c r="D159" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E159" s="64"/>
+      <c r="F159" s="68"/>
+      <c r="G159" s="68"/>
+      <c r="H159" s="78"/>
+      <c r="I159" s="83"/>
+      <c r="J159" s="83"/>
+      <c r="K159" s="83"/>
+    </row>
+    <row r="160" spans="1:11" ht="19.05" customHeight="1">
+      <c r="A160" s="92"/>
+      <c r="B160" s="86"/>
+      <c r="C160" s="96"/>
+      <c r="D160" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="E156" s="65"/>
-      <c r="F156" s="65"/>
-      <c r="G156" s="65"/>
-      <c r="H156" s="126"/>
-      <c r="I156" s="152"/>
-      <c r="J156" s="152"/>
-      <c r="K156" s="152"/>
-    </row>
-    <row r="157" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A157" s="77"/>
-      <c r="B157" s="95"/>
-      <c r="C157" s="86"/>
-      <c r="D157" s="6" t="s">
+      <c r="E160" s="63"/>
+      <c r="F160" s="63"/>
+      <c r="G160" s="63"/>
+      <c r="H160" s="76"/>
+      <c r="I160" s="83"/>
+      <c r="J160" s="83"/>
+      <c r="K160" s="83"/>
+    </row>
+    <row r="161" spans="1:11" ht="18" customHeight="1">
+      <c r="A161" s="92"/>
+      <c r="B161" s="86"/>
+      <c r="C161" s="96"/>
+      <c r="D161" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="E157" s="62"/>
-      <c r="F157" s="85"/>
-      <c r="G157" s="85"/>
-      <c r="H157" s="125"/>
-      <c r="I157" s="152"/>
-      <c r="J157" s="152"/>
-      <c r="K157" s="152"/>
-    </row>
-    <row r="158" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A158" s="77"/>
-      <c r="B158" s="95"/>
-      <c r="C158" s="86"/>
-      <c r="D158" s="6" t="s">
+      <c r="E161" s="75"/>
+      <c r="F161" s="75"/>
+      <c r="G161" s="75"/>
+      <c r="H161" s="77"/>
+      <c r="I161" s="83"/>
+      <c r="J161" s="83"/>
+      <c r="K161" s="83"/>
+    </row>
+    <row r="162" spans="1:11" ht="19.05" customHeight="1">
+      <c r="A162" s="92"/>
+      <c r="B162" s="86"/>
+      <c r="C162" s="96"/>
+      <c r="D162" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E158" s="63"/>
-      <c r="F158" s="85"/>
-      <c r="G158" s="85"/>
-      <c r="H158" s="127"/>
-      <c r="I158" s="152"/>
-      <c r="J158" s="152"/>
-      <c r="K158" s="152"/>
-    </row>
-    <row r="159" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A159" s="77"/>
-      <c r="B159" s="95"/>
-      <c r="C159" s="86"/>
-      <c r="D159" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E159" s="65"/>
-      <c r="F159" s="85"/>
-      <c r="G159" s="85"/>
-      <c r="H159" s="126"/>
-      <c r="I159" s="152"/>
-      <c r="J159" s="152"/>
-      <c r="K159" s="152"/>
-    </row>
-    <row r="160" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A160" s="77"/>
-      <c r="B160" s="95"/>
-      <c r="C160" s="86"/>
-      <c r="D160" s="11" t="s">
+      <c r="E162" s="75"/>
+      <c r="F162" s="75"/>
+      <c r="G162" s="75"/>
+      <c r="H162" s="77"/>
+      <c r="I162" s="83"/>
+      <c r="J162" s="83"/>
+      <c r="K162" s="83"/>
+    </row>
+    <row r="163" spans="1:11" ht="18" customHeight="1" thickBot="1">
+      <c r="A163" s="92"/>
+      <c r="B163" s="86"/>
+      <c r="C163" s="96"/>
+      <c r="D163" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E160" s="62"/>
-      <c r="F160" s="62"/>
-      <c r="G160" s="62"/>
-      <c r="H160" s="125"/>
-      <c r="I160" s="152"/>
-      <c r="J160" s="152"/>
-      <c r="K160" s="152"/>
-    </row>
-    <row r="161" spans="1:11" ht="18" customHeight="1">
-      <c r="A161" s="77"/>
-      <c r="B161" s="95"/>
-      <c r="C161" s="86"/>
-      <c r="D161" s="16" t="s">
+      <c r="E163" s="64"/>
+      <c r="F163" s="64"/>
+      <c r="G163" s="64"/>
+      <c r="H163" s="78"/>
+      <c r="I163" s="83"/>
+      <c r="J163" s="83"/>
+      <c r="K163" s="83"/>
+    </row>
+    <row r="164" spans="1:11" ht="19.05" customHeight="1">
+      <c r="A164" s="92"/>
+      <c r="B164" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="E161" s="63"/>
-      <c r="F161" s="63"/>
-      <c r="G161" s="63"/>
-      <c r="H161" s="127"/>
-      <c r="I161" s="152"/>
-      <c r="J161" s="152"/>
-      <c r="K161" s="152"/>
-    </row>
-    <row r="162" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A162" s="77"/>
-      <c r="B162" s="95"/>
-      <c r="C162" s="86"/>
-      <c r="D162" s="6" t="s">
+      <c r="C164" s="88" t="s">
         <v>215</v>
       </c>
-      <c r="E162" s="63"/>
-      <c r="F162" s="63"/>
-      <c r="G162" s="63"/>
-      <c r="H162" s="127"/>
-      <c r="I162" s="152"/>
-      <c r="J162" s="152"/>
-      <c r="K162" s="152"/>
-    </row>
-    <row r="163" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A163" s="77"/>
-      <c r="B163" s="95"/>
-      <c r="C163" s="86"/>
-      <c r="D163" s="6" t="s">
+      <c r="D164" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="E163" s="65"/>
-      <c r="F163" s="65"/>
-      <c r="G163" s="65"/>
-      <c r="H163" s="126"/>
-      <c r="I163" s="152"/>
-      <c r="J163" s="152"/>
-      <c r="K163" s="152"/>
-    </row>
-    <row r="164" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A164" s="77"/>
-      <c r="B164" s="96" t="s">
+      <c r="E164" s="63"/>
+      <c r="F164" s="63"/>
+      <c r="G164" s="63"/>
+      <c r="H164" s="76"/>
+      <c r="I164" s="83"/>
+      <c r="J164" s="83"/>
+      <c r="K164" s="83"/>
+    </row>
+    <row r="165" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A165" s="92"/>
+      <c r="B165" s="86"/>
+      <c r="C165" s="89"/>
+      <c r="D165" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="C164" s="160" t="s">
+      <c r="E165" s="75"/>
+      <c r="F165" s="75"/>
+      <c r="G165" s="75"/>
+      <c r="H165" s="77"/>
+      <c r="I165" s="83"/>
+      <c r="J165" s="83"/>
+      <c r="K165" s="83"/>
+    </row>
+    <row r="166" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
+      <c r="A166" s="92"/>
+      <c r="B166" s="86"/>
+      <c r="C166" s="89"/>
+      <c r="D166" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="D164" s="47" t="s">
+      <c r="E166" s="64"/>
+      <c r="F166" s="64"/>
+      <c r="G166" s="64"/>
+      <c r="H166" s="78"/>
+      <c r="I166" s="83"/>
+      <c r="J166" s="83"/>
+      <c r="K166" s="83"/>
+    </row>
+    <row r="167" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A167" s="92"/>
+      <c r="B167" s="86"/>
+      <c r="C167" s="89"/>
+      <c r="D167" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="E164" s="62"/>
-      <c r="F164" s="62"/>
-      <c r="G164" s="62"/>
-      <c r="H164" s="125"/>
-      <c r="I164" s="152"/>
-      <c r="J164" s="152"/>
-      <c r="K164" s="152"/>
-    </row>
-    <row r="165" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A165" s="77"/>
-      <c r="B165" s="95"/>
-      <c r="C165" s="158"/>
-      <c r="D165" s="47" t="s">
+      <c r="E167" s="63"/>
+      <c r="F167" s="63"/>
+      <c r="G167" s="63"/>
+      <c r="H167" s="76"/>
+      <c r="I167" s="83"/>
+      <c r="J167" s="83"/>
+      <c r="K167" s="83"/>
+    </row>
+    <row r="168" spans="1:11" ht="19.05" customHeight="1">
+      <c r="A168" s="92"/>
+      <c r="B168" s="86"/>
+      <c r="C168" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="E165" s="63"/>
-      <c r="F165" s="63"/>
-      <c r="G165" s="63"/>
-      <c r="H165" s="127"/>
-      <c r="I165" s="152"/>
-      <c r="J165" s="152"/>
-      <c r="K165" s="152"/>
-    </row>
-    <row r="166" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
-      <c r="A166" s="77"/>
-      <c r="B166" s="95"/>
-      <c r="C166" s="158"/>
-      <c r="D166" s="47" t="s">
+      <c r="D168" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E166" s="65"/>
-      <c r="F166" s="65"/>
-      <c r="G166" s="65"/>
-      <c r="H166" s="126"/>
-      <c r="I166" s="152"/>
-      <c r="J166" s="152"/>
-      <c r="K166" s="152"/>
-    </row>
-    <row r="167" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A167" s="77"/>
-      <c r="B167" s="95"/>
-      <c r="C167" s="158"/>
-      <c r="D167" s="12" t="s">
+      <c r="E168" s="75"/>
+      <c r="F168" s="75"/>
+      <c r="G168" s="75"/>
+      <c r="H168" s="77"/>
+      <c r="I168" s="83"/>
+      <c r="J168" s="83"/>
+      <c r="K168" s="83"/>
+    </row>
+    <row r="169" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A169" s="93"/>
+      <c r="B169" s="87"/>
+      <c r="C169" s="90"/>
+      <c r="D169" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="E167" s="62"/>
-      <c r="F167" s="62"/>
-      <c r="G167" s="62"/>
-      <c r="H167" s="125"/>
-      <c r="I167" s="152"/>
-      <c r="J167" s="152"/>
-      <c r="K167" s="152"/>
-    </row>
-    <row r="168" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A168" s="77"/>
-      <c r="B168" s="95"/>
-      <c r="C168" s="160" t="s">
-        <v>223</v>
-      </c>
-      <c r="D168" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="E168" s="63"/>
-      <c r="F168" s="63"/>
-      <c r="G168" s="63"/>
-      <c r="H168" s="127"/>
-      <c r="I168" s="152"/>
-      <c r="J168" s="152"/>
-      <c r="K168" s="152"/>
-    </row>
-    <row r="169" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A169" s="78"/>
-      <c r="B169" s="97"/>
-      <c r="C169" s="161"/>
-      <c r="D169" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="E169" s="65"/>
-      <c r="F169" s="65"/>
-      <c r="G169" s="65"/>
-      <c r="H169" s="126"/>
-      <c r="I169" s="153"/>
-      <c r="J169" s="153"/>
-      <c r="K169" s="153"/>
+      <c r="E169" s="64"/>
+      <c r="F169" s="64"/>
+      <c r="G169" s="64"/>
+      <c r="H169" s="78"/>
+      <c r="I169" s="84"/>
+      <c r="J169" s="84"/>
+      <c r="K169" s="84"/>
     </row>
     <row r="170" spans="1:11" ht="19.2">
       <c r="E170" s="5"/>
@@ -6270,6 +6276,296 @@
     </row>
   </sheetData>
   <mergeCells count="314">
+    <mergeCell ref="K2:K11"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I11"/>
+    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I12:I22"/>
+    <mergeCell ref="J12:J22"/>
+    <mergeCell ref="K12:K22"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="A27:A46"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="B30:C35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="B36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="B12:B22"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B40:C42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="B43:C46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="I47:I58"/>
+    <mergeCell ref="J47:J58"/>
+    <mergeCell ref="K47:K58"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="I36:I46"/>
+    <mergeCell ref="J36:J46"/>
+    <mergeCell ref="K36:K46"/>
+    <mergeCell ref="I27:I35"/>
+    <mergeCell ref="J27:J35"/>
+    <mergeCell ref="K27:K35"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="I59:I69"/>
+    <mergeCell ref="J59:J69"/>
+    <mergeCell ref="K59:K69"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B59:C62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="B68:C69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="A70:A80"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="A47:A69"/>
+    <mergeCell ref="B47:C54"/>
+    <mergeCell ref="B55:C58"/>
+    <mergeCell ref="B78:C80"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="I78:I82"/>
+    <mergeCell ref="J78:J82"/>
+    <mergeCell ref="K78:K82"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I77"/>
+    <mergeCell ref="J70:J77"/>
+    <mergeCell ref="K70:K77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="I83:I102"/>
+    <mergeCell ref="J83:J102"/>
+    <mergeCell ref="K83:K102"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="A81:A110"/>
+    <mergeCell ref="B81:C82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="B83:B102"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="C89:C99"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="A112:A140"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="F112:F115"/>
+    <mergeCell ref="G112:G115"/>
+    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="B103:C106"/>
+    <mergeCell ref="B107:C110"/>
+    <mergeCell ref="B128:C133"/>
+    <mergeCell ref="B134:C140"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="B116:C120"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="G116:G118"/>
+    <mergeCell ref="F116:F118"/>
+    <mergeCell ref="H116:H118"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="K103:K110"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="I116:I127"/>
+    <mergeCell ref="J116:J127"/>
+    <mergeCell ref="K116:K127"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="B121:C127"/>
+    <mergeCell ref="E121:E124"/>
+    <mergeCell ref="F121:F124"/>
+    <mergeCell ref="G121:G124"/>
+    <mergeCell ref="H121:H124"/>
+    <mergeCell ref="K142:K153"/>
+    <mergeCell ref="E145:E147"/>
+    <mergeCell ref="F145:F147"/>
+    <mergeCell ref="G145:G147"/>
+    <mergeCell ref="H145:H147"/>
+    <mergeCell ref="E148:E150"/>
+    <mergeCell ref="F148:F150"/>
+    <mergeCell ref="G148:G150"/>
+    <mergeCell ref="A142:A153"/>
+    <mergeCell ref="B142:C145"/>
+    <mergeCell ref="E142:E144"/>
+    <mergeCell ref="F142:F144"/>
+    <mergeCell ref="G142:G144"/>
+    <mergeCell ref="H142:H144"/>
+    <mergeCell ref="B146:B153"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C148:C153"/>
+    <mergeCell ref="A154:A169"/>
+    <mergeCell ref="B154:C163"/>
+    <mergeCell ref="E154:E156"/>
+    <mergeCell ref="F154:F156"/>
+    <mergeCell ref="G154:G156"/>
+    <mergeCell ref="I142:I153"/>
+    <mergeCell ref="J142:J153"/>
+    <mergeCell ref="E151:E153"/>
+    <mergeCell ref="F151:F153"/>
+    <mergeCell ref="G151:G153"/>
+    <mergeCell ref="H151:H153"/>
+    <mergeCell ref="H137:H140"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="E137:E140"/>
+    <mergeCell ref="B164:B169"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="G164:G166"/>
+    <mergeCell ref="H164:H166"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="F167:F169"/>
+    <mergeCell ref="H154:H156"/>
+    <mergeCell ref="G167:G169"/>
+    <mergeCell ref="H167:H169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="E157:E159"/>
+    <mergeCell ref="F157:F159"/>
+    <mergeCell ref="G157:G159"/>
+    <mergeCell ref="H157:H159"/>
+    <mergeCell ref="E160:E163"/>
+    <mergeCell ref="F160:F163"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="G125:G127"/>
+    <mergeCell ref="H125:H127"/>
+    <mergeCell ref="F125:F127"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="H134:H136"/>
+    <mergeCell ref="E128:E131"/>
+    <mergeCell ref="F128:F131"/>
+    <mergeCell ref="G128:G131"/>
+    <mergeCell ref="H128:H131"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="H132:H133"/>
     <mergeCell ref="G83:G84"/>
     <mergeCell ref="H83:H84"/>
     <mergeCell ref="G57:G58"/>
@@ -6294,296 +6590,6 @@
     <mergeCell ref="J112:J115"/>
     <mergeCell ref="K112:K115"/>
     <mergeCell ref="J103:J110"/>
-    <mergeCell ref="G96:G98"/>
-    <mergeCell ref="H96:H98"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="E125:E127"/>
-    <mergeCell ref="G125:G127"/>
-    <mergeCell ref="H125:H127"/>
-    <mergeCell ref="F125:F127"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="F134:F136"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="H134:H136"/>
-    <mergeCell ref="E128:E131"/>
-    <mergeCell ref="F128:F131"/>
-    <mergeCell ref="G128:G131"/>
-    <mergeCell ref="H128:H131"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="H137:H140"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="E137:E140"/>
-    <mergeCell ref="B164:B169"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="F164:F166"/>
-    <mergeCell ref="G164:G166"/>
-    <mergeCell ref="H164:H166"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="F167:F169"/>
-    <mergeCell ref="H154:H156"/>
-    <mergeCell ref="G167:G169"/>
-    <mergeCell ref="H167:H169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="E157:E159"/>
-    <mergeCell ref="F157:F159"/>
-    <mergeCell ref="G157:G159"/>
-    <mergeCell ref="H157:H159"/>
-    <mergeCell ref="E160:E163"/>
-    <mergeCell ref="F160:F163"/>
-    <mergeCell ref="A154:A169"/>
-    <mergeCell ref="B154:C163"/>
-    <mergeCell ref="E154:E156"/>
-    <mergeCell ref="F154:F156"/>
-    <mergeCell ref="G154:G156"/>
-    <mergeCell ref="I142:I153"/>
-    <mergeCell ref="J142:J153"/>
-    <mergeCell ref="E151:E153"/>
-    <mergeCell ref="F151:F153"/>
-    <mergeCell ref="G151:G153"/>
-    <mergeCell ref="H151:H153"/>
-    <mergeCell ref="K142:K153"/>
-    <mergeCell ref="E145:E147"/>
-    <mergeCell ref="F145:F147"/>
-    <mergeCell ref="G145:G147"/>
-    <mergeCell ref="H145:H147"/>
-    <mergeCell ref="E148:E150"/>
-    <mergeCell ref="F148:F150"/>
-    <mergeCell ref="G148:G150"/>
-    <mergeCell ref="A142:A153"/>
-    <mergeCell ref="B142:C145"/>
-    <mergeCell ref="E142:E144"/>
-    <mergeCell ref="F142:F144"/>
-    <mergeCell ref="G142:G144"/>
-    <mergeCell ref="H142:H144"/>
-    <mergeCell ref="B146:B153"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="C148:C153"/>
-    <mergeCell ref="I116:I127"/>
-    <mergeCell ref="J116:J127"/>
-    <mergeCell ref="K116:K127"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="B121:C127"/>
-    <mergeCell ref="E121:E124"/>
-    <mergeCell ref="F121:F124"/>
-    <mergeCell ref="G121:G124"/>
-    <mergeCell ref="H121:H124"/>
-    <mergeCell ref="K103:K110"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="A112:A140"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="E112:E115"/>
-    <mergeCell ref="F112:F115"/>
-    <mergeCell ref="G112:G115"/>
-    <mergeCell ref="H112:H115"/>
-    <mergeCell ref="B103:C106"/>
-    <mergeCell ref="B107:C110"/>
-    <mergeCell ref="B128:C133"/>
-    <mergeCell ref="B134:C140"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="B116:C120"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="G116:G118"/>
-    <mergeCell ref="F116:F118"/>
-    <mergeCell ref="H116:H118"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="I83:I102"/>
-    <mergeCell ref="J83:J102"/>
-    <mergeCell ref="K83:K102"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="A81:A110"/>
-    <mergeCell ref="B81:C82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="B83:B102"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="C89:C99"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="I78:I82"/>
-    <mergeCell ref="J78:J82"/>
-    <mergeCell ref="K78:K82"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I77"/>
-    <mergeCell ref="J70:J77"/>
-    <mergeCell ref="K70:K77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="A70:A80"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="A47:A69"/>
-    <mergeCell ref="B47:C54"/>
-    <mergeCell ref="B55:C58"/>
-    <mergeCell ref="B78:C80"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="I59:I69"/>
-    <mergeCell ref="J59:J69"/>
-    <mergeCell ref="K59:K69"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B59:C62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="B68:C69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="K47:K58"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="I36:I46"/>
-    <mergeCell ref="J36:J46"/>
-    <mergeCell ref="K36:K46"/>
-    <mergeCell ref="I27:I35"/>
-    <mergeCell ref="J27:J35"/>
-    <mergeCell ref="K27:K35"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="B43:C46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="I47:I58"/>
-    <mergeCell ref="J47:J58"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="A27:A46"/>
-    <mergeCell ref="B27:C29"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="B30:C35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="B36:C39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="B12:B22"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B40:C42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I12:I22"/>
-    <mergeCell ref="J12:J22"/>
-    <mergeCell ref="K12:K22"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="K2:K11"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I11"/>
-    <mergeCell ref="J2:J11"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="E15:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
